--- a/check_result.xlsx
+++ b/check_result.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,9 +434,9 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="124" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="118" customWidth="1" min="5" max="5"/>
+    <col width="54" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,15 +471,11 @@
       <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>7, 8</t>
-        </is>
-      </c>
+      <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16</t>
         </is>
       </c>
     </row>
@@ -488,11 +484,15 @@
       <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>1, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -501,11 +501,15 @@
       <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -514,11 +518,15 @@
       <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -527,11 +535,15 @@
       <c r="B6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -540,11 +552,15 @@
       <c r="B7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -555,13 +571,13 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1, 8</t>
+          <t>2, 3, 4, 5, 6, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -572,13 +588,13 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>2, 3, 4, 5, 6, 7, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -587,11 +603,15 @@
       <c r="B10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -602,13 +622,13 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 11, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -617,11 +637,15 @@
       <c r="B12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -632,13 +656,13 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 11, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -647,11 +671,15 @@
       <c r="B14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -660,11 +688,15 @@
       <c r="B15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -673,11 +705,15 @@
       <c r="B16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 16</t>
         </is>
       </c>
     </row>
@@ -690,7 +726,7 @@
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
+          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15</t>
         </is>
       </c>
     </row>
@@ -701,11 +737,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr"/>
@@ -714,11 +746,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr"/>
@@ -727,11 +755,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr"/>
@@ -740,11 +764,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr"/>
@@ -753,11 +773,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr"/>
@@ -766,11 +782,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr"/>
@@ -779,11 +791,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 24, 25, 26, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr"/>
@@ -792,11 +800,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 25, 26, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr"/>
@@ -805,11 +809,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 26, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr"/>
@@ -818,11 +818,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 27, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr"/>
@@ -831,11 +827,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 28, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr"/>
@@ -844,11 +836,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr"/>
@@ -857,11 +845,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 30, 31, 32</t>
-        </is>
-      </c>
+      <c r="E30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr"/>
@@ -870,11 +854,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 31, 32</t>
-        </is>
-      </c>
+      <c r="E31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr"/>
@@ -883,11 +863,7 @@
       </c>
       <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 32</t>
-        </is>
-      </c>
+      <c r="E32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr"/>
@@ -896,11 +872,943 @@
       </c>
       <c r="C33" s="2" t="inlineStr"/>
       <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31</t>
-        </is>
-      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr"/>
+      <c r="B34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr"/>
+      <c r="B35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr"/>
+      <c r="B36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr"/>
+      <c r="B37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr"/>
+      <c r="B38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr"/>
+      <c r="B39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr"/>
+      <c r="B40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr"/>
+      <c r="B41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr"/>
+      <c r="B42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr"/>
+      <c r="B43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr"/>
+      <c r="B44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr"/>
+      <c r="B45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr"/>
+      <c r="B46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr"/>
+      <c r="B47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr"/>
+      <c r="B48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr"/>
+      <c r="B49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr"/>
+      <c r="B50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr"/>
+      <c r="B51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr"/>
+      <c r="B52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr"/>
+      <c r="B53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr"/>
+      <c r="B54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr"/>
+      <c r="B55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr"/>
+      <c r="B56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr"/>
+      <c r="B57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr"/>
+      <c r="B58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr"/>
+      <c r="B59" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr"/>
+      <c r="B60" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr"/>
+      <c r="B61" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr"/>
+      <c r="B62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr"/>
+      <c r="B63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr"/>
+      <c r="B64" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr"/>
+      <c r="B65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr"/>
+      <c r="B66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr"/>
+      <c r="B67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="inlineStr"/>
+      <c r="E67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr"/>
+      <c r="B68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2" t="inlineStr"/>
+      <c r="D68" s="2" t="inlineStr"/>
+      <c r="E68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr"/>
+      <c r="B69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr"/>
+      <c r="B70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr"/>
+      <c r="B71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr"/>
+      <c r="B72" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr"/>
+      <c r="B73" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="inlineStr"/>
+      <c r="E73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr"/>
+      <c r="B74" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="inlineStr"/>
+      <c r="E74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr"/>
+      <c r="B75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="inlineStr"/>
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr"/>
+      <c r="B76" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr"/>
+      <c r="B77" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr"/>
+      <c r="B78" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr"/>
+      <c r="B79" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2" t="inlineStr"/>
+      <c r="D79" s="2" t="inlineStr"/>
+      <c r="E79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr"/>
+      <c r="B80" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2" t="inlineStr"/>
+      <c r="D80" s="2" t="inlineStr"/>
+      <c r="E80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr"/>
+      <c r="B81" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="inlineStr"/>
+      <c r="E81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr"/>
+      <c r="B82" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2" t="inlineStr"/>
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr"/>
+      <c r="B83" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="inlineStr"/>
+      <c r="E83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr"/>
+      <c r="B84" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2" t="inlineStr"/>
+      <c r="D84" s="2" t="inlineStr"/>
+      <c r="E84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr"/>
+      <c r="B85" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="inlineStr"/>
+      <c r="E85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr"/>
+      <c r="B86" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="inlineStr"/>
+      <c r="E86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr"/>
+      <c r="B87" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="inlineStr"/>
+      <c r="D87" s="2" t="inlineStr"/>
+      <c r="E87" s="2" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr"/>
+      <c r="B88" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="inlineStr"/>
+      <c r="D88" s="2" t="inlineStr"/>
+      <c r="E88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr"/>
+      <c r="B89" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="inlineStr"/>
+      <c r="E89" s="2" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr"/>
+      <c r="B90" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="inlineStr"/>
+      <c r="E90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr"/>
+      <c r="B91" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="inlineStr"/>
+      <c r="E91" s="2" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr"/>
+      <c r="B92" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2" t="inlineStr"/>
+      <c r="D92" s="2" t="inlineStr"/>
+      <c r="E92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr"/>
+      <c r="B93" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="inlineStr"/>
+      <c r="D93" s="2" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr"/>
+      <c r="B94" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="inlineStr"/>
+      <c r="E94" s="2" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr"/>
+      <c r="B95" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" s="2" t="inlineStr"/>
+      <c r="D95" s="2" t="inlineStr"/>
+      <c r="E95" s="2" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr"/>
+      <c r="B96" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="inlineStr"/>
+      <c r="E96" s="2" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr"/>
+      <c r="B97" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="inlineStr"/>
+      <c r="D97" s="2" t="inlineStr"/>
+      <c r="E97" s="2" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr"/>
+      <c r="B98" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr"/>
+      <c r="E98" s="2" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr"/>
+      <c r="B99" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr"/>
+      <c r="E99" s="2" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr"/>
+      <c r="B100" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr"/>
+      <c r="E100" s="2" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr"/>
+      <c r="B101" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr"/>
+      <c r="E101" s="2" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr"/>
+      <c r="B102" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr"/>
+      <c r="E102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr"/>
+      <c r="B103" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr"/>
+      <c r="E103" s="2" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr"/>
+      <c r="B104" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr"/>
+      <c r="E104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr"/>
+      <c r="B105" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 105, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr"/>
+      <c r="E105" s="2" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr"/>
+      <c r="B106" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 106, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr"/>
+      <c r="E106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr"/>
+      <c r="B107" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 107, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr"/>
+      <c r="E107" s="2" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr"/>
+      <c r="B108" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 108, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr"/>
+      <c r="E108" s="2" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr"/>
+      <c r="B109" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 109, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr"/>
+      <c r="E109" s="2" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr"/>
+      <c r="B110" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 110, 111, 112</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr"/>
+      <c r="E110" s="2" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr"/>
+      <c r="B111" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 111, 112</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr"/>
+      <c r="E111" s="2" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr"/>
+      <c r="B112" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 112</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr"/>
+      <c r="E112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr"/>
+      <c r="B113" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr"/>
+      <c r="E113" s="2" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr"/>
+      <c r="B114" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" s="2" t="inlineStr"/>
+      <c r="D114" s="2" t="inlineStr"/>
+      <c r="E114" s="2" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr"/>
+      <c r="B115" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" s="2" t="inlineStr"/>
+      <c r="D115" s="2" t="inlineStr"/>
+      <c r="E115" s="2" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr"/>
+      <c r="B116" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" s="2" t="inlineStr"/>
+      <c r="D116" s="2" t="inlineStr"/>
+      <c r="E116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr"/>
+      <c r="B117" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" s="2" t="inlineStr"/>
+      <c r="D117" s="2" t="inlineStr"/>
+      <c r="E117" s="2" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr"/>
+      <c r="B118" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" s="2" t="inlineStr"/>
+      <c r="D118" s="2" t="inlineStr"/>
+      <c r="E118" s="2" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr"/>
+      <c r="B119" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" s="2" t="inlineStr"/>
+      <c r="D119" s="2" t="inlineStr"/>
+      <c r="E119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr"/>
+      <c r="B120" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" s="2" t="inlineStr"/>
+      <c r="D120" s="2" t="inlineStr"/>
+      <c r="E120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr"/>
+      <c r="B121" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr"/>
+      <c r="E121" s="2" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr"/>
+      <c r="B122" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" s="2" t="inlineStr"/>
+      <c r="D122" s="2" t="inlineStr"/>
+      <c r="E122" s="2" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr"/>
+      <c r="B123" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" s="2" t="inlineStr"/>
+      <c r="D123" s="2" t="inlineStr"/>
+      <c r="E123" s="2" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr"/>
+      <c r="B124" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" s="2" t="inlineStr"/>
+      <c r="D124" s="2" t="inlineStr"/>
+      <c r="E124" s="2" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr"/>
+      <c r="B125" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" s="2" t="inlineStr"/>
+      <c r="D125" s="2" t="inlineStr"/>
+      <c r="E125" s="2" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr"/>
+      <c r="B126" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" s="2" t="inlineStr"/>
+      <c r="D126" s="2" t="inlineStr"/>
+      <c r="E126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr"/>
+      <c r="B127" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" s="2" t="inlineStr"/>
+      <c r="D127" s="2" t="inlineStr"/>
+      <c r="E127" s="2" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr"/>
+      <c r="B128" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="C128" s="2" t="inlineStr"/>
+      <c r="D128" s="2" t="inlineStr"/>
+      <c r="E128" s="2" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr"/>
+      <c r="B129" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr"/>
+      <c r="E129" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/check_result.xlsx
+++ b/check_result.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,9 +434,9 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="124" customWidth="1" min="3" max="3"/>
+    <col width="154" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="54" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -475,7 +475,7 @@
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16</t>
+          <t>53, 500</t>
         </is>
       </c>
     </row>
@@ -486,15 +486,11 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr"/>
@@ -503,15 +499,11 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr"/>
@@ -520,15 +512,11 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr"/>
@@ -537,15 +525,11 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr"/>
@@ -554,15 +538,11 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>49, 216</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr"/>
@@ -571,15 +551,11 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>429, 491</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr"/>
@@ -588,32 +564,20 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>76, 555</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr"/>
@@ -622,15 +586,11 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr"/>
@@ -639,15 +599,11 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr"/>
@@ -656,15 +612,11 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr"/>
@@ -673,15 +625,11 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr"/>
@@ -690,15 +638,11 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>420, 483</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr"/>
@@ -707,35 +651,35 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>421, 484</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1, 16</t>
-        </is>
-      </c>
+      <c r="E16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>80, 559</t>
+        </is>
+      </c>
       <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15</t>
-        </is>
-      </c>
+      <c r="E17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>234, 522, 557</t>
+        </is>
+      </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr"/>
     </row>
@@ -744,7 +688,11 @@
       <c r="B19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>159, 182, 254, 493, 507, 516, 546</t>
+        </is>
+      </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
     </row>
@@ -753,7 +701,11 @@
       <c r="B20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>50, 209</t>
+        </is>
+      </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
     </row>
@@ -762,7 +714,11 @@
       <c r="B21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>133, 143, 144, 153, 154, 425, 487, 492, 549</t>
+        </is>
+      </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
     </row>
@@ -771,7 +727,11 @@
       <c r="B22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
     </row>
@@ -780,7 +740,11 @@
       <c r="B23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
     </row>
@@ -798,7 +762,11 @@
       <c r="B25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="inlineStr"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
     </row>
@@ -807,7 +775,11 @@
       <c r="B26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr"/>
     </row>
@@ -816,7 +788,11 @@
       <c r="B27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="inlineStr"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>58, 515, 554</t>
+        </is>
+      </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
     </row>
@@ -825,7 +801,11 @@
       <c r="B28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
     </row>
@@ -834,7 +814,11 @@
       <c r="B29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="inlineStr"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
     </row>
@@ -843,7 +827,11 @@
       <c r="B30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="inlineStr"/>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
     </row>
@@ -852,7 +840,11 @@
       <c r="B31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="inlineStr"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
     </row>
@@ -861,7 +853,11 @@
       <c r="B32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="inlineStr"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
     </row>
@@ -870,7 +866,11 @@
       <c r="B33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
     </row>
@@ -879,7 +879,11 @@
       <c r="B34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="inlineStr"/>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
     </row>
@@ -888,7 +892,11 @@
       <c r="B35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="inlineStr"/>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
     </row>
@@ -897,7 +905,11 @@
       <c r="B36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="inlineStr"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>21, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr"/>
     </row>
@@ -906,7 +918,11 @@
       <c r="B37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="inlineStr"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>463, 498, 499</t>
+        </is>
+      </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
     </row>
@@ -915,7 +931,11 @@
       <c r="B38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="inlineStr"/>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
     </row>
@@ -924,7 +944,11 @@
       <c r="B39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="C39" s="2" t="inlineStr"/>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
     </row>
@@ -933,7 +957,11 @@
       <c r="B40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="inlineStr"/>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
     </row>
@@ -942,7 +970,11 @@
       <c r="B41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C41" s="2" t="inlineStr"/>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
     </row>
@@ -951,7 +983,11 @@
       <c r="B42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="C42" s="2" t="inlineStr"/>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
     </row>
@@ -960,7 +996,11 @@
       <c r="B43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="inlineStr"/>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
     </row>
@@ -969,7 +1009,11 @@
       <c r="B44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="C44" s="2" t="inlineStr"/>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
     </row>
@@ -978,7 +1022,11 @@
       <c r="B45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="C45" s="2" t="inlineStr"/>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>473, 490</t>
+        </is>
+      </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
     </row>
@@ -987,7 +1035,11 @@
       <c r="B46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="C46" s="2" t="inlineStr"/>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
     </row>
@@ -996,7 +1048,11 @@
       <c r="B47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="C47" s="2" t="inlineStr"/>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
     </row>
@@ -1005,7 +1061,11 @@
       <c r="B48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="C48" s="2" t="inlineStr"/>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
     </row>
@@ -1014,7 +1074,11 @@
       <c r="B49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="C49" s="2" t="inlineStr"/>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
     </row>
@@ -1023,7 +1087,11 @@
       <c r="B50" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="inlineStr"/>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>6, 216</t>
+        </is>
+      </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
     </row>
@@ -1032,7 +1100,11 @@
       <c r="B51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="C51" s="2" t="inlineStr"/>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>19, 209</t>
+        </is>
+      </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
     </row>
@@ -1041,7 +1113,11 @@
       <c r="B52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="C52" s="2" t="inlineStr"/>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
     </row>
@@ -1050,7 +1126,11 @@
       <c r="B53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="C53" s="2" t="inlineStr"/>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>361, 468</t>
+        </is>
+      </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
     </row>
@@ -1068,16 +1148,28 @@
       <c r="B55" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="C55" s="2" t="inlineStr"/>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>233, 472</t>
+        </is>
+      </c>
       <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>53, 500</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="C56" s="2" t="inlineStr"/>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
     </row>
@@ -1086,7 +1178,11 @@
       <c r="B57" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="C57" s="2" t="inlineStr"/>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr"/>
     </row>
@@ -1095,7 +1191,11 @@
       <c r="B58" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="C58" s="2" t="inlineStr"/>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
     </row>
@@ -1104,7 +1204,11 @@
       <c r="B59" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="C59" s="2" t="inlineStr"/>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>26, 515, 554</t>
+        </is>
+      </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
     </row>
@@ -1113,7 +1217,11 @@
       <c r="B60" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="C60" s="2" t="inlineStr"/>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>142, 479</t>
+        </is>
+      </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
     </row>
@@ -1122,7 +1230,11 @@
       <c r="B61" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="C61" s="2" t="inlineStr"/>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
     </row>
@@ -1131,7 +1243,11 @@
       <c r="B62" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="C62" s="2" t="inlineStr"/>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
     </row>
@@ -1140,7 +1256,11 @@
       <c r="B63" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="C63" s="2" t="inlineStr"/>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
     </row>
@@ -1149,7 +1269,11 @@
       <c r="B64" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="C64" s="2" t="inlineStr"/>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
     </row>
@@ -1176,7 +1300,11 @@
       <c r="B67" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="C67" s="2" t="inlineStr"/>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
       <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
     </row>
@@ -1185,7 +1313,11 @@
       <c r="B68" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="C68" s="2" t="inlineStr"/>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
       <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
     </row>
@@ -1194,7 +1326,11 @@
       <c r="B69" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="C69" s="2" t="inlineStr"/>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
       <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr"/>
     </row>
@@ -1203,7 +1339,11 @@
       <c r="B70" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C70" s="2" t="inlineStr"/>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
       <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
     </row>
@@ -1212,7 +1352,11 @@
       <c r="B71" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="C71" s="2" t="inlineStr"/>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
       <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="2" t="inlineStr"/>
     </row>
@@ -1221,7 +1365,11 @@
       <c r="B72" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="C72" s="2" t="inlineStr"/>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
       <c r="D72" s="2" t="inlineStr"/>
       <c r="E72" s="2" t="inlineStr"/>
     </row>
@@ -1230,7 +1378,11 @@
       <c r="B73" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="C73" s="2" t="inlineStr"/>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>267, 422</t>
+        </is>
+      </c>
       <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="2" t="inlineStr"/>
     </row>
@@ -1239,7 +1391,11 @@
       <c r="B74" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="C74" s="2" t="inlineStr"/>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
       <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="2" t="inlineStr"/>
     </row>
@@ -1248,7 +1404,11 @@
       <c r="B75" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="C75" s="2" t="inlineStr"/>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
       <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr"/>
     </row>
@@ -1257,7 +1417,11 @@
       <c r="B76" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="C76" s="2" t="inlineStr"/>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
       <c r="D76" s="2" t="inlineStr"/>
       <c r="E76" s="2" t="inlineStr"/>
     </row>
@@ -1266,7 +1430,11 @@
       <c r="B77" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="C77" s="2" t="inlineStr"/>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>8, 555</t>
+        </is>
+      </c>
       <c r="D77" s="2" t="inlineStr"/>
       <c r="E77" s="2" t="inlineStr"/>
     </row>
@@ -1275,7 +1443,11 @@
       <c r="B78" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="C78" s="2" t="inlineStr"/>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
       <c r="D78" s="2" t="inlineStr"/>
       <c r="E78" s="2" t="inlineStr"/>
     </row>
@@ -1284,7 +1456,11 @@
       <c r="B79" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="C79" s="2" t="inlineStr"/>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
       <c r="D79" s="2" t="inlineStr"/>
       <c r="E79" s="2" t="inlineStr"/>
     </row>
@@ -1293,7 +1469,11 @@
       <c r="B80" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="C80" s="2" t="inlineStr"/>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>259, 430</t>
+        </is>
+      </c>
       <c r="D80" s="2" t="inlineStr"/>
       <c r="E80" s="2" t="inlineStr"/>
     </row>
@@ -1302,7 +1482,11 @@
       <c r="B81" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="C81" s="2" t="inlineStr"/>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>16, 559</t>
+        </is>
+      </c>
       <c r="D81" s="2" t="inlineStr"/>
       <c r="E81" s="2" t="inlineStr"/>
     </row>
@@ -1311,7 +1495,11 @@
       <c r="B82" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="C82" s="2" t="inlineStr"/>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
       <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr"/>
     </row>
@@ -1347,7 +1535,11 @@
       <c r="B86" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="C86" s="2" t="inlineStr"/>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
       <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="2" t="inlineStr"/>
     </row>
@@ -1383,7 +1575,11 @@
       <c r="B90" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="C90" s="2" t="inlineStr"/>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
       <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="2" t="inlineStr"/>
     </row>
@@ -1419,7 +1615,11 @@
       <c r="B94" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="C94" s="2" t="inlineStr"/>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
       <c r="D94" s="2" t="inlineStr"/>
       <c r="E94" s="2" t="inlineStr"/>
     </row>
@@ -1455,11 +1655,7 @@
       <c r="B98" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C98" s="2" t="inlineStr"/>
       <c r="D98" s="2" t="inlineStr"/>
       <c r="E98" s="2" t="inlineStr"/>
     </row>
@@ -1470,7 +1666,7 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -1483,7 +1679,7 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>21, 35, 37, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -1494,11 +1690,7 @@
       <c r="B101" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C101" s="2" t="inlineStr"/>
       <c r="D101" s="2" t="inlineStr"/>
       <c r="E101" s="2" t="inlineStr"/>
     </row>
@@ -1507,11 +1699,7 @@
       <c r="B102" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="C102" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C102" s="2" t="inlineStr"/>
       <c r="D102" s="2" t="inlineStr"/>
       <c r="E102" s="2" t="inlineStr"/>
     </row>
@@ -1520,11 +1708,7 @@
       <c r="B103" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="C103" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C103" s="2" t="inlineStr"/>
       <c r="D103" s="2" t="inlineStr"/>
       <c r="E103" s="2" t="inlineStr"/>
     </row>
@@ -1533,11 +1717,7 @@
       <c r="B104" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 104, 105, 106, 107, 108, 109, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C104" s="2" t="inlineStr"/>
       <c r="D104" s="2" t="inlineStr"/>
       <c r="E104" s="2" t="inlineStr"/>
     </row>
@@ -1546,11 +1726,7 @@
       <c r="B105" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 105, 106, 107, 108, 109, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C105" s="2" t="inlineStr"/>
       <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="2" t="inlineStr"/>
     </row>
@@ -1561,7 +1737,7 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 106, 107, 108, 109, 110, 111, 112</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr"/>
@@ -1574,7 +1750,7 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 107, 108, 109, 110, 111, 112</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr"/>
@@ -1585,11 +1761,7 @@
       <c r="B108" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 108, 109, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C108" s="2" t="inlineStr"/>
       <c r="D108" s="2" t="inlineStr"/>
       <c r="E108" s="2" t="inlineStr"/>
     </row>
@@ -1598,11 +1770,7 @@
       <c r="B109" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 109, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C109" s="2" t="inlineStr"/>
       <c r="D109" s="2" t="inlineStr"/>
       <c r="E109" s="2" t="inlineStr"/>
     </row>
@@ -1611,11 +1779,7 @@
       <c r="B110" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 110, 111, 112</t>
-        </is>
-      </c>
+      <c r="C110" s="2" t="inlineStr"/>
       <c r="D110" s="2" t="inlineStr"/>
       <c r="E110" s="2" t="inlineStr"/>
     </row>
@@ -1624,11 +1788,7 @@
       <c r="B111" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 111, 112</t>
-        </is>
-      </c>
+      <c r="C111" s="2" t="inlineStr"/>
       <c r="D111" s="2" t="inlineStr"/>
       <c r="E111" s="2" t="inlineStr"/>
     </row>
@@ -1637,11 +1797,7 @@
       <c r="B112" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 112</t>
-        </is>
-      </c>
+      <c r="C112" s="2" t="inlineStr"/>
       <c r="D112" s="2" t="inlineStr"/>
       <c r="E112" s="2" t="inlineStr"/>
     </row>
@@ -1650,11 +1806,7 @@
       <c r="B113" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111</t>
-        </is>
-      </c>
+      <c r="C113" s="2" t="inlineStr"/>
       <c r="D113" s="2" t="inlineStr"/>
       <c r="E113" s="2" t="inlineStr"/>
     </row>
@@ -1726,11 +1878,7 @@
       <c r="B121" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
+      <c r="C121" s="2" t="inlineStr"/>
       <c r="D121" s="2" t="inlineStr"/>
       <c r="E121" s="2" t="inlineStr"/>
     </row>
@@ -1802,13 +1950,5329 @@
       <c r="B129" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+      <c r="C129" s="2" t="inlineStr"/>
       <c r="D129" s="2" t="inlineStr"/>
       <c r="E129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr"/>
+      <c r="B130" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr"/>
+      <c r="E130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr"/>
+      <c r="B131" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>229, 295</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr"/>
+      <c r="E131" s="2" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr"/>
+      <c r="B132" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>248, 418</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr"/>
+      <c r="E132" s="2" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr"/>
+      <c r="B133" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr"/>
+      <c r="E133" s="2" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr"/>
+      <c r="B134" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>20, 143, 144, 153, 154, 425, 487, 492, 549</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr"/>
+      <c r="E134" s="2" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr"/>
+      <c r="B135" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr"/>
+      <c r="E135" s="2" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr"/>
+      <c r="B136" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr"/>
+      <c r="E136" s="2" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr"/>
+      <c r="B137" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr"/>
+      <c r="E137" s="2" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr"/>
+      <c r="B138" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr"/>
+      <c r="E138" s="2" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr"/>
+      <c r="B139" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr"/>
+      <c r="E139" s="2" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr"/>
+      <c r="B140" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr"/>
+      <c r="E140" s="2" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr"/>
+      <c r="B141" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr"/>
+      <c r="E141" s="2" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr"/>
+      <c r="B142" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr"/>
+      <c r="E142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr"/>
+      <c r="B143" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>59, 479</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr"/>
+      <c r="E143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr"/>
+      <c r="B144" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>20, 133, 144, 153, 154, 425, 487, 492, 549</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr"/>
+      <c r="E144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr"/>
+      <c r="B145" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>20, 133, 143, 153, 154, 425, 487, 492, 549</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr"/>
+      <c r="E145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr"/>
+      <c r="B146" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr"/>
+      <c r="E146" s="2" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr"/>
+      <c r="B147" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr"/>
+      <c r="E147" s="2" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr"/>
+      <c r="B148" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr"/>
+      <c r="E148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr"/>
+      <c r="B149" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr"/>
+      <c r="E149" s="2" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr"/>
+      <c r="B150" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr"/>
+      <c r="E150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr"/>
+      <c r="B151" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr"/>
+      <c r="E151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr"/>
+      <c r="B152" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr"/>
+      <c r="E152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr"/>
+      <c r="B153" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>200, 258</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr"/>
+      <c r="E153" s="2" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr"/>
+      <c r="B154" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>20, 133, 143, 144, 154, 425, 487, 492, 549</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr"/>
+      <c r="E154" s="2" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr"/>
+      <c r="B155" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>20, 133, 143, 144, 153, 425, 487, 492, 549</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr"/>
+      <c r="E155" s="2" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr"/>
+      <c r="B156" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr"/>
+      <c r="E156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr"/>
+      <c r="B157" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr"/>
+      <c r="E157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr"/>
+      <c r="B158" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr"/>
+      <c r="E158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr"/>
+      <c r="B159" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr"/>
+      <c r="E159" s="2" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr"/>
+      <c r="B160" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>18, 182, 254, 493, 507, 516, 546</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr"/>
+      <c r="E160" s="2" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr"/>
+      <c r="B161" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr"/>
+      <c r="E161" s="2" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr"/>
+      <c r="B162" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>426, 527, 538</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr"/>
+      <c r="E162" s="2" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr"/>
+      <c r="B163" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="C163" s="2" t="inlineStr"/>
+      <c r="D163" s="2" t="inlineStr"/>
+      <c r="E163" s="2" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr"/>
+      <c r="B164" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="C164" s="2" t="inlineStr"/>
+      <c r="D164" s="2" t="inlineStr"/>
+      <c r="E164" s="2" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr"/>
+      <c r="B165" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="C165" s="2" t="inlineStr"/>
+      <c r="D165" s="2" t="inlineStr"/>
+      <c r="E165" s="2" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr"/>
+      <c r="B166" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr"/>
+      <c r="E166" s="2" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr"/>
+      <c r="B167" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr"/>
+      <c r="E167" s="2" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr"/>
+      <c r="B168" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr"/>
+      <c r="E168" s="2" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr"/>
+      <c r="B169" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr"/>
+      <c r="E169" s="2" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr"/>
+      <c r="B170" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr"/>
+      <c r="E170" s="2" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr"/>
+      <c r="B171" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C171" s="2" t="inlineStr"/>
+      <c r="D171" s="2" t="inlineStr"/>
+      <c r="E171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr"/>
+      <c r="B172" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C172" s="2" t="inlineStr"/>
+      <c r="D172" s="2" t="inlineStr"/>
+      <c r="E172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr"/>
+      <c r="B173" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr"/>
+      <c r="E173" s="2" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr"/>
+      <c r="B174" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr"/>
+      <c r="E174" s="2" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr"/>
+      <c r="B175" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr"/>
+      <c r="E175" s="2" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr"/>
+      <c r="B176" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr"/>
+      <c r="E176" s="2" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr"/>
+      <c r="B177" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr"/>
+      <c r="E177" s="2" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr"/>
+      <c r="B178" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr"/>
+      <c r="E178" s="2" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr"/>
+      <c r="B179" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr"/>
+      <c r="E179" s="2" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr"/>
+      <c r="B180" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr"/>
+      <c r="E180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr"/>
+      <c r="B181" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr"/>
+      <c r="E181" s="2" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr"/>
+      <c r="B182" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr"/>
+      <c r="E182" s="2" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr"/>
+      <c r="B183" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>18, 159, 254, 493, 507, 516, 546</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr"/>
+      <c r="E183" s="2" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr"/>
+      <c r="B184" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr"/>
+      <c r="E184" s="2" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr"/>
+      <c r="B185" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>245, 470</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr"/>
+      <c r="E185" s="2" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr"/>
+      <c r="B186" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr"/>
+      <c r="E186" s="2" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr"/>
+      <c r="B187" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr"/>
+      <c r="E187" s="2" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr"/>
+      <c r="B188" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr"/>
+      <c r="E188" s="2" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr"/>
+      <c r="B189" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr"/>
+      <c r="E189" s="2" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr"/>
+      <c r="B190" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr"/>
+      <c r="E190" s="2" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr"/>
+      <c r="B191" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr"/>
+      <c r="E191" s="2" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr"/>
+      <c r="B192" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr"/>
+      <c r="E192" s="2" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr"/>
+      <c r="B193" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>253, 478</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr"/>
+      <c r="E193" s="2" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr"/>
+      <c r="B194" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>251, 328</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr"/>
+      <c r="E194" s="2" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr"/>
+      <c r="B195" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr"/>
+      <c r="E195" s="2" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr"/>
+      <c r="B196" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr"/>
+      <c r="E196" s="2" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr"/>
+      <c r="B197" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr"/>
+      <c r="E197" s="2" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr"/>
+      <c r="B198" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr"/>
+      <c r="E198" s="2" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr"/>
+      <c r="B199" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr"/>
+      <c r="E199" s="2" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr"/>
+      <c r="B200" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr"/>
+      <c r="E200" s="2" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr"/>
+      <c r="B201" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>152, 258</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr"/>
+      <c r="E201" s="2" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr"/>
+      <c r="B202" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr"/>
+      <c r="E202" s="2" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr"/>
+      <c r="B203" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr"/>
+      <c r="E203" s="2" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr"/>
+      <c r="B204" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr"/>
+      <c r="E204" s="2" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr"/>
+      <c r="B205" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr"/>
+      <c r="E205" s="2" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr"/>
+      <c r="B206" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr"/>
+      <c r="E206" s="2" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr"/>
+      <c r="B207" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr"/>
+      <c r="E207" s="2" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr"/>
+      <c r="B208" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr"/>
+      <c r="E208" s="2" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr"/>
+      <c r="B209" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr"/>
+      <c r="E209" s="2" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr"/>
+      <c r="B210" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>19, 50</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr"/>
+      <c r="E210" s="2" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr"/>
+      <c r="B211" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr"/>
+      <c r="E211" s="2" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr"/>
+      <c r="B212" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr"/>
+      <c r="E212" s="2" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr"/>
+      <c r="B213" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr"/>
+      <c r="E213" s="2" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr"/>
+      <c r="B214" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr"/>
+      <c r="E214" s="2" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr"/>
+      <c r="B215" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr"/>
+      <c r="E215" s="2" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr"/>
+      <c r="B216" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr"/>
+      <c r="E216" s="2" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr"/>
+      <c r="B217" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>6, 49</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr"/>
+      <c r="E217" s="2" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr"/>
+      <c r="B218" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr"/>
+      <c r="E218" s="2" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr"/>
+      <c r="B219" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr"/>
+      <c r="E219" s="2" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr"/>
+      <c r="B220" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr"/>
+      <c r="E220" s="2" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr"/>
+      <c r="B221" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr"/>
+      <c r="E221" s="2" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr"/>
+      <c r="B222" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr"/>
+      <c r="E222" s="2" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr"/>
+      <c r="B223" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr"/>
+      <c r="E223" s="2" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr"/>
+      <c r="B224" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr"/>
+      <c r="E224" s="2" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr"/>
+      <c r="B225" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>308, 322, 329, 370, 376, 383</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr"/>
+      <c r="E225" s="2" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr"/>
+      <c r="B226" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr"/>
+      <c r="E226" s="2" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr"/>
+      <c r="B227" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr"/>
+      <c r="E227" s="2" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr"/>
+      <c r="B228" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>252, 552</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr"/>
+      <c r="E228" s="2" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr"/>
+      <c r="B229" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr"/>
+      <c r="E229" s="2" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr"/>
+      <c r="B230" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>130, 295</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr"/>
+      <c r="E230" s="2" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr"/>
+      <c r="B231" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr"/>
+      <c r="E231" s="2" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr"/>
+      <c r="B232" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr"/>
+      <c r="E232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr"/>
+      <c r="B233" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="inlineStr"/>
+      <c r="E233" s="2" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr"/>
+      <c r="B234" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>54, 472</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr"/>
+      <c r="E234" s="2" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr"/>
+      <c r="B235" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>17, 522, 557</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="inlineStr"/>
+      <c r="E235" s="2" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr"/>
+      <c r="B236" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr"/>
+      <c r="E236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr"/>
+      <c r="B237" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="inlineStr"/>
+      <c r="E237" s="2" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr"/>
+      <c r="B238" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr"/>
+      <c r="E238" s="2" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr"/>
+      <c r="B239" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="inlineStr"/>
+      <c r="E239" s="2" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr"/>
+      <c r="B240" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="inlineStr"/>
+      <c r="E240" s="2" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr"/>
+      <c r="B241" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="inlineStr"/>
+      <c r="E241" s="2" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr"/>
+      <c r="B242" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr"/>
+      <c r="E242" s="2" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr"/>
+      <c r="B243" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr"/>
+      <c r="E243" s="2" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr"/>
+      <c r="B244" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr"/>
+      <c r="E244" s="2" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr"/>
+      <c r="B245" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="C245" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="inlineStr"/>
+      <c r="E245" s="2" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr"/>
+      <c r="B246" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>184, 470</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="inlineStr"/>
+      <c r="E246" s="2" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr"/>
+      <c r="B247" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="C247" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="inlineStr"/>
+      <c r="E247" s="2" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr"/>
+      <c r="B248" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr"/>
+      <c r="E248" s="2" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr"/>
+      <c r="B249" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>131, 418</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="inlineStr"/>
+      <c r="E249" s="2" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr"/>
+      <c r="B250" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr"/>
+      <c r="E250" s="2" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr"/>
+      <c r="B251" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="inlineStr"/>
+      <c r="E251" s="2" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr"/>
+      <c r="B252" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>193, 328</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr"/>
+      <c r="E252" s="2" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr"/>
+      <c r="B253" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C253" s="2" t="inlineStr">
+        <is>
+          <t>227, 552</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="inlineStr"/>
+      <c r="E253" s="2" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr"/>
+      <c r="B254" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>192, 478</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr"/>
+      <c r="E254" s="2" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr"/>
+      <c r="B255" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>18, 159, 182, 493, 507, 516, 546</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr"/>
+      <c r="E255" s="2" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr"/>
+      <c r="B256" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr"/>
+      <c r="E256" s="2" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr"/>
+      <c r="B257" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr"/>
+      <c r="E257" s="2" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr"/>
+      <c r="B258" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="inlineStr"/>
+      <c r="E258" s="2" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr"/>
+      <c r="B259" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t>152, 200</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="inlineStr"/>
+      <c r="E259" s="2" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr"/>
+      <c r="B260" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>79, 430</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr"/>
+      <c r="E260" s="2" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="inlineStr"/>
+      <c r="B261" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="C261" s="2" t="inlineStr"/>
+      <c r="D261" s="2" t="inlineStr"/>
+      <c r="E261" s="2" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr"/>
+      <c r="B262" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="C262" s="2" t="inlineStr"/>
+      <c r="D262" s="2" t="inlineStr"/>
+      <c r="E262" s="2" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="inlineStr"/>
+      <c r="B263" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="C263" s="2" t="inlineStr"/>
+      <c r="D263" s="2" t="inlineStr"/>
+      <c r="E263" s="2" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr"/>
+      <c r="B264" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="C264" s="2" t="inlineStr"/>
+      <c r="D264" s="2" t="inlineStr"/>
+      <c r="E264" s="2" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr"/>
+      <c r="B265" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="C265" s="2" t="inlineStr"/>
+      <c r="D265" s="2" t="inlineStr"/>
+      <c r="E265" s="2" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr"/>
+      <c r="B266" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="inlineStr"/>
+      <c r="E266" s="2" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="inlineStr"/>
+      <c r="B267" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="inlineStr"/>
+      <c r="E267" s="2" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr"/>
+      <c r="B268" s="2" t="n">
+        <v>267</v>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>72, 422</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="inlineStr"/>
+      <c r="E268" s="2" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr"/>
+      <c r="B269" s="2" t="n">
+        <v>268</v>
+      </c>
+      <c r="C269" s="2" t="inlineStr"/>
+      <c r="D269" s="2" t="inlineStr"/>
+      <c r="E269" s="2" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr"/>
+      <c r="B270" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="C270" s="2" t="inlineStr"/>
+      <c r="D270" s="2" t="inlineStr"/>
+      <c r="E270" s="2" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="inlineStr"/>
+      <c r="B271" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="C271" s="2" t="inlineStr"/>
+      <c r="D271" s="2" t="inlineStr"/>
+      <c r="E271" s="2" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr"/>
+      <c r="B272" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="C272" s="2" t="inlineStr"/>
+      <c r="D272" s="2" t="inlineStr"/>
+      <c r="E272" s="2" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr"/>
+      <c r="B273" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="C273" s="2" t="inlineStr"/>
+      <c r="D273" s="2" t="inlineStr"/>
+      <c r="E273" s="2" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr"/>
+      <c r="B274" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="C274" s="2" t="inlineStr"/>
+      <c r="D274" s="2" t="inlineStr"/>
+      <c r="E274" s="2" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="inlineStr"/>
+      <c r="B275" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="C275" s="2" t="inlineStr"/>
+      <c r="D275" s="2" t="inlineStr"/>
+      <c r="E275" s="2" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr"/>
+      <c r="B276" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="C276" s="2" t="inlineStr"/>
+      <c r="D276" s="2" t="inlineStr"/>
+      <c r="E276" s="2" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="inlineStr"/>
+      <c r="B277" s="2" t="n">
+        <v>276</v>
+      </c>
+      <c r="C277" s="2" t="inlineStr"/>
+      <c r="D277" s="2" t="inlineStr"/>
+      <c r="E277" s="2" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr"/>
+      <c r="B278" s="2" t="n">
+        <v>277</v>
+      </c>
+      <c r="C278" s="2" t="inlineStr"/>
+      <c r="D278" s="2" t="inlineStr"/>
+      <c r="E278" s="2" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="inlineStr"/>
+      <c r="B279" s="2" t="n">
+        <v>278</v>
+      </c>
+      <c r="C279" s="2" t="inlineStr"/>
+      <c r="D279" s="2" t="inlineStr"/>
+      <c r="E279" s="2" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr"/>
+      <c r="B280" s="2" t="n">
+        <v>279</v>
+      </c>
+      <c r="C280" s="2" t="inlineStr"/>
+      <c r="D280" s="2" t="inlineStr"/>
+      <c r="E280" s="2" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="inlineStr"/>
+      <c r="B281" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="C281" s="2" t="inlineStr"/>
+      <c r="D281" s="2" t="inlineStr"/>
+      <c r="E281" s="2" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="inlineStr"/>
+      <c r="B282" s="2" t="n">
+        <v>281</v>
+      </c>
+      <c r="C282" s="2" t="inlineStr"/>
+      <c r="D282" s="2" t="inlineStr"/>
+      <c r="E282" s="2" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="inlineStr"/>
+      <c r="B283" s="2" t="n">
+        <v>282</v>
+      </c>
+      <c r="C283" s="2" t="inlineStr"/>
+      <c r="D283" s="2" t="inlineStr"/>
+      <c r="E283" s="2" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr"/>
+      <c r="B284" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="C284" s="2" t="inlineStr"/>
+      <c r="D284" s="2" t="inlineStr"/>
+      <c r="E284" s="2" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="inlineStr"/>
+      <c r="B285" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="C285" s="2" t="inlineStr"/>
+      <c r="D285" s="2" t="inlineStr"/>
+      <c r="E285" s="2" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="inlineStr"/>
+      <c r="B286" s="2" t="n">
+        <v>285</v>
+      </c>
+      <c r="C286" s="2" t="inlineStr"/>
+      <c r="D286" s="2" t="inlineStr"/>
+      <c r="E286" s="2" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="inlineStr"/>
+      <c r="B287" s="2" t="n">
+        <v>286</v>
+      </c>
+      <c r="C287" s="2" t="inlineStr"/>
+      <c r="D287" s="2" t="inlineStr"/>
+      <c r="E287" s="2" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="inlineStr"/>
+      <c r="B288" s="2" t="n">
+        <v>287</v>
+      </c>
+      <c r="C288" s="2" t="inlineStr"/>
+      <c r="D288" s="2" t="inlineStr"/>
+      <c r="E288" s="2" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="inlineStr"/>
+      <c r="B289" s="2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C289" s="2" t="inlineStr"/>
+      <c r="D289" s="2" t="inlineStr"/>
+      <c r="E289" s="2" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="inlineStr"/>
+      <c r="B290" s="2" t="n">
+        <v>289</v>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="inlineStr"/>
+      <c r="E290" s="2" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="inlineStr"/>
+      <c r="B291" s="2" t="n">
+        <v>290</v>
+      </c>
+      <c r="C291" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="inlineStr"/>
+      <c r="E291" s="2" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="inlineStr"/>
+      <c r="B292" s="2" t="n">
+        <v>291</v>
+      </c>
+      <c r="C292" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="inlineStr"/>
+      <c r="E292" s="2" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="inlineStr"/>
+      <c r="B293" s="2" t="n">
+        <v>292</v>
+      </c>
+      <c r="C293" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="inlineStr"/>
+      <c r="E293" s="2" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="inlineStr"/>
+      <c r="B294" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="C294" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="inlineStr"/>
+      <c r="E294" s="2" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="inlineStr"/>
+      <c r="B295" s="2" t="n">
+        <v>294</v>
+      </c>
+      <c r="C295" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="inlineStr"/>
+      <c r="E295" s="2" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="inlineStr"/>
+      <c r="B296" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>130, 229</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="inlineStr"/>
+      <c r="E296" s="2" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="inlineStr"/>
+      <c r="B297" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="C297" s="2" t="inlineStr"/>
+      <c r="D297" s="2" t="inlineStr"/>
+      <c r="E297" s="2" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="inlineStr"/>
+      <c r="B298" s="2" t="n">
+        <v>297</v>
+      </c>
+      <c r="C298" s="2" t="inlineStr"/>
+      <c r="D298" s="2" t="inlineStr"/>
+      <c r="E298" s="2" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="inlineStr"/>
+      <c r="B299" s="2" t="n">
+        <v>298</v>
+      </c>
+      <c r="C299" s="2" t="inlineStr"/>
+      <c r="D299" s="2" t="inlineStr"/>
+      <c r="E299" s="2" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="inlineStr"/>
+      <c r="B300" s="2" t="n">
+        <v>299</v>
+      </c>
+      <c r="C300" s="2" t="inlineStr"/>
+      <c r="D300" s="2" t="inlineStr"/>
+      <c r="E300" s="2" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="inlineStr"/>
+      <c r="B301" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="C301" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="inlineStr"/>
+      <c r="E301" s="2" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="inlineStr"/>
+      <c r="B302" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="C302" s="2" t="inlineStr"/>
+      <c r="D302" s="2" t="inlineStr"/>
+      <c r="E302" s="2" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="inlineStr"/>
+      <c r="B303" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="C303" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="inlineStr"/>
+      <c r="E303" s="2" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="inlineStr"/>
+      <c r="B304" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="C304" s="2" t="inlineStr"/>
+      <c r="D304" s="2" t="inlineStr"/>
+      <c r="E304" s="2" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="inlineStr"/>
+      <c r="B305" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="C305" s="2" t="inlineStr"/>
+      <c r="D305" s="2" t="inlineStr"/>
+      <c r="E305" s="2" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="inlineStr"/>
+      <c r="B306" s="2" t="n">
+        <v>305</v>
+      </c>
+      <c r="C306" s="2" t="inlineStr"/>
+      <c r="D306" s="2" t="inlineStr"/>
+      <c r="E306" s="2" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="inlineStr"/>
+      <c r="B307" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="C307" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="inlineStr"/>
+      <c r="E307" s="2" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="inlineStr"/>
+      <c r="B308" s="2" t="n">
+        <v>307</v>
+      </c>
+      <c r="C308" s="2" t="inlineStr"/>
+      <c r="D308" s="2" t="inlineStr"/>
+      <c r="E308" s="2" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="inlineStr"/>
+      <c r="B309" s="2" t="n">
+        <v>308</v>
+      </c>
+      <c r="C309" s="2" t="inlineStr">
+        <is>
+          <t>224, 322, 329, 370, 376, 383</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="inlineStr"/>
+      <c r="E309" s="2" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="inlineStr"/>
+      <c r="B310" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="C310" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="inlineStr"/>
+      <c r="E310" s="2" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="inlineStr"/>
+      <c r="B311" s="2" t="n">
+        <v>310</v>
+      </c>
+      <c r="C311" s="2" t="inlineStr"/>
+      <c r="D311" s="2" t="inlineStr"/>
+      <c r="E311" s="2" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="inlineStr"/>
+      <c r="B312" s="2" t="n">
+        <v>311</v>
+      </c>
+      <c r="C312" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="inlineStr"/>
+      <c r="E312" s="2" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="inlineStr"/>
+      <c r="B313" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="C313" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="inlineStr"/>
+      <c r="E313" s="2" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="inlineStr"/>
+      <c r="B314" s="2" t="n">
+        <v>313</v>
+      </c>
+      <c r="C314" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="inlineStr"/>
+      <c r="E314" s="2" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="inlineStr"/>
+      <c r="B315" s="2" t="n">
+        <v>314</v>
+      </c>
+      <c r="C315" s="2" t="inlineStr"/>
+      <c r="D315" s="2" t="inlineStr"/>
+      <c r="E315" s="2" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="inlineStr"/>
+      <c r="B316" s="2" t="n">
+        <v>315</v>
+      </c>
+      <c r="C316" s="2" t="inlineStr"/>
+      <c r="D316" s="2" t="inlineStr"/>
+      <c r="E316" s="2" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="inlineStr"/>
+      <c r="B317" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="C317" s="2" t="inlineStr"/>
+      <c r="D317" s="2" t="inlineStr"/>
+      <c r="E317" s="2" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="inlineStr"/>
+      <c r="B318" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="inlineStr"/>
+      <c r="E318" s="2" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="inlineStr"/>
+      <c r="B319" s="2" t="n">
+        <v>318</v>
+      </c>
+      <c r="C319" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="inlineStr"/>
+      <c r="E319" s="2" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr"/>
+      <c r="B320" s="2" t="n">
+        <v>319</v>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="inlineStr"/>
+      <c r="E320" s="2" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="inlineStr"/>
+      <c r="B321" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="C321" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="inlineStr"/>
+      <c r="E321" s="2" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="inlineStr"/>
+      <c r="B322" s="2" t="n">
+        <v>321</v>
+      </c>
+      <c r="C322" s="2" t="inlineStr"/>
+      <c r="D322" s="2" t="inlineStr"/>
+      <c r="E322" s="2" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="inlineStr"/>
+      <c r="B323" s="2" t="n">
+        <v>322</v>
+      </c>
+      <c r="C323" s="2" t="inlineStr">
+        <is>
+          <t>224, 308, 329, 370, 376, 383</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="inlineStr"/>
+      <c r="E323" s="2" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="inlineStr"/>
+      <c r="B324" s="2" t="n">
+        <v>323</v>
+      </c>
+      <c r="C324" s="2" t="inlineStr"/>
+      <c r="D324" s="2" t="inlineStr"/>
+      <c r="E324" s="2" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="inlineStr"/>
+      <c r="B325" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="C325" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="inlineStr"/>
+      <c r="E325" s="2" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="inlineStr"/>
+      <c r="B326" s="2" t="n">
+        <v>325</v>
+      </c>
+      <c r="C326" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="inlineStr"/>
+      <c r="E326" s="2" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="inlineStr"/>
+      <c r="B327" s="2" t="n">
+        <v>326</v>
+      </c>
+      <c r="C327" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="inlineStr"/>
+      <c r="E327" s="2" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="inlineStr"/>
+      <c r="B328" s="2" t="n">
+        <v>327</v>
+      </c>
+      <c r="C328" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="inlineStr"/>
+      <c r="E328" s="2" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="inlineStr"/>
+      <c r="B329" s="2" t="n">
+        <v>328</v>
+      </c>
+      <c r="C329" s="2" t="inlineStr">
+        <is>
+          <t>193, 251</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="inlineStr"/>
+      <c r="E329" s="2" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="inlineStr"/>
+      <c r="B330" s="2" t="n">
+        <v>329</v>
+      </c>
+      <c r="C330" s="2" t="inlineStr">
+        <is>
+          <t>224, 308, 322, 370, 376, 383</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="inlineStr"/>
+      <c r="E330" s="2" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="inlineStr"/>
+      <c r="B331" s="2" t="n">
+        <v>330</v>
+      </c>
+      <c r="C331" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="inlineStr"/>
+      <c r="E331" s="2" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="inlineStr"/>
+      <c r="B332" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="C332" s="2" t="inlineStr"/>
+      <c r="D332" s="2" t="inlineStr"/>
+      <c r="E332" s="2" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="inlineStr"/>
+      <c r="B333" s="2" t="n">
+        <v>332</v>
+      </c>
+      <c r="C333" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="inlineStr"/>
+      <c r="E333" s="2" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="inlineStr"/>
+      <c r="B334" s="2" t="n">
+        <v>333</v>
+      </c>
+      <c r="C334" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="inlineStr"/>
+      <c r="E334" s="2" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="inlineStr"/>
+      <c r="B335" s="2" t="n">
+        <v>334</v>
+      </c>
+      <c r="C335" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="inlineStr"/>
+      <c r="E335" s="2" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="inlineStr"/>
+      <c r="B336" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="C336" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D336" s="2" t="inlineStr"/>
+      <c r="E336" s="2" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="inlineStr"/>
+      <c r="B337" s="2" t="n">
+        <v>336</v>
+      </c>
+      <c r="C337" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D337" s="2" t="inlineStr"/>
+      <c r="E337" s="2" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="inlineStr"/>
+      <c r="B338" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="C338" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="D338" s="2" t="inlineStr"/>
+      <c r="E338" s="2" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="inlineStr"/>
+      <c r="B339" s="2" t="n">
+        <v>338</v>
+      </c>
+      <c r="C339" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="inlineStr"/>
+      <c r="E339" s="2" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="inlineStr"/>
+      <c r="B340" s="2" t="n">
+        <v>339</v>
+      </c>
+      <c r="C340" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="inlineStr"/>
+      <c r="E340" s="2" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="inlineStr"/>
+      <c r="B341" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="C341" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="inlineStr"/>
+      <c r="E341" s="2" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="inlineStr"/>
+      <c r="B342" s="2" t="n">
+        <v>341</v>
+      </c>
+      <c r="C342" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="inlineStr"/>
+      <c r="E342" s="2" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="inlineStr"/>
+      <c r="B343" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="inlineStr"/>
+      <c r="E343" s="2" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="inlineStr"/>
+      <c r="B344" s="2" t="n">
+        <v>343</v>
+      </c>
+      <c r="C344" s="2" t="inlineStr"/>
+      <c r="D344" s="2" t="inlineStr"/>
+      <c r="E344" s="2" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="inlineStr"/>
+      <c r="B345" s="2" t="n">
+        <v>344</v>
+      </c>
+      <c r="C345" s="2" t="inlineStr"/>
+      <c r="D345" s="2" t="inlineStr"/>
+      <c r="E345" s="2" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="inlineStr"/>
+      <c r="B346" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="C346" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="inlineStr"/>
+      <c r="E346" s="2" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="inlineStr"/>
+      <c r="B347" s="2" t="n">
+        <v>346</v>
+      </c>
+      <c r="C347" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="inlineStr"/>
+      <c r="E347" s="2" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="inlineStr"/>
+      <c r="B348" s="2" t="n">
+        <v>347</v>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="inlineStr"/>
+      <c r="E348" s="2" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="inlineStr"/>
+      <c r="B349" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="C349" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="inlineStr"/>
+      <c r="E349" s="2" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="inlineStr"/>
+      <c r="B350" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="C350" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="inlineStr"/>
+      <c r="E350" s="2" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="inlineStr"/>
+      <c r="B351" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="C351" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="inlineStr"/>
+      <c r="E351" s="2" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="inlineStr"/>
+      <c r="B352" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="C352" s="2" t="inlineStr"/>
+      <c r="D352" s="2" t="inlineStr"/>
+      <c r="E352" s="2" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="inlineStr"/>
+      <c r="B353" s="2" t="n">
+        <v>352</v>
+      </c>
+      <c r="C353" s="2" t="inlineStr"/>
+      <c r="D353" s="2" t="inlineStr"/>
+      <c r="E353" s="2" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="inlineStr"/>
+      <c r="B354" s="2" t="n">
+        <v>353</v>
+      </c>
+      <c r="C354" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="inlineStr"/>
+      <c r="E354" s="2" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="inlineStr"/>
+      <c r="B355" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="C355" s="2" t="inlineStr"/>
+      <c r="D355" s="2" t="inlineStr"/>
+      <c r="E355" s="2" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="inlineStr"/>
+      <c r="B356" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="C356" s="2" t="inlineStr"/>
+      <c r="D356" s="2" t="inlineStr"/>
+      <c r="E356" s="2" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="inlineStr"/>
+      <c r="B357" s="2" t="n">
+        <v>356</v>
+      </c>
+      <c r="C357" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="inlineStr"/>
+      <c r="E357" s="2" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="inlineStr"/>
+      <c r="B358" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="C358" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="inlineStr"/>
+      <c r="E358" s="2" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="inlineStr"/>
+      <c r="B359" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="C359" s="2" t="inlineStr"/>
+      <c r="D359" s="2" t="inlineStr"/>
+      <c r="E359" s="2" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="inlineStr"/>
+      <c r="B360" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="C360" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="inlineStr"/>
+      <c r="E360" s="2" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="inlineStr"/>
+      <c r="B361" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="C361" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D361" s="2" t="inlineStr"/>
+      <c r="E361" s="2" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="inlineStr"/>
+      <c r="B362" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="C362" s="2" t="inlineStr">
+        <is>
+          <t>52, 468</t>
+        </is>
+      </c>
+      <c r="D362" s="2" t="inlineStr"/>
+      <c r="E362" s="2" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="inlineStr"/>
+      <c r="B363" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="C363" s="2" t="inlineStr"/>
+      <c r="D363" s="2" t="inlineStr"/>
+      <c r="E363" s="2" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="inlineStr"/>
+      <c r="B364" s="2" t="n">
+        <v>363</v>
+      </c>
+      <c r="C364" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D364" s="2" t="inlineStr"/>
+      <c r="E364" s="2" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="inlineStr"/>
+      <c r="B365" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="C365" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="D365" s="2" t="inlineStr"/>
+      <c r="E365" s="2" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="inlineStr"/>
+      <c r="B366" s="2" t="n">
+        <v>365</v>
+      </c>
+      <c r="C366" s="2" t="inlineStr"/>
+      <c r="D366" s="2" t="inlineStr"/>
+      <c r="E366" s="2" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="inlineStr"/>
+      <c r="B367" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="C367" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D367" s="2" t="inlineStr"/>
+      <c r="E367" s="2" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="inlineStr"/>
+      <c r="B368" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="C368" s="2" t="inlineStr"/>
+      <c r="D368" s="2" t="inlineStr"/>
+      <c r="E368" s="2" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="inlineStr"/>
+      <c r="B369" s="2" t="n">
+        <v>368</v>
+      </c>
+      <c r="C369" s="2" t="inlineStr"/>
+      <c r="D369" s="2" t="inlineStr"/>
+      <c r="E369" s="2" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="inlineStr"/>
+      <c r="B370" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="C370" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="inlineStr"/>
+      <c r="E370" s="2" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="inlineStr"/>
+      <c r="B371" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="C371" s="2" t="inlineStr">
+        <is>
+          <t>224, 308, 322, 329, 376, 383</t>
+        </is>
+      </c>
+      <c r="D371" s="2" t="inlineStr"/>
+      <c r="E371" s="2" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="inlineStr"/>
+      <c r="B372" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="C372" s="2" t="inlineStr"/>
+      <c r="D372" s="2" t="inlineStr"/>
+      <c r="E372" s="2" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="inlineStr"/>
+      <c r="B373" s="2" t="n">
+        <v>372</v>
+      </c>
+      <c r="C373" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="inlineStr"/>
+      <c r="E373" s="2" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="inlineStr"/>
+      <c r="B374" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="C374" s="2" t="inlineStr"/>
+      <c r="D374" s="2" t="inlineStr"/>
+      <c r="E374" s="2" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="inlineStr"/>
+      <c r="B375" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="C375" s="2" t="inlineStr"/>
+      <c r="D375" s="2" t="inlineStr"/>
+      <c r="E375" s="2" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="inlineStr"/>
+      <c r="B376" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="C376" s="2" t="inlineStr"/>
+      <c r="D376" s="2" t="inlineStr"/>
+      <c r="E376" s="2" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="inlineStr"/>
+      <c r="B377" s="2" t="n">
+        <v>376</v>
+      </c>
+      <c r="C377" s="2" t="inlineStr">
+        <is>
+          <t>224, 308, 322, 329, 370, 383</t>
+        </is>
+      </c>
+      <c r="D377" s="2" t="inlineStr"/>
+      <c r="E377" s="2" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="inlineStr"/>
+      <c r="B378" s="2" t="n">
+        <v>377</v>
+      </c>
+      <c r="C378" s="2" t="inlineStr"/>
+      <c r="D378" s="2" t="inlineStr"/>
+      <c r="E378" s="2" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="inlineStr"/>
+      <c r="B379" s="2" t="n">
+        <v>378</v>
+      </c>
+      <c r="C379" s="2" t="inlineStr"/>
+      <c r="D379" s="2" t="inlineStr"/>
+      <c r="E379" s="2" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="inlineStr"/>
+      <c r="B380" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="C380" s="2" t="inlineStr"/>
+      <c r="D380" s="2" t="inlineStr"/>
+      <c r="E380" s="2" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="inlineStr"/>
+      <c r="B381" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="C381" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D381" s="2" t="inlineStr"/>
+      <c r="E381" s="2" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="inlineStr"/>
+      <c r="B382" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="C382" s="2" t="inlineStr"/>
+      <c r="D382" s="2" t="inlineStr"/>
+      <c r="E382" s="2" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="inlineStr"/>
+      <c r="B383" s="2" t="n">
+        <v>382</v>
+      </c>
+      <c r="C383" s="2" t="inlineStr"/>
+      <c r="D383" s="2" t="inlineStr"/>
+      <c r="E383" s="2" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="inlineStr"/>
+      <c r="B384" s="2" t="n">
+        <v>383</v>
+      </c>
+      <c r="C384" s="2" t="inlineStr">
+        <is>
+          <t>224, 308, 322, 329, 370, 376</t>
+        </is>
+      </c>
+      <c r="D384" s="2" t="inlineStr"/>
+      <c r="E384" s="2" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="inlineStr"/>
+      <c r="B385" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="C385" s="2" t="inlineStr"/>
+      <c r="D385" s="2" t="inlineStr"/>
+      <c r="E385" s="2" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="inlineStr"/>
+      <c r="B386" s="2" t="n">
+        <v>385</v>
+      </c>
+      <c r="C386" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D386" s="2" t="inlineStr"/>
+      <c r="E386" s="2" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="inlineStr"/>
+      <c r="B387" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="C387" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D387" s="2" t="inlineStr"/>
+      <c r="E387" s="2" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="inlineStr"/>
+      <c r="B388" s="2" t="n">
+        <v>387</v>
+      </c>
+      <c r="C388" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D388" s="2" t="inlineStr"/>
+      <c r="E388" s="2" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="inlineStr"/>
+      <c r="B389" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="inlineStr"/>
+      <c r="E389" s="2" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="inlineStr"/>
+      <c r="B390" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="C390" s="2" t="inlineStr"/>
+      <c r="D390" s="2" t="inlineStr"/>
+      <c r="E390" s="2" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="inlineStr"/>
+      <c r="B391" s="2" t="n">
+        <v>390</v>
+      </c>
+      <c r="C391" s="2" t="inlineStr"/>
+      <c r="D391" s="2" t="inlineStr"/>
+      <c r="E391" s="2" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="inlineStr"/>
+      <c r="B392" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C392" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D392" s="2" t="inlineStr"/>
+      <c r="E392" s="2" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="inlineStr"/>
+      <c r="B393" s="2" t="n">
+        <v>392</v>
+      </c>
+      <c r="C393" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="D393" s="2" t="inlineStr"/>
+      <c r="E393" s="2" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="inlineStr"/>
+      <c r="B394" s="2" t="n">
+        <v>393</v>
+      </c>
+      <c r="C394" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D394" s="2" t="inlineStr"/>
+      <c r="E394" s="2" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="inlineStr"/>
+      <c r="B395" s="2" t="n">
+        <v>394</v>
+      </c>
+      <c r="C395" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D395" s="2" t="inlineStr"/>
+      <c r="E395" s="2" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="inlineStr"/>
+      <c r="B396" s="2" t="n">
+        <v>395</v>
+      </c>
+      <c r="C396" s="2" t="inlineStr"/>
+      <c r="D396" s="2" t="inlineStr"/>
+      <c r="E396" s="2" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="inlineStr"/>
+      <c r="B397" s="2" t="n">
+        <v>396</v>
+      </c>
+      <c r="C397" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="D397" s="2" t="inlineStr"/>
+      <c r="E397" s="2" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="inlineStr"/>
+      <c r="B398" s="2" t="n">
+        <v>397</v>
+      </c>
+      <c r="C398" s="2" t="inlineStr"/>
+      <c r="D398" s="2" t="inlineStr"/>
+      <c r="E398" s="2" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="inlineStr"/>
+      <c r="B399" s="2" t="n">
+        <v>398</v>
+      </c>
+      <c r="C399" s="2" t="inlineStr"/>
+      <c r="D399" s="2" t="inlineStr"/>
+      <c r="E399" s="2" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="inlineStr"/>
+      <c r="B400" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C400" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D400" s="2" t="inlineStr"/>
+      <c r="E400" s="2" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="inlineStr"/>
+      <c r="B401" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C401" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D401" s="2" t="inlineStr"/>
+      <c r="E401" s="2" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="inlineStr"/>
+      <c r="B402" s="2" t="n">
+        <v>401</v>
+      </c>
+      <c r="C402" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="D402" s="2" t="inlineStr"/>
+      <c r="E402" s="2" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="inlineStr"/>
+      <c r="B403" s="2" t="n">
+        <v>402</v>
+      </c>
+      <c r="C403" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="D403" s="2" t="inlineStr"/>
+      <c r="E403" s="2" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="inlineStr"/>
+      <c r="B404" s="2" t="n">
+        <v>403</v>
+      </c>
+      <c r="C404" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D404" s="2" t="inlineStr"/>
+      <c r="E404" s="2" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="inlineStr"/>
+      <c r="B405" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="C405" s="2" t="inlineStr"/>
+      <c r="D405" s="2" t="inlineStr"/>
+      <c r="E405" s="2" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="inlineStr"/>
+      <c r="B406" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="C406" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D406" s="2" t="inlineStr"/>
+      <c r="E406" s="2" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="inlineStr"/>
+      <c r="B407" s="2" t="n">
+        <v>406</v>
+      </c>
+      <c r="C407" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D407" s="2" t="inlineStr"/>
+      <c r="E407" s="2" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="inlineStr"/>
+      <c r="B408" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="C408" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="D408" s="2" t="inlineStr"/>
+      <c r="E408" s="2" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="inlineStr"/>
+      <c r="B409" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="C409" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D409" s="2" t="inlineStr"/>
+      <c r="E409" s="2" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="inlineStr"/>
+      <c r="B410" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="C410" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="D410" s="2" t="inlineStr"/>
+      <c r="E410" s="2" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="inlineStr"/>
+      <c r="B411" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="C411" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="D411" s="2" t="inlineStr"/>
+      <c r="E411" s="2" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="inlineStr"/>
+      <c r="B412" s="2" t="n">
+        <v>411</v>
+      </c>
+      <c r="C412" s="2" t="inlineStr"/>
+      <c r="D412" s="2" t="inlineStr"/>
+      <c r="E412" s="2" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="inlineStr"/>
+      <c r="B413" s="2" t="n">
+        <v>412</v>
+      </c>
+      <c r="C413" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="D413" s="2" t="inlineStr"/>
+      <c r="E413" s="2" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="inlineStr"/>
+      <c r="B414" s="2" t="n">
+        <v>413</v>
+      </c>
+      <c r="C414" s="2" t="inlineStr"/>
+      <c r="D414" s="2" t="inlineStr"/>
+      <c r="E414" s="2" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="inlineStr"/>
+      <c r="B415" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="C415" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D415" s="2" t="inlineStr"/>
+      <c r="E415" s="2" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="inlineStr"/>
+      <c r="B416" s="2" t="n">
+        <v>415</v>
+      </c>
+      <c r="C416" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D416" s="2" t="inlineStr"/>
+      <c r="E416" s="2" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="inlineStr"/>
+      <c r="B417" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="C417" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D417" s="2" t="inlineStr"/>
+      <c r="E417" s="2" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="inlineStr"/>
+      <c r="B418" s="2" t="n">
+        <v>417</v>
+      </c>
+      <c r="C418" s="2" t="inlineStr"/>
+      <c r="D418" s="2" t="inlineStr"/>
+      <c r="E418" s="2" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="inlineStr"/>
+      <c r="B419" s="2" t="n">
+        <v>418</v>
+      </c>
+      <c r="C419" s="2" t="inlineStr">
+        <is>
+          <t>131, 248</t>
+        </is>
+      </c>
+      <c r="D419" s="2" t="inlineStr"/>
+      <c r="E419" s="2" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="inlineStr"/>
+      <c r="B420" s="2" t="n">
+        <v>419</v>
+      </c>
+      <c r="C420" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D420" s="2" t="inlineStr"/>
+      <c r="E420" s="2" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="inlineStr"/>
+      <c r="B421" s="2" t="n">
+        <v>420</v>
+      </c>
+      <c r="C421" s="2" t="inlineStr">
+        <is>
+          <t>14, 483</t>
+        </is>
+      </c>
+      <c r="D421" s="2" t="inlineStr"/>
+      <c r="E421" s="2" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="inlineStr"/>
+      <c r="B422" s="2" t="n">
+        <v>421</v>
+      </c>
+      <c r="C422" s="2" t="inlineStr">
+        <is>
+          <t>15, 484</t>
+        </is>
+      </c>
+      <c r="D422" s="2" t="inlineStr"/>
+      <c r="E422" s="2" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="inlineStr"/>
+      <c r="B423" s="2" t="n">
+        <v>422</v>
+      </c>
+      <c r="C423" s="2" t="inlineStr">
+        <is>
+          <t>72, 267</t>
+        </is>
+      </c>
+      <c r="D423" s="2" t="inlineStr"/>
+      <c r="E423" s="2" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="inlineStr"/>
+      <c r="B424" s="2" t="n">
+        <v>423</v>
+      </c>
+      <c r="C424" s="2" t="inlineStr"/>
+      <c r="D424" s="2" t="inlineStr"/>
+      <c r="E424" s="2" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="inlineStr"/>
+      <c r="B425" s="2" t="n">
+        <v>424</v>
+      </c>
+      <c r="C425" s="2" t="inlineStr"/>
+      <c r="D425" s="2" t="inlineStr"/>
+      <c r="E425" s="2" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="inlineStr"/>
+      <c r="B426" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="C426" s="2" t="inlineStr">
+        <is>
+          <t>20, 133, 143, 144, 153, 154, 487, 492, 549</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="inlineStr"/>
+      <c r="E426" s="2" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="inlineStr"/>
+      <c r="B427" s="2" t="n">
+        <v>426</v>
+      </c>
+      <c r="C427" s="2" t="inlineStr">
+        <is>
+          <t>161, 527, 538</t>
+        </is>
+      </c>
+      <c r="D427" s="2" t="inlineStr"/>
+      <c r="E427" s="2" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="inlineStr"/>
+      <c r="B428" s="2" t="n">
+        <v>427</v>
+      </c>
+      <c r="C428" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D428" s="2" t="inlineStr"/>
+      <c r="E428" s="2" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="inlineStr"/>
+      <c r="B429" s="2" t="n">
+        <v>428</v>
+      </c>
+      <c r="C429" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D429" s="2" t="inlineStr"/>
+      <c r="E429" s="2" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="inlineStr"/>
+      <c r="B430" s="2" t="n">
+        <v>429</v>
+      </c>
+      <c r="C430" s="2" t="inlineStr">
+        <is>
+          <t>7, 491</t>
+        </is>
+      </c>
+      <c r="D430" s="2" t="inlineStr"/>
+      <c r="E430" s="2" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="inlineStr"/>
+      <c r="B431" s="2" t="n">
+        <v>430</v>
+      </c>
+      <c r="C431" s="2" t="inlineStr">
+        <is>
+          <t>79, 259</t>
+        </is>
+      </c>
+      <c r="D431" s="2" t="inlineStr"/>
+      <c r="E431" s="2" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="inlineStr"/>
+      <c r="B432" s="2" t="n">
+        <v>431</v>
+      </c>
+      <c r="C432" s="2" t="inlineStr"/>
+      <c r="D432" s="2" t="inlineStr"/>
+      <c r="E432" s="2" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="inlineStr"/>
+      <c r="B433" s="2" t="n">
+        <v>432</v>
+      </c>
+      <c r="C433" s="2" t="inlineStr"/>
+      <c r="D433" s="2" t="inlineStr"/>
+      <c r="E433" s="2" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="inlineStr"/>
+      <c r="B434" s="2" t="n">
+        <v>433</v>
+      </c>
+      <c r="C434" s="2" t="inlineStr"/>
+      <c r="D434" s="2" t="inlineStr"/>
+      <c r="E434" s="2" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="inlineStr"/>
+      <c r="B435" s="2" t="n">
+        <v>434</v>
+      </c>
+      <c r="C435" s="2" t="inlineStr"/>
+      <c r="D435" s="2" t="inlineStr"/>
+      <c r="E435" s="2" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="inlineStr"/>
+      <c r="B436" s="2" t="n">
+        <v>435</v>
+      </c>
+      <c r="C436" s="2" t="inlineStr"/>
+      <c r="D436" s="2" t="inlineStr"/>
+      <c r="E436" s="2" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="inlineStr"/>
+      <c r="B437" s="2" t="n">
+        <v>436</v>
+      </c>
+      <c r="C437" s="2" t="inlineStr"/>
+      <c r="D437" s="2" t="inlineStr"/>
+      <c r="E437" s="2" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="inlineStr"/>
+      <c r="B438" s="2" t="n">
+        <v>437</v>
+      </c>
+      <c r="C438" s="2" t="inlineStr"/>
+      <c r="D438" s="2" t="inlineStr"/>
+      <c r="E438" s="2" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="inlineStr"/>
+      <c r="B439" s="2" t="n">
+        <v>438</v>
+      </c>
+      <c r="C439" s="2" t="inlineStr"/>
+      <c r="D439" s="2" t="inlineStr"/>
+      <c r="E439" s="2" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="inlineStr"/>
+      <c r="B440" s="2" t="n">
+        <v>439</v>
+      </c>
+      <c r="C440" s="2" t="inlineStr"/>
+      <c r="D440" s="2" t="inlineStr"/>
+      <c r="E440" s="2" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="inlineStr"/>
+      <c r="B441" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="C441" s="2" t="inlineStr"/>
+      <c r="D441" s="2" t="inlineStr"/>
+      <c r="E441" s="2" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="inlineStr"/>
+      <c r="B442" s="2" t="n">
+        <v>441</v>
+      </c>
+      <c r="C442" s="2" t="inlineStr"/>
+      <c r="D442" s="2" t="inlineStr"/>
+      <c r="E442" s="2" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="inlineStr"/>
+      <c r="B443" s="2" t="n">
+        <v>442</v>
+      </c>
+      <c r="C443" s="2" t="inlineStr"/>
+      <c r="D443" s="2" t="inlineStr"/>
+      <c r="E443" s="2" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="inlineStr"/>
+      <c r="B444" s="2" t="n">
+        <v>443</v>
+      </c>
+      <c r="C444" s="2" t="inlineStr"/>
+      <c r="D444" s="2" t="inlineStr"/>
+      <c r="E444" s="2" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="inlineStr"/>
+      <c r="B445" s="2" t="n">
+        <v>444</v>
+      </c>
+      <c r="C445" s="2" t="inlineStr"/>
+      <c r="D445" s="2" t="inlineStr"/>
+      <c r="E445" s="2" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="inlineStr"/>
+      <c r="B446" s="2" t="n">
+        <v>445</v>
+      </c>
+      <c r="C446" s="2" t="inlineStr"/>
+      <c r="D446" s="2" t="inlineStr"/>
+      <c r="E446" s="2" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="inlineStr"/>
+      <c r="B447" s="2" t="n">
+        <v>446</v>
+      </c>
+      <c r="C447" s="2" t="inlineStr"/>
+      <c r="D447" s="2" t="inlineStr"/>
+      <c r="E447" s="2" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="inlineStr"/>
+      <c r="B448" s="2" t="n">
+        <v>447</v>
+      </c>
+      <c r="C448" s="2" t="inlineStr"/>
+      <c r="D448" s="2" t="inlineStr"/>
+      <c r="E448" s="2" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="inlineStr"/>
+      <c r="B449" s="2" t="n">
+        <v>448</v>
+      </c>
+      <c r="C449" s="2" t="inlineStr"/>
+      <c r="D449" s="2" t="inlineStr"/>
+      <c r="E449" s="2" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="inlineStr"/>
+      <c r="B450" s="2" t="n">
+        <v>449</v>
+      </c>
+      <c r="C450" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D450" s="2" t="inlineStr"/>
+      <c r="E450" s="2" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="inlineStr"/>
+      <c r="B451" s="2" t="n">
+        <v>450</v>
+      </c>
+      <c r="C451" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D451" s="2" t="inlineStr"/>
+      <c r="E451" s="2" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="inlineStr"/>
+      <c r="B452" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="C452" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D452" s="2" t="inlineStr"/>
+      <c r="E452" s="2" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="inlineStr"/>
+      <c r="B453" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="C453" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="inlineStr"/>
+      <c r="E453" s="2" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="inlineStr"/>
+      <c r="B454" s="2" t="n">
+        <v>453</v>
+      </c>
+      <c r="C454" s="2" t="inlineStr"/>
+      <c r="D454" s="2" t="inlineStr"/>
+      <c r="E454" s="2" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="inlineStr"/>
+      <c r="B455" s="2" t="n">
+        <v>454</v>
+      </c>
+      <c r="C455" s="2" t="inlineStr"/>
+      <c r="D455" s="2" t="inlineStr"/>
+      <c r="E455" s="2" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="inlineStr"/>
+      <c r="B456" s="2" t="n">
+        <v>455</v>
+      </c>
+      <c r="C456" s="2" t="inlineStr"/>
+      <c r="D456" s="2" t="inlineStr"/>
+      <c r="E456" s="2" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="inlineStr"/>
+      <c r="B457" s="2" t="n">
+        <v>456</v>
+      </c>
+      <c r="C457" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D457" s="2" t="inlineStr"/>
+      <c r="E457" s="2" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="inlineStr"/>
+      <c r="B458" s="2" t="n">
+        <v>457</v>
+      </c>
+      <c r="C458" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D458" s="2" t="inlineStr"/>
+      <c r="E458" s="2" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="inlineStr"/>
+      <c r="B459" s="2" t="n">
+        <v>458</v>
+      </c>
+      <c r="C459" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="inlineStr"/>
+      <c r="E459" s="2" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="inlineStr"/>
+      <c r="B460" s="2" t="n">
+        <v>459</v>
+      </c>
+      <c r="C460" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="inlineStr"/>
+      <c r="E460" s="2" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="inlineStr"/>
+      <c r="B461" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="C461" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="inlineStr"/>
+      <c r="E461" s="2" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="inlineStr"/>
+      <c r="B462" s="2" t="n">
+        <v>461</v>
+      </c>
+      <c r="C462" s="2" t="inlineStr"/>
+      <c r="D462" s="2" t="inlineStr"/>
+      <c r="E462" s="2" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="inlineStr"/>
+      <c r="B463" s="2" t="n">
+        <v>462</v>
+      </c>
+      <c r="C463" s="2" t="inlineStr"/>
+      <c r="D463" s="2" t="inlineStr"/>
+      <c r="E463" s="2" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="inlineStr"/>
+      <c r="B464" s="2" t="n">
+        <v>463</v>
+      </c>
+      <c r="C464" s="2" t="inlineStr">
+        <is>
+          <t>36, 498, 499</t>
+        </is>
+      </c>
+      <c r="D464" s="2" t="inlineStr"/>
+      <c r="E464" s="2" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="inlineStr"/>
+      <c r="B465" s="2" t="n">
+        <v>464</v>
+      </c>
+      <c r="C465" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D465" s="2" t="inlineStr"/>
+      <c r="E465" s="2" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="inlineStr"/>
+      <c r="B466" s="2" t="n">
+        <v>465</v>
+      </c>
+      <c r="C466" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D466" s="2" t="inlineStr"/>
+      <c r="E466" s="2" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="inlineStr"/>
+      <c r="B467" s="2" t="n">
+        <v>466</v>
+      </c>
+      <c r="C467" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D467" s="2" t="inlineStr"/>
+      <c r="E467" s="2" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="inlineStr"/>
+      <c r="B468" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="C468" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D468" s="2" t="inlineStr"/>
+      <c r="E468" s="2" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="inlineStr"/>
+      <c r="B469" s="2" t="n">
+        <v>468</v>
+      </c>
+      <c r="C469" s="2" t="inlineStr">
+        <is>
+          <t>52, 361</t>
+        </is>
+      </c>
+      <c r="D469" s="2" t="inlineStr"/>
+      <c r="E469" s="2" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="inlineStr"/>
+      <c r="B470" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="C470" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D470" s="2" t="inlineStr"/>
+      <c r="E470" s="2" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="inlineStr"/>
+      <c r="B471" s="2" t="n">
+        <v>470</v>
+      </c>
+      <c r="C471" s="2" t="inlineStr">
+        <is>
+          <t>184, 245</t>
+        </is>
+      </c>
+      <c r="D471" s="2" t="inlineStr"/>
+      <c r="E471" s="2" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="inlineStr"/>
+      <c r="B472" s="2" t="n">
+        <v>471</v>
+      </c>
+      <c r="C472" s="2" t="inlineStr"/>
+      <c r="D472" s="2" t="inlineStr"/>
+      <c r="E472" s="2" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="inlineStr"/>
+      <c r="B473" s="2" t="n">
+        <v>472</v>
+      </c>
+      <c r="C473" s="2" t="inlineStr">
+        <is>
+          <t>54, 233</t>
+        </is>
+      </c>
+      <c r="D473" s="2" t="inlineStr"/>
+      <c r="E473" s="2" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="inlineStr"/>
+      <c r="B474" s="2" t="n">
+        <v>473</v>
+      </c>
+      <c r="C474" s="2" t="inlineStr">
+        <is>
+          <t>44, 490</t>
+        </is>
+      </c>
+      <c r="D474" s="2" t="inlineStr"/>
+      <c r="E474" s="2" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="inlineStr"/>
+      <c r="B475" s="2" t="n">
+        <v>474</v>
+      </c>
+      <c r="C475" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D475" s="2" t="inlineStr"/>
+      <c r="E475" s="2" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="inlineStr"/>
+      <c r="B476" s="2" t="n">
+        <v>475</v>
+      </c>
+      <c r="C476" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D476" s="2" t="inlineStr"/>
+      <c r="E476" s="2" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="inlineStr"/>
+      <c r="B477" s="2" t="n">
+        <v>476</v>
+      </c>
+      <c r="C477" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D477" s="2" t="inlineStr"/>
+      <c r="E477" s="2" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="inlineStr"/>
+      <c r="B478" s="2" t="n">
+        <v>477</v>
+      </c>
+      <c r="C478" s="2" t="inlineStr"/>
+      <c r="D478" s="2" t="inlineStr"/>
+      <c r="E478" s="2" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="inlineStr"/>
+      <c r="B479" s="2" t="n">
+        <v>478</v>
+      </c>
+      <c r="C479" s="2" t="inlineStr">
+        <is>
+          <t>192, 253</t>
+        </is>
+      </c>
+      <c r="D479" s="2" t="inlineStr"/>
+      <c r="E479" s="2" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="inlineStr"/>
+      <c r="B480" s="2" t="n">
+        <v>479</v>
+      </c>
+      <c r="C480" s="2" t="inlineStr">
+        <is>
+          <t>59, 142</t>
+        </is>
+      </c>
+      <c r="D480" s="2" t="inlineStr"/>
+      <c r="E480" s="2" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="inlineStr"/>
+      <c r="B481" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="C481" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="inlineStr"/>
+      <c r="E481" s="2" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="inlineStr"/>
+      <c r="B482" s="2" t="n">
+        <v>481</v>
+      </c>
+      <c r="C482" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D482" s="2" t="inlineStr"/>
+      <c r="E482" s="2" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="inlineStr"/>
+      <c r="B483" s="2" t="n">
+        <v>482</v>
+      </c>
+      <c r="C483" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D483" s="2" t="inlineStr"/>
+      <c r="E483" s="2" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="inlineStr"/>
+      <c r="B484" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="C484" s="2" t="inlineStr">
+        <is>
+          <t>14, 420</t>
+        </is>
+      </c>
+      <c r="D484" s="2" t="inlineStr"/>
+      <c r="E484" s="2" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="inlineStr"/>
+      <c r="B485" s="2" t="n">
+        <v>484</v>
+      </c>
+      <c r="C485" s="2" t="inlineStr">
+        <is>
+          <t>15, 421</t>
+        </is>
+      </c>
+      <c r="D485" s="2" t="inlineStr"/>
+      <c r="E485" s="2" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="inlineStr"/>
+      <c r="B486" s="2" t="n">
+        <v>485</v>
+      </c>
+      <c r="C486" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D486" s="2" t="inlineStr"/>
+      <c r="E486" s="2" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="inlineStr"/>
+      <c r="B487" s="2" t="n">
+        <v>486</v>
+      </c>
+      <c r="C487" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D487" s="2" t="inlineStr"/>
+      <c r="E487" s="2" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="inlineStr"/>
+      <c r="B488" s="2" t="n">
+        <v>487</v>
+      </c>
+      <c r="C488" s="2" t="inlineStr">
+        <is>
+          <t>20, 133, 143, 144, 153, 154, 425, 492, 549</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="inlineStr"/>
+      <c r="E488" s="2" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="inlineStr"/>
+      <c r="B489" s="2" t="n">
+        <v>488</v>
+      </c>
+      <c r="C489" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="D489" s="2" t="inlineStr"/>
+      <c r="E489" s="2" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="inlineStr"/>
+      <c r="B490" s="2" t="n">
+        <v>489</v>
+      </c>
+      <c r="C490" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="inlineStr"/>
+      <c r="E490" s="2" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="inlineStr"/>
+      <c r="B491" s="2" t="n">
+        <v>490</v>
+      </c>
+      <c r="C491" s="2" t="inlineStr">
+        <is>
+          <t>44, 473</t>
+        </is>
+      </c>
+      <c r="D491" s="2" t="inlineStr"/>
+      <c r="E491" s="2" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="inlineStr"/>
+      <c r="B492" s="2" t="n">
+        <v>491</v>
+      </c>
+      <c r="C492" s="2" t="inlineStr">
+        <is>
+          <t>7, 429</t>
+        </is>
+      </c>
+      <c r="D492" s="2" t="inlineStr"/>
+      <c r="E492" s="2" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="inlineStr"/>
+      <c r="B493" s="2" t="n">
+        <v>492</v>
+      </c>
+      <c r="C493" s="2" t="inlineStr">
+        <is>
+          <t>20, 133, 143, 144, 153, 154, 425, 487, 549</t>
+        </is>
+      </c>
+      <c r="D493" s="2" t="inlineStr"/>
+      <c r="E493" s="2" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="inlineStr"/>
+      <c r="B494" s="2" t="n">
+        <v>493</v>
+      </c>
+      <c r="C494" s="2" t="inlineStr">
+        <is>
+          <t>18, 159, 182, 254, 507, 516, 546</t>
+        </is>
+      </c>
+      <c r="D494" s="2" t="inlineStr"/>
+      <c r="E494" s="2" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="inlineStr"/>
+      <c r="B495" s="2" t="n">
+        <v>494</v>
+      </c>
+      <c r="C495" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D495" s="2" t="inlineStr"/>
+      <c r="E495" s="2" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="inlineStr"/>
+      <c r="B496" s="2" t="n">
+        <v>495</v>
+      </c>
+      <c r="C496" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="D496" s="2" t="inlineStr"/>
+      <c r="E496" s="2" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="inlineStr"/>
+      <c r="B497" s="2" t="n">
+        <v>496</v>
+      </c>
+      <c r="C497" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="inlineStr"/>
+      <c r="E497" s="2" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="inlineStr"/>
+      <c r="B498" s="2" t="n">
+        <v>497</v>
+      </c>
+      <c r="C498" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 502, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="inlineStr"/>
+      <c r="E498" s="2" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="inlineStr"/>
+      <c r="B499" s="2" t="n">
+        <v>498</v>
+      </c>
+      <c r="C499" s="2" t="inlineStr">
+        <is>
+          <t>36, 463, 499</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="inlineStr"/>
+      <c r="E499" s="2" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="inlineStr"/>
+      <c r="B500" s="2" t="n">
+        <v>499</v>
+      </c>
+      <c r="C500" s="2" t="inlineStr">
+        <is>
+          <t>36, 463, 498</t>
+        </is>
+      </c>
+      <c r="D500" s="2" t="inlineStr"/>
+      <c r="E500" s="2" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="inlineStr"/>
+      <c r="B501" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="C501" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D501" s="2" t="inlineStr"/>
+      <c r="E501" s="2" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="inlineStr"/>
+      <c r="B502" s="2" t="n">
+        <v>501</v>
+      </c>
+      <c r="C502" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="D502" s="2" t="inlineStr"/>
+      <c r="E502" s="2" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="inlineStr"/>
+      <c r="B503" s="2" t="n">
+        <v>502</v>
+      </c>
+      <c r="C503" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 503, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D503" s="2" t="inlineStr"/>
+      <c r="E503" s="2" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="inlineStr"/>
+      <c r="B504" s="2" t="n">
+        <v>503</v>
+      </c>
+      <c r="C504" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 508, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D504" s="2" t="inlineStr"/>
+      <c r="E504" s="2" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="inlineStr"/>
+      <c r="B505" s="2" t="n">
+        <v>504</v>
+      </c>
+      <c r="C505" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="D505" s="2" t="inlineStr"/>
+      <c r="E505" s="2" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="inlineStr"/>
+      <c r="B506" s="2" t="n">
+        <v>505</v>
+      </c>
+      <c r="C506" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D506" s="2" t="inlineStr"/>
+      <c r="E506" s="2" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="inlineStr"/>
+      <c r="B507" s="2" t="n">
+        <v>506</v>
+      </c>
+      <c r="C507" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D507" s="2" t="inlineStr"/>
+      <c r="E507" s="2" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="inlineStr"/>
+      <c r="B508" s="2" t="n">
+        <v>507</v>
+      </c>
+      <c r="C508" s="2" t="inlineStr">
+        <is>
+          <t>18, 159, 182, 254, 493, 516, 546</t>
+        </is>
+      </c>
+      <c r="D508" s="2" t="inlineStr"/>
+      <c r="E508" s="2" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="inlineStr"/>
+      <c r="B509" s="2" t="n">
+        <v>508</v>
+      </c>
+      <c r="C509" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 517, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D509" s="2" t="inlineStr"/>
+      <c r="E509" s="2" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="inlineStr"/>
+      <c r="B510" s="2" t="n">
+        <v>509</v>
+      </c>
+      <c r="C510" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D510" s="2" t="inlineStr"/>
+      <c r="E510" s="2" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="inlineStr"/>
+      <c r="B511" s="2" t="n">
+        <v>510</v>
+      </c>
+      <c r="C511" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D511" s="2" t="inlineStr"/>
+      <c r="E511" s="2" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="inlineStr"/>
+      <c r="B512" s="2" t="n">
+        <v>511</v>
+      </c>
+      <c r="C512" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="inlineStr"/>
+      <c r="E512" s="2" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="inlineStr"/>
+      <c r="B513" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="C513" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="D513" s="2" t="inlineStr"/>
+      <c r="E513" s="2" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="inlineStr"/>
+      <c r="B514" s="2" t="n">
+        <v>513</v>
+      </c>
+      <c r="C514" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D514" s="2" t="inlineStr"/>
+      <c r="E514" s="2" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="inlineStr"/>
+      <c r="B515" s="2" t="n">
+        <v>514</v>
+      </c>
+      <c r="C515" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D515" s="2" t="inlineStr"/>
+      <c r="E515" s="2" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="inlineStr"/>
+      <c r="B516" s="2" t="n">
+        <v>515</v>
+      </c>
+      <c r="C516" s="2" t="inlineStr">
+        <is>
+          <t>26, 58, 554</t>
+        </is>
+      </c>
+      <c r="D516" s="2" t="inlineStr"/>
+      <c r="E516" s="2" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="inlineStr"/>
+      <c r="B517" s="2" t="n">
+        <v>516</v>
+      </c>
+      <c r="C517" s="2" t="inlineStr">
+        <is>
+          <t>18, 159, 182, 254, 493, 507, 546</t>
+        </is>
+      </c>
+      <c r="D517" s="2" t="inlineStr"/>
+      <c r="E517" s="2" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="inlineStr"/>
+      <c r="B518" s="2" t="n">
+        <v>517</v>
+      </c>
+      <c r="C518" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 523, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D518" s="2" t="inlineStr"/>
+      <c r="E518" s="2" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="inlineStr"/>
+      <c r="B519" s="2" t="n">
+        <v>518</v>
+      </c>
+      <c r="C519" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="D519" s="2" t="inlineStr"/>
+      <c r="E519" s="2" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="inlineStr"/>
+      <c r="B520" s="2" t="n">
+        <v>519</v>
+      </c>
+      <c r="C520" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D520" s="2" t="inlineStr"/>
+      <c r="E520" s="2" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="inlineStr"/>
+      <c r="B521" s="2" t="n">
+        <v>520</v>
+      </c>
+      <c r="C521" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="D521" s="2" t="inlineStr"/>
+      <c r="E521" s="2" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="inlineStr"/>
+      <c r="B522" s="2" t="n">
+        <v>521</v>
+      </c>
+      <c r="C522" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D522" s="2" t="inlineStr"/>
+      <c r="E522" s="2" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="inlineStr"/>
+      <c r="B523" s="2" t="n">
+        <v>522</v>
+      </c>
+      <c r="C523" s="2" t="inlineStr">
+        <is>
+          <t>17, 234, 557</t>
+        </is>
+      </c>
+      <c r="D523" s="2" t="inlineStr"/>
+      <c r="E523" s="2" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="inlineStr"/>
+      <c r="B524" s="2" t="n">
+        <v>523</v>
+      </c>
+      <c r="C524" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 532, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D524" s="2" t="inlineStr"/>
+      <c r="E524" s="2" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="inlineStr"/>
+      <c r="B525" s="2" t="n">
+        <v>524</v>
+      </c>
+      <c r="C525" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D525" s="2" t="inlineStr"/>
+      <c r="E525" s="2" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="inlineStr"/>
+      <c r="B526" s="2" t="n">
+        <v>525</v>
+      </c>
+      <c r="C526" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="D526" s="2" t="inlineStr"/>
+      <c r="E526" s="2" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="inlineStr"/>
+      <c r="B527" s="2" t="n">
+        <v>526</v>
+      </c>
+      <c r="C527" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D527" s="2" t="inlineStr"/>
+      <c r="E527" s="2" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="inlineStr"/>
+      <c r="B528" s="2" t="n">
+        <v>527</v>
+      </c>
+      <c r="C528" s="2" t="inlineStr">
+        <is>
+          <t>161, 426, 538</t>
+        </is>
+      </c>
+      <c r="D528" s="2" t="inlineStr"/>
+      <c r="E528" s="2" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="inlineStr"/>
+      <c r="B529" s="2" t="n">
+        <v>528</v>
+      </c>
+      <c r="C529" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D529" s="2" t="inlineStr"/>
+      <c r="E529" s="2" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="inlineStr"/>
+      <c r="B530" s="2" t="n">
+        <v>529</v>
+      </c>
+      <c r="C530" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D530" s="2" t="inlineStr"/>
+      <c r="E530" s="2" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="inlineStr"/>
+      <c r="B531" s="2" t="n">
+        <v>530</v>
+      </c>
+      <c r="C531" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D531" s="2" t="inlineStr"/>
+      <c r="E531" s="2" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="inlineStr"/>
+      <c r="B532" s="2" t="n">
+        <v>531</v>
+      </c>
+      <c r="C532" s="2" t="inlineStr"/>
+      <c r="D532" s="2" t="inlineStr"/>
+      <c r="E532" s="2" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="inlineStr"/>
+      <c r="B533" s="2" t="n">
+        <v>532</v>
+      </c>
+      <c r="C533" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 536, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="inlineStr"/>
+      <c r="E533" s="2" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="inlineStr"/>
+      <c r="B534" s="2" t="n">
+        <v>533</v>
+      </c>
+      <c r="C534" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D534" s="2" t="inlineStr"/>
+      <c r="E534" s="2" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="inlineStr"/>
+      <c r="B535" s="2" t="n">
+        <v>534</v>
+      </c>
+      <c r="C535" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D535" s="2" t="inlineStr"/>
+      <c r="E535" s="2" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="inlineStr"/>
+      <c r="B536" s="2" t="n">
+        <v>535</v>
+      </c>
+      <c r="C536" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D536" s="2" t="inlineStr"/>
+      <c r="E536" s="2" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="inlineStr"/>
+      <c r="B537" s="2" t="n">
+        <v>536</v>
+      </c>
+      <c r="C537" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 541, 542, 548</t>
+        </is>
+      </c>
+      <c r="D537" s="2" t="inlineStr"/>
+      <c r="E537" s="2" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="inlineStr"/>
+      <c r="B538" s="2" t="n">
+        <v>537</v>
+      </c>
+      <c r="C538" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D538" s="2" t="inlineStr"/>
+      <c r="E538" s="2" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="inlineStr"/>
+      <c r="B539" s="2" t="n">
+        <v>538</v>
+      </c>
+      <c r="C539" s="2" t="inlineStr">
+        <is>
+          <t>161, 426, 527</t>
+        </is>
+      </c>
+      <c r="D539" s="2" t="inlineStr"/>
+      <c r="E539" s="2" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="inlineStr"/>
+      <c r="B540" s="2" t="n">
+        <v>539</v>
+      </c>
+      <c r="C540" s="2" t="inlineStr"/>
+      <c r="D540" s="2" t="inlineStr"/>
+      <c r="E540" s="2" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="inlineStr"/>
+      <c r="B541" s="2" t="n">
+        <v>540</v>
+      </c>
+      <c r="C541" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D541" s="2" t="inlineStr"/>
+      <c r="E541" s="2" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="inlineStr"/>
+      <c r="B542" s="2" t="n">
+        <v>541</v>
+      </c>
+      <c r="C542" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 542, 548</t>
+        </is>
+      </c>
+      <c r="D542" s="2" t="inlineStr"/>
+      <c r="E542" s="2" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="inlineStr"/>
+      <c r="B543" s="2" t="n">
+        <v>542</v>
+      </c>
+      <c r="C543" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 548</t>
+        </is>
+      </c>
+      <c r="D543" s="2" t="inlineStr"/>
+      <c r="E543" s="2" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="inlineStr"/>
+      <c r="B544" s="2" t="n">
+        <v>543</v>
+      </c>
+      <c r="C544" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="D544" s="2" t="inlineStr"/>
+      <c r="E544" s="2" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="inlineStr"/>
+      <c r="B545" s="2" t="n">
+        <v>544</v>
+      </c>
+      <c r="C545" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="D545" s="2" t="inlineStr"/>
+      <c r="E545" s="2" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="inlineStr"/>
+      <c r="B546" s="2" t="n">
+        <v>545</v>
+      </c>
+      <c r="C546" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="D546" s="2" t="inlineStr"/>
+      <c r="E546" s="2" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="inlineStr"/>
+      <c r="B547" s="2" t="n">
+        <v>546</v>
+      </c>
+      <c r="C547" s="2" t="inlineStr">
+        <is>
+          <t>18, 159, 182, 254, 493, 507, 516</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="inlineStr"/>
+      <c r="E547" s="2" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="inlineStr"/>
+      <c r="B548" s="2" t="n">
+        <v>547</v>
+      </c>
+      <c r="C548" s="2" t="inlineStr"/>
+      <c r="D548" s="2" t="inlineStr"/>
+      <c r="E548" s="2" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="inlineStr"/>
+      <c r="B549" s="2" t="n">
+        <v>548</v>
+      </c>
+      <c r="C549" s="2" t="inlineStr">
+        <is>
+          <t>21, 35, 37, 99, 246, 266, 292, 300, 306, 313, 319, 342, 350, 366, 372, 380, 386, 419, 427, 456, 494, 497, 502, 503, 508, 517, 523, 532, 536, 541, 542</t>
+        </is>
+      </c>
+      <c r="D549" s="2" t="inlineStr"/>
+      <c r="E549" s="2" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="inlineStr"/>
+      <c r="B550" s="2" t="n">
+        <v>549</v>
+      </c>
+      <c r="C550" s="2" t="inlineStr">
+        <is>
+          <t>20, 133, 143, 144, 153, 154, 425, 487, 492</t>
+        </is>
+      </c>
+      <c r="D550" s="2" t="inlineStr"/>
+      <c r="E550" s="2" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="inlineStr"/>
+      <c r="B551" s="2" t="n">
+        <v>550</v>
+      </c>
+      <c r="C551" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="D551" s="2" t="inlineStr"/>
+      <c r="E551" s="2" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="inlineStr"/>
+      <c r="B552" s="2" t="n">
+        <v>551</v>
+      </c>
+      <c r="C552" s="2" t="inlineStr"/>
+      <c r="D552" s="2" t="inlineStr"/>
+      <c r="E552" s="2" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="inlineStr"/>
+      <c r="B553" s="2" t="n">
+        <v>552</v>
+      </c>
+      <c r="C553" s="2" t="inlineStr">
+        <is>
+          <t>227, 252</t>
+        </is>
+      </c>
+      <c r="D553" s="2" t="inlineStr"/>
+      <c r="E553" s="2" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="inlineStr"/>
+      <c r="B554" s="2" t="n">
+        <v>553</v>
+      </c>
+      <c r="C554" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="D554" s="2" t="inlineStr"/>
+      <c r="E554" s="2" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="inlineStr"/>
+      <c r="B555" s="2" t="n">
+        <v>554</v>
+      </c>
+      <c r="C555" s="2" t="inlineStr">
+        <is>
+          <t>26, 58, 515</t>
+        </is>
+      </c>
+      <c r="D555" s="2" t="inlineStr"/>
+      <c r="E555" s="2" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="inlineStr"/>
+      <c r="B556" s="2" t="n">
+        <v>555</v>
+      </c>
+      <c r="C556" s="2" t="inlineStr">
+        <is>
+          <t>8, 76</t>
+        </is>
+      </c>
+      <c r="D556" s="2" t="inlineStr"/>
+      <c r="E556" s="2" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="inlineStr"/>
+      <c r="B557" s="2" t="n">
+        <v>556</v>
+      </c>
+      <c r="C557" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D557" s="2" t="inlineStr"/>
+      <c r="E557" s="2" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="inlineStr"/>
+      <c r="B558" s="2" t="n">
+        <v>557</v>
+      </c>
+      <c r="C558" s="2" t="inlineStr">
+        <is>
+          <t>17, 234, 522</t>
+        </is>
+      </c>
+      <c r="D558" s="2" t="inlineStr"/>
+      <c r="E558" s="2" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="inlineStr"/>
+      <c r="B559" s="2" t="n">
+        <v>558</v>
+      </c>
+      <c r="C559" s="2" t="inlineStr"/>
+      <c r="D559" s="2" t="inlineStr"/>
+      <c r="E559" s="2" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="inlineStr"/>
+      <c r="B560" s="2" t="n">
+        <v>559</v>
+      </c>
+      <c r="C560" s="2" t="inlineStr">
+        <is>
+          <t>16, 80</t>
+        </is>
+      </c>
+      <c r="D560" s="2" t="inlineStr"/>
+      <c r="E560" s="2" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="inlineStr"/>
+      <c r="B561" s="2" t="n">
+        <v>560</v>
+      </c>
+      <c r="C561" s="2" t="inlineStr"/>
+      <c r="D561" s="2" t="inlineStr"/>
+      <c r="E561" s="2" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="inlineStr"/>
+      <c r="B562" s="2" t="n">
+        <v>561</v>
+      </c>
+      <c r="C562" s="2" t="inlineStr"/>
+      <c r="D562" s="2" t="inlineStr"/>
+      <c r="E562" s="2" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="inlineStr"/>
+      <c r="B563" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="C563" s="2" t="inlineStr"/>
+      <c r="D563" s="2" t="inlineStr"/>
+      <c r="E563" s="2" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="inlineStr"/>
+      <c r="B564" s="2" t="n">
+        <v>563</v>
+      </c>
+      <c r="C564" s="2" t="inlineStr"/>
+      <c r="D564" s="2" t="inlineStr"/>
+      <c r="E564" s="2" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="inlineStr"/>
+      <c r="B565" s="2" t="n">
+        <v>564</v>
+      </c>
+      <c r="C565" s="2" t="inlineStr"/>
+      <c r="D565" s="2" t="inlineStr"/>
+      <c r="E565" s="2" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="inlineStr"/>
+      <c r="B566" s="2" t="n">
+        <v>565</v>
+      </c>
+      <c r="C566" s="2" t="inlineStr"/>
+      <c r="D566" s="2" t="inlineStr"/>
+      <c r="E566" s="2" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="inlineStr"/>
+      <c r="B567" s="2" t="n">
+        <v>566</v>
+      </c>
+      <c r="C567" s="2" t="inlineStr"/>
+      <c r="D567" s="2" t="inlineStr"/>
+      <c r="E567" s="2" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="inlineStr"/>
+      <c r="B568" s="2" t="n">
+        <v>567</v>
+      </c>
+      <c r="C568" s="2" t="inlineStr"/>
+      <c r="D568" s="2" t="inlineStr"/>
+      <c r="E568" s="2" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="inlineStr"/>
+      <c r="B569" s="2" t="n">
+        <v>568</v>
+      </c>
+      <c r="C569" s="2" t="inlineStr"/>
+      <c r="D569" s="2" t="inlineStr"/>
+      <c r="E569" s="2" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="inlineStr"/>
+      <c r="B570" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="C570" s="2" t="inlineStr"/>
+      <c r="D570" s="2" t="inlineStr"/>
+      <c r="E570" s="2" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="inlineStr"/>
+      <c r="B571" s="2" t="n">
+        <v>570</v>
+      </c>
+      <c r="C571" s="2" t="inlineStr"/>
+      <c r="D571" s="2" t="inlineStr"/>
+      <c r="E571" s="2" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="inlineStr"/>
+      <c r="B572" s="2" t="n">
+        <v>571</v>
+      </c>
+      <c r="C572" s="2" t="inlineStr"/>
+      <c r="D572" s="2" t="inlineStr"/>
+      <c r="E572" s="2" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="inlineStr"/>
+      <c r="B573" s="2" t="n">
+        <v>572</v>
+      </c>
+      <c r="C573" s="2" t="inlineStr"/>
+      <c r="D573" s="2" t="inlineStr"/>
+      <c r="E573" s="2" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="inlineStr"/>
+      <c r="B574" s="2" t="n">
+        <v>573</v>
+      </c>
+      <c r="C574" s="2" t="inlineStr"/>
+      <c r="D574" s="2" t="inlineStr"/>
+      <c r="E574" s="2" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="inlineStr"/>
+      <c r="B575" s="2" t="n">
+        <v>574</v>
+      </c>
+      <c r="C575" s="2" t="inlineStr"/>
+      <c r="D575" s="2" t="inlineStr"/>
+      <c r="E575" s="2" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="inlineStr"/>
+      <c r="B576" s="2" t="n">
+        <v>575</v>
+      </c>
+      <c r="C576" s="2" t="inlineStr"/>
+      <c r="D576" s="2" t="inlineStr"/>
+      <c r="E576" s="2" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="inlineStr"/>
+      <c r="B577" s="2" t="n">
+        <v>576</v>
+      </c>
+      <c r="C577" s="2" t="inlineStr"/>
+      <c r="D577" s="2" t="inlineStr"/>
+      <c r="E577" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/check_result.xlsx
+++ b/check_result.xlsx
@@ -468,11 +468,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,17 +493,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Корректные соединения</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>Отсутствующие соединения</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>Некорректные соединения</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>XS1(1)</t>
+          <t>XS1(1)-</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>XS1111(111)</t>
+          <t>NC(NC)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">

--- a/check_result.xlsx
+++ b/check_result.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -38,20 +38,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFEB9C"/>
         <bgColor rgb="00FFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -85,9 +79,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -513,7 +504,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>XS1(1)-</t>
+          <t>XS1(1)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -521,7 +512,57 @@
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -535,13 +576,63 @@
       <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>148: XP3(23)</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -555,13 +646,63 @@
       <c r="C4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>149: XP3(25)</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -575,13 +716,63 @@
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>147: XP3(21)</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -595,13 +786,63 @@
       <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>151: XP3(29)</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -615,17 +856,64 @@
       <c r="C7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>216: XS5(17)</t>
-        </is>
-      </c>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>49: XS2(23)</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr"/>
+          <t>49: XS2(23)
+216: XS5(17)</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -639,14 +927,64 @@
       <c r="C8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>429: XS10(33)
 491: XS19(38)</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -660,14 +998,64 @@
       <c r="C9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>76: XS35(7)
 555: XP36(7)</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -683,7 +1071,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -697,13 +1135,63 @@
       <c r="C11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>156: XP3(24)</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -717,13 +1205,63 @@
       <c r="C12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>157: XP3(26)</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -737,13 +1275,63 @@
       <c r="C13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>155: XP3(22)</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -757,13 +1345,63 @@
       <c r="C14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>158: XP3(28)</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -777,14 +1415,64 @@
       <c r="C15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>420: XS10(30)
 483: XS19(37)</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -798,14 +1486,64 @@
       <c r="C16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>421: XS10(32)
 484: XS19(39)</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -819,14 +1557,64 @@
       <c r="C17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>80: XS35(15)
 559: XP36(15)</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -840,15 +1628,65 @@
       <c r="C18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>234: XS5(22)
 522: XS29(3)
 557: XP36(11)</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -862,9 +1700,11 @@
       <c r="C19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>159: XP3(30)
+182: XS4(20)
 254: XS12(20)
 493: XS14(1)
 507: XS22(1)
@@ -872,12 +1712,57 @@
 546: XP36(4)</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>182: XS4(20)</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -891,17 +1776,64 @@
       <c r="C20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>209: XS5(3)</t>
-        </is>
-      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>50: XS2(25)</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
+          <t>50: XS2(25)
+209: XS5(3)</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -915,7 +1847,8 @@
       <c r="C21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>133: XP3(9)
 143: XP3(14)
@@ -928,8 +1861,57 @@
 549: XP36(10)</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -943,9 +1925,12 @@
       <c r="C22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>99: XS38(4)
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>35: XS2(11)
+37: XS2(15)
+99: XS38(4)
 246: XS12(19)
 266: XS18(2)
 292: XS6(7)
@@ -953,6 +1938,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -975,16 +1961,55 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
         </is>
       </c>
     </row>
@@ -1006,7 +2031,57 @@
           <t>449: XS19(1)</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1022,7 +2097,57 @@
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1042,7 +2167,57 @@
           <t>228: XS5(25)</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1056,13 +2231,63 @@
       <c r="C26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>226: XS5(21)</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1076,18 +2301,65 @@
       <c r="C27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>515: XS29(4)
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>58: XS2(26)
+515: XS29(4)
 554: XP36(5)</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>58: XS2(26)</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1101,13 +2373,63 @@
       <c r="C28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>399: XS10(5)</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1121,13 +2443,63 @@
       <c r="C29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>291: XS6(5)</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1141,13 +2513,63 @@
       <c r="C30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>510: XP43(1)</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1167,7 +2589,57 @@
           <t>457: XS19(2)</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1187,7 +2659,57 @@
           <t>235: XS5(24)</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1207,7 +2729,57 @@
           <t>236: XS5(26)</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1943,12 +3515,12 @@
       <c r="C67" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr"/>
+      <c r="E67" s="4" t="inlineStr">
         <is>
           <t>212: XS5(9)</t>
         </is>
       </c>
-      <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
@@ -1963,12 +3535,12 @@
       <c r="C68" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr"/>
+      <c r="E68" s="4" t="inlineStr">
         <is>
           <t>215: XS5(15)</t>
         </is>
       </c>
-      <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
@@ -1983,12 +3555,12 @@
       <c r="C69" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="4" t="inlineStr">
         <is>
           <t>534: XP44(1)</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2003,12 +3575,12 @@
       <c r="C70" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="4" t="inlineStr">
         <is>
           <t>521: XS29(1)</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2023,12 +3595,12 @@
       <c r="C71" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="4" t="inlineStr">
         <is>
           <t>220: XS5(10)</t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2043,12 +3615,12 @@
       <c r="C72" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="D72" s="3" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="4" t="inlineStr">
         <is>
           <t>428: XS10(31)</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
@@ -2063,13 +3635,13 @@
       <c r="C73" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr"/>
+      <c r="E73" s="4" t="inlineStr">
         <is>
           <t>267: XS9(2)
 422: XS10(34)</t>
         </is>
       </c>
-      <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2084,12 +3656,12 @@
       <c r="C74" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="D74" s="3" t="inlineStr">
+      <c r="D74" s="2" t="inlineStr"/>
+      <c r="E74" s="4" t="inlineStr">
         <is>
           <t>219: XS5(8)</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
@@ -2104,12 +3676,12 @@
       <c r="C75" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="4" t="inlineStr">
         <is>
           <t>213: XS5(11)</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
@@ -2124,12 +3696,12 @@
       <c r="C76" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="4" t="inlineStr">
         <is>
           <t>475: XS19(22)</t>
         </is>
       </c>
-      <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
@@ -2144,13 +3716,13 @@
       <c r="C77" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="D77" s="3" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="4" t="inlineStr">
         <is>
           <t>8: XS1(15)
 555: XP36(7)</t>
         </is>
       </c>
-      <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
@@ -2165,12 +3737,12 @@
       <c r="C78" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="D78" s="3" t="inlineStr">
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="4" t="inlineStr">
         <is>
           <t>211: XS5(7)</t>
         </is>
       </c>
-      <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
@@ -2185,12 +3757,12 @@
       <c r="C79" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="D79" s="3" t="inlineStr">
+      <c r="D79" s="2" t="inlineStr"/>
+      <c r="E79" s="4" t="inlineStr">
         <is>
           <t>221: XS5(12)</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
     </row>
     <row r="80">
@@ -2205,13 +3777,13 @@
       <c r="C80" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="D80" s="3" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr"/>
+      <c r="E80" s="4" t="inlineStr">
         <is>
           <t>259: XS9(1)
 430: XS10(35)</t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
@@ -2226,13 +3798,13 @@
       <c r="C81" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr"/>
+      <c r="E81" s="4" t="inlineStr">
         <is>
           <t>16: XS1(16)
 559: XP36(15)</t>
         </is>
       </c>
-      <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
@@ -2247,13 +3819,63 @@
       <c r="C82" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="4" t="inlineStr">
         <is>
           <t>514: XS29(2)</t>
         </is>
       </c>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr"/>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2269,7 +3891,57 @@
       </c>
       <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr"/>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -2285,7 +3957,57 @@
       </c>
       <c r="D84" s="2" t="inlineStr"/>
       <c r="E84" s="2" t="inlineStr"/>
-      <c r="F84" s="2" t="inlineStr"/>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -2301,7 +4023,57 @@
       </c>
       <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="2" t="inlineStr"/>
-      <c r="F85" s="2" t="inlineStr"/>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -2321,7 +4093,57 @@
           <t>167: XS4(6)</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr"/>
+      <c r="F86" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -2337,7 +4159,57 @@
       </c>
       <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr"/>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -2353,7 +4225,57 @@
       </c>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr"/>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -2369,7 +4291,57 @@
       </c>
       <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr"/>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -2383,13 +4355,63 @@
       <c r="C90" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="D90" s="3" t="inlineStr">
+      <c r="D90" s="2" t="inlineStr"/>
+      <c r="E90" s="4" t="inlineStr">
         <is>
           <t>505: YA42(1)</t>
         </is>
       </c>
-      <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr"/>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -2405,7 +4427,57 @@
       </c>
       <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr"/>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -2421,7 +4493,57 @@
       </c>
       <c r="D92" s="2" t="inlineStr"/>
       <c r="E92" s="2" t="inlineStr"/>
-      <c r="F92" s="2" t="inlineStr"/>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -2437,7 +4559,57 @@
       </c>
       <c r="D93" s="2" t="inlineStr"/>
       <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr"/>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -2451,13 +4623,63 @@
       <c r="C94" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="D94" s="3" t="inlineStr">
+      <c r="D94" s="2" t="inlineStr"/>
+      <c r="E94" s="4" t="inlineStr">
         <is>
           <t>506: YA43(1)</t>
         </is>
       </c>
-      <c r="E94" s="2" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr"/>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+94: XS41(11)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -2473,7 +4695,57 @@
       </c>
       <c r="D95" s="2" t="inlineStr"/>
       <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr"/>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+95: XS41(13)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -2489,7 +4761,57 @@
       </c>
       <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr"/>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+96: XS41(15)</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -2505,7 +4827,57 @@
       </c>
       <c r="D97" s="2" t="inlineStr"/>
       <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr"/>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>1: XS1(1)
+2: XS1(3)
+3: XS1(5)
+4: XS1(7)
+5: XS1(9)
+6: XS1(11)
+7: XS1(13)
+8: XS1(15)
+9: XS1(2)
+10: XS1(4)
+11: XS1(6)
+12: XS1(8)
+13: XS1(10)
+14: XS1(12)
+15: XS1(14)
+16: XS1(16)
+17: XS1(17)
+18: XS1(19)
+19: XS1(21)
+20: XS1(23)
+21: XS1(25)
+22: XS2(1)
+23: XS2(3)
+24: XS2(5)
+25: XS1(18)
+26: XS1(20)
+27: XS1(22)
+28: XS1(24)
+29: XS1(26)
+30: XS2(2)
+31: XS2(4)
+32: XS2(6)
+81: XS35(16)
+82: XS41(2)
+83: XS41(4)
+84: XS41(6)
+85: XS41(8)
+86: XS41(10)
+87: XS41(12)
+88: XS41(14)
+89: XS41(1)
+90: XS41(3)
+91: XS41(5)
+92: XS41(7)
+93: XS41(9)
+94: XS41(11)
+95: XS41(13)</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -2555,9 +4927,12 @@
       <c r="C100" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="D100" s="2" t="inlineStr">
+      <c r="D100" s="2" t="inlineStr"/>
+      <c r="E100" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 246: XS12(19)
 266: XS18(2)
 292: XS6(7)
@@ -2565,6 +4940,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -2587,18 +4963,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F100" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -3104,13 +5469,13 @@
       <c r="C131" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="D131" s="2" t="inlineStr"/>
+      <c r="E131" s="4" t="inlineStr">
         <is>
           <t>229: XS12(1)
 295: XS6(13)</t>
         </is>
       </c>
-      <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
     </row>
     <row r="132">
@@ -3125,13 +5490,13 @@
       <c r="C132" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="D132" s="3" t="inlineStr">
+      <c r="D132" s="2" t="inlineStr"/>
+      <c r="E132" s="4" t="inlineStr">
         <is>
           <t>248: XS12(23)
 418: XS10(26)</t>
         </is>
       </c>
-      <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
     </row>
     <row r="133">
@@ -3146,12 +5511,12 @@
       <c r="C133" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="D133" s="3" t="inlineStr">
+      <c r="D133" s="2" t="inlineStr"/>
+      <c r="E133" s="4" t="inlineStr">
         <is>
           <t>327: XS7(10)</t>
         </is>
       </c>
-      <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
     </row>
     <row r="134">
@@ -3166,7 +5531,8 @@
       <c r="C134" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="D134" s="2" t="inlineStr"/>
+      <c r="E134" s="4" t="inlineStr">
         <is>
           <t>20: XS1(23)
 143: XP3(14)
@@ -3179,7 +5545,6 @@
 549: XP36(10)</t>
         </is>
       </c>
-      <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
     </row>
     <row r="135">
@@ -3214,12 +5579,12 @@
       <c r="C136" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="D136" s="3" t="inlineStr">
+      <c r="D136" s="2" t="inlineStr"/>
+      <c r="E136" s="4" t="inlineStr">
         <is>
           <t>414: XS10(19)</t>
         </is>
       </c>
-      <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
@@ -3234,12 +5599,12 @@
       <c r="C137" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="D137" s="3" t="inlineStr">
+      <c r="D137" s="2" t="inlineStr"/>
+      <c r="E137" s="4" t="inlineStr">
         <is>
           <t>391: XS10(4)</t>
         </is>
       </c>
-      <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
     </row>
     <row r="138">
@@ -3274,12 +5639,12 @@
       <c r="C139" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="D139" s="3" t="inlineStr">
+      <c r="D139" s="2" t="inlineStr"/>
+      <c r="E139" s="4" t="inlineStr">
         <is>
           <t>403: XS10(12)</t>
         </is>
       </c>
-      <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
     </row>
     <row r="140">
@@ -3294,12 +5659,12 @@
       <c r="C140" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="D140" s="3" t="inlineStr">
+      <c r="D140" s="2" t="inlineStr"/>
+      <c r="E140" s="4" t="inlineStr">
         <is>
           <t>335: XS7(11)</t>
         </is>
       </c>
-      <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
@@ -3314,12 +5679,12 @@
       <c r="C141" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="D141" s="3" t="inlineStr">
+      <c r="D141" s="2" t="inlineStr"/>
+      <c r="E141" s="4" t="inlineStr">
         <is>
           <t>405: XS10(16)</t>
         </is>
       </c>
-      <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
     </row>
     <row r="142">
@@ -3334,12 +5699,12 @@
       <c r="C142" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="D142" s="3" t="inlineStr">
+      <c r="D142" s="2" t="inlineStr"/>
+      <c r="E142" s="4" t="inlineStr">
         <is>
           <t>330: XS7(1)</t>
         </is>
       </c>
-      <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
     </row>
     <row r="143">
@@ -3354,14 +5719,11 @@
       <c r="C143" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="D143" s="2" t="inlineStr">
-        <is>
-          <t>479: XS19(30)</t>
-        </is>
-      </c>
+      <c r="D143" s="2" t="inlineStr"/>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>59: XS2(28)</t>
+          <t>59: XS2(28)
+479: XS19(30)</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -3378,7 +5740,8 @@
       <c r="C144" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="D144" s="3" t="inlineStr">
+      <c r="D144" s="2" t="inlineStr"/>
+      <c r="E144" s="4" t="inlineStr">
         <is>
           <t>20: XS1(23)
 133: XP3(9)
@@ -3391,7 +5754,6 @@
 549: XP36(10)</t>
         </is>
       </c>
-      <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
     </row>
     <row r="145">
@@ -3406,7 +5768,8 @@
       <c r="C145" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="D145" s="3" t="inlineStr">
+      <c r="D145" s="2" t="inlineStr"/>
+      <c r="E145" s="4" t="inlineStr">
         <is>
           <t>20: XS1(23)
 133: XP3(9)
@@ -3419,7 +5782,6 @@
 549: XP36(10)</t>
         </is>
       </c>
-      <c r="E145" s="2" t="inlineStr"/>
       <c r="F145" s="2" t="inlineStr"/>
     </row>
     <row r="146">
@@ -3434,12 +5796,12 @@
       <c r="C146" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="D146" s="3" t="inlineStr">
+      <c r="D146" s="2" t="inlineStr"/>
+      <c r="E146" s="4" t="inlineStr">
         <is>
           <t>400: XS10(7)</t>
         </is>
       </c>
-      <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
     </row>
     <row r="147">
@@ -3454,12 +5816,12 @@
       <c r="C147" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="D147" s="3" t="inlineStr">
+      <c r="D147" s="2" t="inlineStr"/>
+      <c r="E147" s="4" t="inlineStr">
         <is>
           <t>406: XS10(18)</t>
         </is>
       </c>
-      <c r="E147" s="2" t="inlineStr"/>
       <c r="F147" s="2" t="inlineStr"/>
     </row>
     <row r="148">
@@ -3474,12 +5836,12 @@
       <c r="C148" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="D148" s="3" t="inlineStr">
+      <c r="D148" s="2" t="inlineStr"/>
+      <c r="E148" s="4" t="inlineStr">
         <is>
           <t>4: XS1(7)</t>
         </is>
       </c>
-      <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
@@ -3494,12 +5856,12 @@
       <c r="C149" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="D149" s="3" t="inlineStr">
+      <c r="D149" s="2" t="inlineStr"/>
+      <c r="E149" s="4" t="inlineStr">
         <is>
           <t>2: XS1(3)</t>
         </is>
       </c>
-      <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
     </row>
     <row r="150">
@@ -3514,12 +5876,12 @@
       <c r="C150" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="D150" s="3" t="inlineStr">
+      <c r="D150" s="2" t="inlineStr"/>
+      <c r="E150" s="4" t="inlineStr">
         <is>
           <t>3: XS1(5)</t>
         </is>
       </c>
-      <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
     </row>
     <row r="151">
@@ -3534,12 +5896,12 @@
       <c r="C151" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="D151" s="3" t="inlineStr">
+      <c r="D151" s="2" t="inlineStr"/>
+      <c r="E151" s="4" t="inlineStr">
         <is>
           <t>415: XS10(21)</t>
         </is>
       </c>
-      <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
     </row>
     <row r="152">
@@ -3554,12 +5916,12 @@
       <c r="C152" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="D152" s="3" t="inlineStr">
+      <c r="D152" s="2" t="inlineStr"/>
+      <c r="E152" s="4" t="inlineStr">
         <is>
           <t>5: XS1(9)</t>
         </is>
       </c>
-      <c r="E152" s="2" t="inlineStr"/>
       <c r="F152" s="2" t="inlineStr"/>
     </row>
     <row r="153">
@@ -3574,13 +5936,13 @@
       <c r="C153" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="D153" s="3" t="inlineStr">
+      <c r="D153" s="2" t="inlineStr"/>
+      <c r="E153" s="4" t="inlineStr">
         <is>
           <t>200: XS5(1)
 258: XS18(1)</t>
         </is>
       </c>
-      <c r="E153" s="2" t="inlineStr"/>
       <c r="F153" s="2" t="inlineStr"/>
     </row>
     <row r="154">
@@ -3595,7 +5957,8 @@
       <c r="C154" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="D154" s="3" t="inlineStr">
+      <c r="D154" s="2" t="inlineStr"/>
+      <c r="E154" s="4" t="inlineStr">
         <is>
           <t>20: XS1(23)
 133: XP3(9)
@@ -3608,7 +5971,6 @@
 549: XP36(10)</t>
         </is>
       </c>
-      <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
     </row>
     <row r="155">
@@ -3623,7 +5985,8 @@
       <c r="C155" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="D155" s="3" t="inlineStr">
+      <c r="D155" s="2" t="inlineStr"/>
+      <c r="E155" s="4" t="inlineStr">
         <is>
           <t>20: XS1(23)
 133: XP3(9)
@@ -3636,7 +5999,6 @@
 549: XP36(10)</t>
         </is>
       </c>
-      <c r="E155" s="2" t="inlineStr"/>
       <c r="F155" s="2" t="inlineStr"/>
     </row>
     <row r="156">
@@ -3651,12 +6013,12 @@
       <c r="C156" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="D156" s="3" t="inlineStr">
+      <c r="D156" s="2" t="inlineStr"/>
+      <c r="E156" s="4" t="inlineStr">
         <is>
           <t>12: XS1(8)</t>
         </is>
       </c>
-      <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
     </row>
     <row r="157">
@@ -3671,12 +6033,12 @@
       <c r="C157" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="D157" s="3" t="inlineStr">
+      <c r="D157" s="2" t="inlineStr"/>
+      <c r="E157" s="4" t="inlineStr">
         <is>
           <t>10: XS1(4)</t>
         </is>
       </c>
-      <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
     </row>
     <row r="158">
@@ -3691,12 +6053,12 @@
       <c r="C158" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="D158" s="3" t="inlineStr">
+      <c r="D158" s="2" t="inlineStr"/>
+      <c r="E158" s="4" t="inlineStr">
         <is>
           <t>11: XS1(6)</t>
         </is>
       </c>
-      <c r="E158" s="2" t="inlineStr"/>
       <c r="F158" s="2" t="inlineStr"/>
     </row>
     <row r="159">
@@ -3711,12 +6073,12 @@
       <c r="C159" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="D159" s="3" t="inlineStr">
+      <c r="D159" s="2" t="inlineStr"/>
+      <c r="E159" s="4" t="inlineStr">
         <is>
           <t>13: XS1(10)</t>
         </is>
       </c>
-      <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
     </row>
     <row r="160">
@@ -3731,9 +6093,11 @@
       <c r="C160" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="D160" s="2" t="inlineStr">
+      <c r="D160" s="2" t="inlineStr"/>
+      <c r="E160" s="4" t="inlineStr">
         <is>
           <t>18: XS1(19)
+182: XS4(20)
 254: XS12(20)
 493: XS14(1)
 507: XS22(1)
@@ -3741,11 +6105,6 @@
 546: XP36(4)</t>
         </is>
       </c>
-      <c r="E160" s="4" t="inlineStr">
-        <is>
-          <t>182: XS4(20)</t>
-        </is>
-      </c>
       <c r="F160" s="2" t="inlineStr"/>
     </row>
     <row r="161">
@@ -3780,14 +6139,14 @@
       <c r="C162" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="D162" s="3" t="inlineStr">
+      <c r="D162" s="2" t="inlineStr"/>
+      <c r="E162" s="4" t="inlineStr">
         <is>
           <t>426: XS10(27)
 527: XS27(3)
 538: XS25(5)</t>
         </is>
       </c>
-      <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
     </row>
     <row r="163">
@@ -4551,13 +6910,13 @@
       <c r="C201" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="D201" s="3" t="inlineStr">
+      <c r="D201" s="2" t="inlineStr"/>
+      <c r="E201" s="4" t="inlineStr">
         <is>
           <t>152: XP3(31)
 258: XS18(1)</t>
         </is>
       </c>
-      <c r="E201" s="2" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr"/>
     </row>
     <row r="202">
@@ -4712,12 +7071,12 @@
       <c r="C209" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="D209" s="3" t="inlineStr">
+      <c r="D209" s="2" t="inlineStr"/>
+      <c r="E209" s="4" t="inlineStr">
         <is>
           <t>353: XS7(30)</t>
         </is>
       </c>
-      <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
     </row>
     <row r="210">
@@ -4732,14 +7091,11 @@
       <c r="C210" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>19: XS1(21)</t>
-        </is>
-      </c>
+      <c r="D210" s="2" t="inlineStr"/>
       <c r="E210" s="4" t="inlineStr">
         <is>
-          <t>50: XS2(25)</t>
+          <t>19: XS1(21)
+50: XS2(25)</t>
         </is>
       </c>
       <c r="F210" s="2" t="inlineStr"/>
@@ -4776,12 +7132,12 @@
       <c r="C212" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="D212" s="3" t="inlineStr">
+      <c r="D212" s="2" t="inlineStr"/>
+      <c r="E212" s="4" t="inlineStr">
         <is>
           <t>77: XS35(9)</t>
         </is>
       </c>
-      <c r="E212" s="2" t="inlineStr"/>
       <c r="F212" s="2" t="inlineStr"/>
     </row>
     <row r="213">
@@ -4796,12 +7152,12 @@
       <c r="C213" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="D213" s="3" t="inlineStr">
+      <c r="D213" s="2" t="inlineStr"/>
+      <c r="E213" s="4" t="inlineStr">
         <is>
           <t>66: XS35(2)</t>
         </is>
       </c>
-      <c r="E213" s="2" t="inlineStr"/>
       <c r="F213" s="2" t="inlineStr"/>
     </row>
     <row r="214">
@@ -4816,12 +7172,12 @@
       <c r="C214" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="D214" s="3" t="inlineStr">
+      <c r="D214" s="2" t="inlineStr"/>
+      <c r="E214" s="4" t="inlineStr">
         <is>
           <t>74: XS35(3)</t>
         </is>
       </c>
-      <c r="E214" s="2" t="inlineStr"/>
       <c r="F214" s="2" t="inlineStr"/>
     </row>
     <row r="215">
@@ -4836,12 +7192,12 @@
       <c r="C215" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="D215" s="3" t="inlineStr">
+      <c r="D215" s="2" t="inlineStr"/>
+      <c r="E215" s="4" t="inlineStr">
         <is>
           <t>356: XS8(1)</t>
         </is>
       </c>
-      <c r="E215" s="2" t="inlineStr"/>
       <c r="F215" s="2" t="inlineStr"/>
     </row>
     <row r="216">
@@ -4856,12 +7212,12 @@
       <c r="C216" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="D216" s="3" t="inlineStr">
+      <c r="D216" s="2" t="inlineStr"/>
+      <c r="E216" s="4" t="inlineStr">
         <is>
           <t>67: XS35(4)</t>
         </is>
       </c>
-      <c r="E216" s="2" t="inlineStr"/>
       <c r="F216" s="2" t="inlineStr"/>
     </row>
     <row r="217">
@@ -4876,14 +7232,11 @@
       <c r="C217" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>6: XS1(11)</t>
-        </is>
-      </c>
+      <c r="D217" s="2" t="inlineStr"/>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>49: XS2(23)</t>
+          <t>6: XS1(11)
+49: XS2(23)</t>
         </is>
       </c>
       <c r="F217" s="2" t="inlineStr"/>
@@ -4940,12 +7293,12 @@
       <c r="C220" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="D220" s="3" t="inlineStr">
+      <c r="D220" s="2" t="inlineStr"/>
+      <c r="E220" s="4" t="inlineStr">
         <is>
           <t>73: XS35(1)</t>
         </is>
       </c>
-      <c r="E220" s="2" t="inlineStr"/>
       <c r="F220" s="2" t="inlineStr"/>
     </row>
     <row r="221">
@@ -4960,12 +7313,12 @@
       <c r="C221" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="D221" s="3" t="inlineStr">
+      <c r="D221" s="2" t="inlineStr"/>
+      <c r="E221" s="4" t="inlineStr">
         <is>
           <t>70: XS35(10)</t>
         </is>
       </c>
-      <c r="E221" s="2" t="inlineStr"/>
       <c r="F221" s="2" t="inlineStr"/>
     </row>
     <row r="222">
@@ -4980,12 +7333,12 @@
       <c r="C222" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="D222" s="3" t="inlineStr">
+      <c r="D222" s="2" t="inlineStr"/>
+      <c r="E222" s="4" t="inlineStr">
         <is>
           <t>78: XS35(11)</t>
         </is>
       </c>
-      <c r="E222" s="2" t="inlineStr"/>
       <c r="F222" s="2" t="inlineStr"/>
     </row>
     <row r="223">
@@ -5000,12 +7353,12 @@
       <c r="C223" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="D223" s="3" t="inlineStr">
+      <c r="D223" s="2" t="inlineStr"/>
+      <c r="E223" s="4" t="inlineStr">
         <is>
           <t>364: XS8(2)</t>
         </is>
       </c>
-      <c r="E223" s="2" t="inlineStr"/>
       <c r="F223" s="2" t="inlineStr"/>
     </row>
     <row r="224">
@@ -5040,7 +7393,8 @@
       <c r="C225" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="D225" s="3" t="inlineStr">
+      <c r="D225" s="2" t="inlineStr"/>
+      <c r="E225" s="4" t="inlineStr">
         <is>
           <t>308: XS6(23)
 322: XS6(35)
@@ -5050,7 +7404,6 @@
 383: XS8(24)</t>
         </is>
       </c>
-      <c r="E225" s="2" t="inlineStr"/>
       <c r="F225" s="2" t="inlineStr"/>
     </row>
     <row r="226">
@@ -5065,12 +7418,12 @@
       <c r="C226" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="D226" s="3" t="inlineStr">
+      <c r="D226" s="2" t="inlineStr"/>
+      <c r="E226" s="4" t="inlineStr">
         <is>
           <t>237: XS12(2)</t>
         </is>
       </c>
-      <c r="E226" s="2" t="inlineStr"/>
       <c r="F226" s="2" t="inlineStr"/>
     </row>
     <row r="227">
@@ -5085,12 +7438,12 @@
       <c r="C227" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="D227" s="3" t="inlineStr">
+      <c r="D227" s="2" t="inlineStr"/>
+      <c r="E227" s="4" t="inlineStr">
         <is>
           <t>25: XS1(18)</t>
         </is>
       </c>
-      <c r="E227" s="2" t="inlineStr"/>
       <c r="F227" s="2" t="inlineStr"/>
     </row>
     <row r="228">
@@ -5105,13 +7458,13 @@
       <c r="C228" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="D228" s="3" t="inlineStr">
+      <c r="D228" s="2" t="inlineStr"/>
+      <c r="E228" s="4" t="inlineStr">
         <is>
           <t>252: XS12(16)
 552: XP36(16)</t>
         </is>
       </c>
-      <c r="E228" s="2" t="inlineStr"/>
       <c r="F228" s="2" t="inlineStr"/>
     </row>
     <row r="229">
@@ -5146,13 +7499,13 @@
       <c r="C230" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="D230" s="3" t="inlineStr">
+      <c r="D230" s="2" t="inlineStr"/>
+      <c r="E230" s="4" t="inlineStr">
         <is>
           <t>130: XP3(3)
 295: XS6(13)</t>
         </is>
       </c>
-      <c r="E230" s="2" t="inlineStr"/>
       <c r="F230" s="2" t="inlineStr"/>
     </row>
     <row r="231">
@@ -5167,12 +7520,12 @@
       <c r="C231" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="D231" s="3" t="inlineStr">
+      <c r="D231" s="2" t="inlineStr"/>
+      <c r="E231" s="4" t="inlineStr">
         <is>
           <t>385: XS8(27)</t>
         </is>
       </c>
-      <c r="E231" s="2" t="inlineStr"/>
       <c r="F231" s="2" t="inlineStr"/>
     </row>
     <row r="232">
@@ -5187,12 +7540,12 @@
       <c r="C232" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="D232" s="3" t="inlineStr">
+      <c r="D232" s="2" t="inlineStr"/>
+      <c r="E232" s="4" t="inlineStr">
         <is>
           <t>388: XS8(33)</t>
         </is>
       </c>
-      <c r="E232" s="2" t="inlineStr"/>
       <c r="F232" s="2" t="inlineStr"/>
     </row>
     <row r="233">
@@ -5207,12 +7560,12 @@
       <c r="C233" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="D233" s="3" t="inlineStr">
+      <c r="D233" s="2" t="inlineStr"/>
+      <c r="E233" s="4" t="inlineStr">
         <is>
           <t>387: XS8(31)</t>
         </is>
       </c>
-      <c r="E233" s="2" t="inlineStr"/>
       <c r="F233" s="2" t="inlineStr"/>
     </row>
     <row r="234">
@@ -5227,14 +7580,11 @@
       <c r="C234" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="D234" s="2" t="inlineStr">
-        <is>
-          <t>472: XS19(31)</t>
-        </is>
-      </c>
+      <c r="D234" s="2" t="inlineStr"/>
       <c r="E234" s="4" t="inlineStr">
         <is>
-          <t>54: XS2(33)</t>
+          <t>54: XS2(33)
+472: XS19(31)</t>
         </is>
       </c>
       <c r="F234" s="2" t="inlineStr"/>
@@ -5251,14 +7601,14 @@
       <c r="C235" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="D235" s="3" t="inlineStr">
+      <c r="D235" s="2" t="inlineStr"/>
+      <c r="E235" s="4" t="inlineStr">
         <is>
           <t>17: XS1(17)
 522: XS29(3)
 557: XP36(11)</t>
         </is>
       </c>
-      <c r="E235" s="2" t="inlineStr"/>
       <c r="F235" s="2" t="inlineStr"/>
     </row>
     <row r="236">
@@ -5313,12 +7663,12 @@
       <c r="C238" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="D238" s="3" t="inlineStr">
+      <c r="D238" s="2" t="inlineStr"/>
+      <c r="E238" s="4" t="inlineStr">
         <is>
           <t>225: XS5(19)</t>
         </is>
       </c>
-      <c r="E238" s="2" t="inlineStr"/>
       <c r="F238" s="2" t="inlineStr"/>
     </row>
     <row r="239">
@@ -5333,12 +7683,12 @@
       <c r="C239" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="D239" s="3" t="inlineStr">
+      <c r="D239" s="2" t="inlineStr"/>
+      <c r="E239" s="4" t="inlineStr">
         <is>
           <t>393: XS8(28)</t>
         </is>
       </c>
-      <c r="E239" s="2" t="inlineStr"/>
       <c r="F239" s="2" t="inlineStr"/>
     </row>
     <row r="240">
@@ -5353,12 +7703,12 @@
       <c r="C240" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="D240" s="3" t="inlineStr">
+      <c r="D240" s="2" t="inlineStr"/>
+      <c r="E240" s="4" t="inlineStr">
         <is>
           <t>396: XS8(34)</t>
         </is>
       </c>
-      <c r="E240" s="2" t="inlineStr"/>
       <c r="F240" s="2" t="inlineStr"/>
     </row>
     <row r="241">
@@ -5373,12 +7723,12 @@
       <c r="C241" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="D241" s="3" t="inlineStr">
+      <c r="D241" s="2" t="inlineStr"/>
+      <c r="E241" s="4" t="inlineStr">
         <is>
           <t>359: XS8(7)</t>
         </is>
       </c>
-      <c r="E241" s="2" t="inlineStr"/>
       <c r="F241" s="2" t="inlineStr"/>
     </row>
     <row r="242">
@@ -5393,12 +7743,12 @@
       <c r="C242" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="D242" s="3" t="inlineStr">
+      <c r="D242" s="2" t="inlineStr"/>
+      <c r="E242" s="4" t="inlineStr">
         <is>
           <t>357: XS8(3)</t>
         </is>
       </c>
-      <c r="E242" s="2" t="inlineStr"/>
       <c r="F242" s="2" t="inlineStr"/>
     </row>
     <row r="243">
@@ -5413,12 +7763,12 @@
       <c r="C243" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="D243" s="3" t="inlineStr">
+      <c r="D243" s="2" t="inlineStr"/>
+      <c r="E243" s="4" t="inlineStr">
         <is>
           <t>360: XS8(9)</t>
         </is>
       </c>
-      <c r="E243" s="2" t="inlineStr"/>
       <c r="F243" s="2" t="inlineStr"/>
     </row>
     <row r="244">
@@ -5433,12 +7783,12 @@
       <c r="C244" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="D244" s="3" t="inlineStr">
+      <c r="D244" s="2" t="inlineStr"/>
+      <c r="E244" s="4" t="inlineStr">
         <is>
           <t>349: XS7(23)</t>
         </is>
       </c>
-      <c r="E244" s="2" t="inlineStr"/>
       <c r="F244" s="2" t="inlineStr"/>
     </row>
     <row r="245">
@@ -5473,14 +7823,11 @@
       <c r="C246" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="D246" s="2" t="inlineStr">
-        <is>
-          <t>470: XS19(27)</t>
-        </is>
-      </c>
+      <c r="D246" s="2" t="inlineStr"/>
       <c r="E246" s="4" t="inlineStr">
         <is>
-          <t>184: XS4(24)</t>
+          <t>184: XS4(24)
+470: XS19(27)</t>
         </is>
       </c>
       <c r="F246" s="2" t="inlineStr"/>
@@ -5497,9 +7844,12 @@
       <c r="C247" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="D247" s="2" t="inlineStr">
+      <c r="D247" s="2" t="inlineStr"/>
+      <c r="E247" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 266: XS18(2)
 292: XS6(7)
@@ -5507,6 +7857,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -5529,18 +7880,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E247" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F247" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F247" s="2" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -5554,12 +7894,12 @@
       <c r="C248" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="D248" s="3" t="inlineStr">
+      <c r="D248" s="2" t="inlineStr"/>
+      <c r="E248" s="4" t="inlineStr">
         <is>
           <t>410: XS10(11)</t>
         </is>
       </c>
-      <c r="E248" s="2" t="inlineStr"/>
       <c r="F248" s="2" t="inlineStr"/>
     </row>
     <row r="249">
@@ -5574,13 +7914,13 @@
       <c r="C249" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="D249" s="3" t="inlineStr">
+      <c r="D249" s="2" t="inlineStr"/>
+      <c r="E249" s="4" t="inlineStr">
         <is>
           <t>131: XP3(5)
 418: XS10(26)</t>
         </is>
       </c>
-      <c r="E249" s="2" t="inlineStr"/>
       <c r="F249" s="2" t="inlineStr"/>
     </row>
     <row r="250">
@@ -5595,12 +7935,12 @@
       <c r="C250" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="D250" s="3" t="inlineStr">
+      <c r="D250" s="2" t="inlineStr"/>
+      <c r="E250" s="4" t="inlineStr">
         <is>
           <t>369: XS8(11)</t>
         </is>
       </c>
-      <c r="E250" s="2" t="inlineStr"/>
       <c r="F250" s="2" t="inlineStr"/>
     </row>
     <row r="251">
@@ -5635,14 +7975,11 @@
       <c r="C252" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="D252" s="2" t="inlineStr">
-        <is>
-          <t>328: XS7(12)</t>
-        </is>
-      </c>
+      <c r="D252" s="2" t="inlineStr"/>
       <c r="E252" s="4" t="inlineStr">
         <is>
-          <t>193: XS4(26)</t>
+          <t>193: XS4(26)
+328: XS7(12)</t>
         </is>
       </c>
       <c r="F252" s="2" t="inlineStr"/>
@@ -5659,13 +7996,13 @@
       <c r="C253" s="2" t="n">
         <v>252</v>
       </c>
-      <c r="D253" s="3" t="inlineStr">
+      <c r="D253" s="2" t="inlineStr"/>
+      <c r="E253" s="4" t="inlineStr">
         <is>
           <t>227: XS5(23)
 552: XP36(16)</t>
         </is>
       </c>
-      <c r="E253" s="2" t="inlineStr"/>
       <c r="F253" s="2" t="inlineStr"/>
     </row>
     <row r="254">
@@ -5680,14 +8017,11 @@
       <c r="C254" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="D254" s="2" t="inlineStr">
-        <is>
-          <t>478: XS19(28)</t>
-        </is>
-      </c>
+      <c r="D254" s="2" t="inlineStr"/>
       <c r="E254" s="4" t="inlineStr">
         <is>
-          <t>192: XS4(25)</t>
+          <t>192: XS4(25)
+478: XS19(28)</t>
         </is>
       </c>
       <c r="F254" s="2" t="inlineStr"/>
@@ -5704,21 +8038,18 @@
       <c r="C255" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="D255" s="2" t="inlineStr">
+      <c r="D255" s="2" t="inlineStr"/>
+      <c r="E255" s="4" t="inlineStr">
         <is>
           <t>18: XS1(19)
 159: XP3(30)
+182: XS4(20)
 493: XS14(1)
 507: XS22(1)
 516: XP28(1)
 546: XP36(4)</t>
         </is>
       </c>
-      <c r="E255" s="4" t="inlineStr">
-        <is>
-          <t>182: XS4(20)</t>
-        </is>
-      </c>
       <c r="F255" s="2" t="inlineStr"/>
     </row>
     <row r="256">
@@ -5733,12 +8064,12 @@
       <c r="C256" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="D256" s="3" t="inlineStr">
+      <c r="D256" s="2" t="inlineStr"/>
+      <c r="E256" s="4" t="inlineStr">
         <is>
           <t>416: XS10(23)</t>
         </is>
       </c>
-      <c r="E256" s="2" t="inlineStr"/>
       <c r="F256" s="2" t="inlineStr"/>
     </row>
     <row r="257">
@@ -5753,12 +8084,12 @@
       <c r="C257" s="2" t="n">
         <v>256</v>
       </c>
-      <c r="D257" s="3" t="inlineStr">
+      <c r="D257" s="2" t="inlineStr"/>
+      <c r="E257" s="4" t="inlineStr">
         <is>
           <t>408: XS10(22)</t>
         </is>
       </c>
-      <c r="E257" s="2" t="inlineStr"/>
       <c r="F257" s="2" t="inlineStr"/>
     </row>
     <row r="258">
@@ -5773,12 +8104,12 @@
       <c r="C258" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="D258" s="3" t="inlineStr">
+      <c r="D258" s="2" t="inlineStr"/>
+      <c r="E258" s="4" t="inlineStr">
         <is>
           <t>341: XS7(22)</t>
         </is>
       </c>
-      <c r="E258" s="2" t="inlineStr"/>
       <c r="F258" s="2" t="inlineStr"/>
     </row>
     <row r="259">
@@ -5793,13 +8124,13 @@
       <c r="C259" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="D259" s="3" t="inlineStr">
+      <c r="D259" s="2" t="inlineStr"/>
+      <c r="E259" s="4" t="inlineStr">
         <is>
           <t>152: XP3(31)
 200: XS5(1)</t>
         </is>
       </c>
-      <c r="E259" s="2" t="inlineStr"/>
       <c r="F259" s="2" t="inlineStr"/>
     </row>
     <row r="260">
@@ -5814,13 +8145,13 @@
       <c r="C260" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="D260" s="3" t="inlineStr">
+      <c r="D260" s="2" t="inlineStr"/>
+      <c r="E260" s="4" t="inlineStr">
         <is>
           <t>79: XS35(13)
 430: XS10(35)</t>
         </is>
       </c>
-      <c r="E260" s="2" t="inlineStr"/>
       <c r="F260" s="2" t="inlineStr"/>
     </row>
     <row r="261">
@@ -5915,12 +8246,12 @@
       <c r="C266" s="2" t="n">
         <v>265</v>
       </c>
-      <c r="D266" s="3" t="inlineStr">
+      <c r="D266" s="2" t="inlineStr"/>
+      <c r="E266" s="4" t="inlineStr">
         <is>
           <t>363: XS7(35)</t>
         </is>
       </c>
-      <c r="E266" s="2" t="inlineStr"/>
       <c r="F266" s="2" t="inlineStr"/>
     </row>
     <row r="267">
@@ -5935,9 +8266,12 @@
       <c r="C267" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="D267" s="2" t="inlineStr">
+      <c r="D267" s="2" t="inlineStr"/>
+      <c r="E267" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 292: XS6(7)
@@ -5945,6 +8279,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -5967,18 +8302,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E267" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F267" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F267" s="2" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -5992,13 +8316,13 @@
       <c r="C268" s="2" t="n">
         <v>267</v>
       </c>
-      <c r="D268" s="3" t="inlineStr">
+      <c r="D268" s="2" t="inlineStr"/>
+      <c r="E268" s="4" t="inlineStr">
         <is>
           <t>72: XS35(14)
 422: XS10(34)</t>
         </is>
       </c>
-      <c r="E268" s="2" t="inlineStr"/>
       <c r="F268" s="2" t="inlineStr"/>
     </row>
     <row r="269">
@@ -6349,12 +8673,12 @@
       <c r="C290" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="D290" s="3" t="inlineStr">
+      <c r="D290" s="2" t="inlineStr"/>
+      <c r="E290" s="4" t="inlineStr">
         <is>
           <t>488: XP17(1)</t>
         </is>
       </c>
-      <c r="E290" s="2" t="inlineStr"/>
       <c r="F290" s="2" t="inlineStr"/>
     </row>
     <row r="291">
@@ -6369,12 +8693,12 @@
       <c r="C291" s="2" t="n">
         <v>290</v>
       </c>
-      <c r="D291" s="3" t="inlineStr">
+      <c r="D291" s="2" t="inlineStr"/>
+      <c r="E291" s="4" t="inlineStr">
         <is>
           <t>496: XP17(2)</t>
         </is>
       </c>
-      <c r="E291" s="2" t="inlineStr"/>
       <c r="F291" s="2" t="inlineStr"/>
     </row>
     <row r="292">
@@ -6389,12 +8713,12 @@
       <c r="C292" s="2" t="n">
         <v>291</v>
       </c>
-      <c r="D292" s="3" t="inlineStr">
+      <c r="D292" s="2" t="inlineStr"/>
+      <c r="E292" s="4" t="inlineStr">
         <is>
           <t>28: XS1(24)</t>
         </is>
       </c>
-      <c r="E292" s="2" t="inlineStr"/>
       <c r="F292" s="2" t="inlineStr"/>
     </row>
     <row r="293">
@@ -6409,9 +8733,12 @@
       <c r="C293" s="2" t="n">
         <v>292</v>
       </c>
-      <c r="D293" s="2" t="inlineStr">
+      <c r="D293" s="2" t="inlineStr"/>
+      <c r="E293" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -6419,6 +8746,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -6441,18 +8769,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E293" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F293" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F293" s="2" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -6506,13 +8823,13 @@
       <c r="C296" s="2" t="n">
         <v>295</v>
       </c>
-      <c r="D296" s="3" t="inlineStr">
+      <c r="D296" s="2" t="inlineStr"/>
+      <c r="E296" s="4" t="inlineStr">
         <is>
           <t>130: XP3(3)
 229: XS12(1)</t>
         </is>
       </c>
-      <c r="E296" s="2" t="inlineStr"/>
       <c r="F296" s="2" t="inlineStr"/>
     </row>
     <row r="297">
@@ -6591,9 +8908,12 @@
       <c r="C301" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="D301" s="2" t="inlineStr">
+      <c r="D301" s="2" t="inlineStr"/>
+      <c r="E301" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -6601,6 +8921,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -6623,18 +8944,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E301" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F301" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F301" s="2" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -6732,9 +9042,12 @@
       <c r="C307" s="2" t="n">
         <v>306</v>
       </c>
-      <c r="D307" s="2" t="inlineStr">
+      <c r="D307" s="2" t="inlineStr"/>
+      <c r="E307" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -6742,6 +9055,7 @@
 300: XS6(8)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -6764,18 +9078,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E307" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F307" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F307" s="2" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -6805,7 +9108,8 @@
       <c r="C309" s="2" t="n">
         <v>308</v>
       </c>
-      <c r="D309" s="3" t="inlineStr">
+      <c r="D309" s="2" t="inlineStr"/>
+      <c r="E309" s="4" t="inlineStr">
         <is>
           <t>224: XS5(18)
 322: XS6(35)
@@ -6815,7 +9119,6 @@
 383: XS8(24)</t>
         </is>
       </c>
-      <c r="E309" s="2" t="inlineStr"/>
       <c r="F309" s="2" t="inlineStr"/>
     </row>
     <row r="310">
@@ -6906,9 +9209,12 @@
       <c r="C314" s="2" t="n">
         <v>313</v>
       </c>
-      <c r="D314" s="2" t="inlineStr">
+      <c r="D314" s="2" t="inlineStr"/>
+      <c r="E314" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -6916,6 +9222,7 @@
 300: XS6(8)
 306: XS6(19)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -6938,18 +9245,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E314" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F314" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F314" s="2" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -7051,9 +9347,12 @@
       <c r="C320" s="2" t="n">
         <v>319</v>
       </c>
-      <c r="D320" s="2" t="inlineStr">
+      <c r="D320" s="2" t="inlineStr"/>
+      <c r="E320" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -7061,6 +9360,7 @@
 300: XS6(8)
 306: XS6(19)
 313: XS6(18)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -7083,18 +9383,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E320" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F320" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F320" s="2" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -7144,7 +9433,8 @@
       <c r="C323" s="2" t="n">
         <v>322</v>
       </c>
-      <c r="D323" s="3" t="inlineStr">
+      <c r="D323" s="2" t="inlineStr"/>
+      <c r="E323" s="4" t="inlineStr">
         <is>
           <t>224: XS5(18)
 308: XS6(23)
@@ -7154,7 +9444,6 @@
 383: XS8(24)</t>
         </is>
       </c>
-      <c r="E323" s="2" t="inlineStr"/>
       <c r="F323" s="2" t="inlineStr"/>
     </row>
     <row r="324">
@@ -7185,12 +9474,12 @@
       <c r="C325" s="2" t="n">
         <v>324</v>
       </c>
-      <c r="D325" s="3" t="inlineStr">
+      <c r="D325" s="2" t="inlineStr"/>
+      <c r="E325" s="4" t="inlineStr">
         <is>
           <t>511: XP23(1)</t>
         </is>
       </c>
-      <c r="E325" s="2" t="inlineStr"/>
       <c r="F325" s="2" t="inlineStr"/>
     </row>
     <row r="326">
@@ -7205,12 +9494,12 @@
       <c r="C326" s="2" t="n">
         <v>325</v>
       </c>
-      <c r="D326" s="3" t="inlineStr">
+      <c r="D326" s="2" t="inlineStr"/>
+      <c r="E326" s="4" t="inlineStr">
         <is>
           <t>509: XP24(2)</t>
         </is>
       </c>
-      <c r="E326" s="2" t="inlineStr"/>
       <c r="F326" s="2" t="inlineStr"/>
     </row>
     <row r="327">
@@ -7225,12 +9514,12 @@
       <c r="C327" s="2" t="n">
         <v>326</v>
       </c>
-      <c r="D327" s="3" t="inlineStr">
+      <c r="D327" s="2" t="inlineStr"/>
+      <c r="E327" s="4" t="inlineStr">
         <is>
           <t>512: XP23(3)</t>
         </is>
       </c>
-      <c r="E327" s="2" t="inlineStr"/>
       <c r="F327" s="2" t="inlineStr"/>
     </row>
     <row r="328">
@@ -7245,12 +9534,12 @@
       <c r="C328" s="2" t="n">
         <v>327</v>
       </c>
-      <c r="D328" s="3" t="inlineStr">
+      <c r="D328" s="2" t="inlineStr"/>
+      <c r="E328" s="4" t="inlineStr">
         <is>
           <t>132: XP3(7)</t>
         </is>
       </c>
-      <c r="E328" s="2" t="inlineStr"/>
       <c r="F328" s="2" t="inlineStr"/>
     </row>
     <row r="329">
@@ -7265,14 +9554,11 @@
       <c r="C329" s="2" t="n">
         <v>328</v>
       </c>
-      <c r="D329" s="2" t="inlineStr">
-        <is>
-          <t>251: XS12(14)</t>
-        </is>
-      </c>
+      <c r="D329" s="2" t="inlineStr"/>
       <c r="E329" s="4" t="inlineStr">
         <is>
-          <t>193: XS4(26)</t>
+          <t>193: XS4(26)
+251: XS12(14)</t>
         </is>
       </c>
       <c r="F329" s="2" t="inlineStr"/>
@@ -7289,7 +9575,8 @@
       <c r="C330" s="2" t="n">
         <v>329</v>
       </c>
-      <c r="D330" s="3" t="inlineStr">
+      <c r="D330" s="2" t="inlineStr"/>
+      <c r="E330" s="4" t="inlineStr">
         <is>
           <t>224: XS5(18)
 308: XS6(23)
@@ -7299,7 +9586,6 @@
 383: XS8(24)</t>
         </is>
       </c>
-      <c r="E330" s="2" t="inlineStr"/>
       <c r="F330" s="2" t="inlineStr"/>
     </row>
     <row r="331">
@@ -7314,12 +9600,12 @@
       <c r="C331" s="2" t="n">
         <v>330</v>
       </c>
-      <c r="D331" s="3" t="inlineStr">
+      <c r="D331" s="2" t="inlineStr"/>
+      <c r="E331" s="4" t="inlineStr">
         <is>
           <t>141: XP3(10)</t>
         </is>
       </c>
-      <c r="E331" s="2" t="inlineStr"/>
       <c r="F331" s="2" t="inlineStr"/>
     </row>
     <row r="332">
@@ -7350,12 +9636,12 @@
       <c r="C333" s="2" t="n">
         <v>332</v>
       </c>
-      <c r="D333" s="3" t="inlineStr">
+      <c r="D333" s="2" t="inlineStr"/>
+      <c r="E333" s="4" t="inlineStr">
         <is>
           <t>504: XP23(2)</t>
         </is>
       </c>
-      <c r="E333" s="2" t="inlineStr"/>
       <c r="F333" s="2" t="inlineStr"/>
     </row>
     <row r="334">
@@ -7370,12 +9656,12 @@
       <c r="C334" s="2" t="n">
         <v>333</v>
       </c>
-      <c r="D334" s="3" t="inlineStr">
+      <c r="D334" s="2" t="inlineStr"/>
+      <c r="E334" s="4" t="inlineStr">
         <is>
           <t>501: XP24(1)</t>
         </is>
       </c>
-      <c r="E334" s="2" t="inlineStr"/>
       <c r="F334" s="2" t="inlineStr"/>
     </row>
     <row r="335">
@@ -7390,12 +9676,12 @@
       <c r="C335" s="2" t="n">
         <v>334</v>
       </c>
-      <c r="D335" s="3" t="inlineStr">
+      <c r="D335" s="2" t="inlineStr"/>
+      <c r="E335" s="4" t="inlineStr">
         <is>
           <t>513: XP23(4)</t>
         </is>
       </c>
-      <c r="E335" s="2" t="inlineStr"/>
       <c r="F335" s="2" t="inlineStr"/>
     </row>
     <row r="336">
@@ -7410,12 +9696,12 @@
       <c r="C336" s="2" t="n">
         <v>335</v>
       </c>
-      <c r="D336" s="3" t="inlineStr">
+      <c r="D336" s="2" t="inlineStr"/>
+      <c r="E336" s="4" t="inlineStr">
         <is>
           <t>139: XP3(6)</t>
         </is>
       </c>
-      <c r="E336" s="2" t="inlineStr"/>
       <c r="F336" s="2" t="inlineStr"/>
     </row>
     <row r="337">
@@ -7430,12 +9716,12 @@
       <c r="C337" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="D337" s="3" t="inlineStr">
+      <c r="D337" s="2" t="inlineStr"/>
+      <c r="E337" s="4" t="inlineStr">
         <is>
           <t>550: XP36(12)</t>
         </is>
       </c>
-      <c r="E337" s="2" t="inlineStr"/>
       <c r="F337" s="2" t="inlineStr"/>
     </row>
     <row r="338">
@@ -7450,12 +9736,12 @@
       <c r="C338" s="2" t="n">
         <v>337</v>
       </c>
-      <c r="D338" s="3" t="inlineStr">
+      <c r="D338" s="2" t="inlineStr"/>
+      <c r="E338" s="4" t="inlineStr">
         <is>
           <t>543: XT33(1)</t>
         </is>
       </c>
-      <c r="E338" s="2" t="inlineStr"/>
       <c r="F338" s="2" t="inlineStr"/>
     </row>
     <row r="339">
@@ -7470,12 +9756,12 @@
       <c r="C339" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="D339" s="3" t="inlineStr">
+      <c r="D339" s="2" t="inlineStr"/>
+      <c r="E339" s="4" t="inlineStr">
         <is>
           <t>467: XS19(21)</t>
         </is>
       </c>
-      <c r="E339" s="2" t="inlineStr"/>
       <c r="F339" s="2" t="inlineStr"/>
     </row>
     <row r="340">
@@ -7490,12 +9776,12 @@
       <c r="C340" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="D340" s="3" t="inlineStr">
+      <c r="D340" s="2" t="inlineStr"/>
+      <c r="E340" s="4" t="inlineStr">
         <is>
           <t>533: XS37(1)</t>
         </is>
       </c>
-      <c r="E340" s="2" t="inlineStr"/>
       <c r="F340" s="2" t="inlineStr"/>
     </row>
     <row r="341">
@@ -7510,12 +9796,12 @@
       <c r="C341" s="2" t="n">
         <v>340</v>
       </c>
-      <c r="D341" s="3" t="inlineStr">
+      <c r="D341" s="2" t="inlineStr"/>
+      <c r="E341" s="4" t="inlineStr">
         <is>
           <t>556: XP36(9)</t>
         </is>
       </c>
-      <c r="E341" s="2" t="inlineStr"/>
       <c r="F341" s="2" t="inlineStr"/>
     </row>
     <row r="342">
@@ -7530,12 +9816,12 @@
       <c r="C342" s="2" t="n">
         <v>341</v>
       </c>
-      <c r="D342" s="3" t="inlineStr">
+      <c r="D342" s="2" t="inlineStr"/>
+      <c r="E342" s="4" t="inlineStr">
         <is>
           <t>257: XS12(25)</t>
         </is>
       </c>
-      <c r="E342" s="2" t="inlineStr"/>
       <c r="F342" s="2" t="inlineStr"/>
     </row>
     <row r="343">
@@ -7552,39 +9838,7 @@
       </c>
       <c r="D343" s="2" t="inlineStr"/>
       <c r="E343" s="2" t="inlineStr"/>
-      <c r="F343" s="5" t="inlineStr">
-        <is>
-          <t>21: XS1(25)
-99: XS38(4)
-246: XS12(19)
-266: XS18(2)
-292: XS6(7)
-300: XS6(8)
-306: XS6(19)
-313: XS6(18)
-319: XS6(30)
-350: XS7(25)
-366: XS8(6)
-372: XS8(17)
-380: XS8(18)
-386: XS8(29)
-419: XS10(28)
-427: XS10(29)
-456: XS19(15)
-494: XS14(3)
-497: XP17(3)
-502: XP24(3)
-503: XP43(2)
-508: XS22(3)
-517: XP28(3)
-523: XS29(5)
-532: YA32(1)
-536: XT39(1)
-541: XS37(2)
-542: XP44(2)
-548: XP36(8)</t>
-        </is>
-      </c>
+      <c r="F343" s="2" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -7684,12 +9938,12 @@
       <c r="C347" s="2" t="n">
         <v>346</v>
       </c>
-      <c r="D347" s="3" t="inlineStr">
+      <c r="D347" s="2" t="inlineStr"/>
+      <c r="E347" s="4" t="inlineStr">
         <is>
           <t>535: XS11(1)</t>
         </is>
       </c>
-      <c r="E347" s="2" t="inlineStr"/>
       <c r="F347" s="2" t="inlineStr"/>
     </row>
     <row r="348">
@@ -7704,12 +9958,12 @@
       <c r="C348" s="2" t="n">
         <v>347</v>
       </c>
-      <c r="D348" s="3" t="inlineStr">
+      <c r="D348" s="2" t="inlineStr"/>
+      <c r="E348" s="4" t="inlineStr">
         <is>
           <t>553: XP36(3)</t>
         </is>
       </c>
-      <c r="E348" s="2" t="inlineStr"/>
       <c r="F348" s="2" t="inlineStr"/>
     </row>
     <row r="349">
@@ -7724,12 +9978,12 @@
       <c r="C349" s="2" t="n">
         <v>348</v>
       </c>
-      <c r="D349" s="3" t="inlineStr">
+      <c r="D349" s="2" t="inlineStr"/>
+      <c r="E349" s="4" t="inlineStr">
         <is>
           <t>545: XP36(2)</t>
         </is>
       </c>
-      <c r="E349" s="2" t="inlineStr"/>
       <c r="F349" s="2" t="inlineStr"/>
     </row>
     <row r="350">
@@ -7744,12 +9998,12 @@
       <c r="C350" s="2" t="n">
         <v>349</v>
       </c>
-      <c r="D350" s="3" t="inlineStr">
+      <c r="D350" s="2" t="inlineStr"/>
+      <c r="E350" s="4" t="inlineStr">
         <is>
           <t>243: XS12(13)</t>
         </is>
       </c>
-      <c r="E350" s="2" t="inlineStr"/>
       <c r="F350" s="2" t="inlineStr"/>
     </row>
     <row r="351">
@@ -7764,9 +10018,12 @@
       <c r="C351" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="D351" s="2" t="inlineStr">
+      <c r="D351" s="2" t="inlineStr"/>
+      <c r="E351" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -7775,6 +10032,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 366: XS8(6)
 372: XS8(17)
 380: XS8(18)
@@ -7796,18 +10054,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E351" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F351" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F351" s="2" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -7853,12 +10100,12 @@
       <c r="C354" s="2" t="n">
         <v>353</v>
       </c>
-      <c r="D354" s="3" t="inlineStr">
+      <c r="D354" s="2" t="inlineStr"/>
+      <c r="E354" s="4" t="inlineStr">
         <is>
           <t>208: XS5(2)</t>
         </is>
       </c>
-      <c r="E354" s="2" t="inlineStr"/>
       <c r="F354" s="2" t="inlineStr"/>
     </row>
     <row r="355">
@@ -7905,12 +10152,12 @@
       <c r="C357" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="D357" s="3" t="inlineStr">
+      <c r="D357" s="2" t="inlineStr"/>
+      <c r="E357" s="4" t="inlineStr">
         <is>
           <t>214: XS5(13)</t>
         </is>
       </c>
-      <c r="E357" s="2" t="inlineStr"/>
       <c r="F357" s="2" t="inlineStr"/>
     </row>
     <row r="358">
@@ -7925,12 +10172,12 @@
       <c r="C358" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="D358" s="3" t="inlineStr">
+      <c r="D358" s="2" t="inlineStr"/>
+      <c r="E358" s="4" t="inlineStr">
         <is>
           <t>241: XS12(9)</t>
         </is>
       </c>
-      <c r="E358" s="2" t="inlineStr"/>
       <c r="F358" s="2" t="inlineStr"/>
     </row>
     <row r="359">
@@ -7961,12 +10208,12 @@
       <c r="C360" s="2" t="n">
         <v>359</v>
       </c>
-      <c r="D360" s="3" t="inlineStr">
+      <c r="D360" s="2" t="inlineStr"/>
+      <c r="E360" s="4" t="inlineStr">
         <is>
           <t>240: XS12(8)</t>
         </is>
       </c>
-      <c r="E360" s="2" t="inlineStr"/>
       <c r="F360" s="2" t="inlineStr"/>
     </row>
     <row r="361">
@@ -7981,12 +10228,12 @@
       <c r="C361" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="D361" s="3" t="inlineStr">
+      <c r="D361" s="2" t="inlineStr"/>
+      <c r="E361" s="4" t="inlineStr">
         <is>
           <t>242: XS12(11)</t>
         </is>
       </c>
-      <c r="E361" s="2" t="inlineStr"/>
       <c r="F361" s="2" t="inlineStr"/>
     </row>
     <row r="362">
@@ -8001,14 +10248,11 @@
       <c r="C362" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="D362" s="2" t="inlineStr">
-        <is>
-          <t>468: XS19(23)</t>
-        </is>
-      </c>
+      <c r="D362" s="2" t="inlineStr"/>
       <c r="E362" s="4" t="inlineStr">
         <is>
-          <t>52: XS2(29)</t>
+          <t>52: XS2(29)
+468: XS19(23)</t>
         </is>
       </c>
       <c r="F362" s="2" t="inlineStr"/>
@@ -8041,12 +10285,12 @@
       <c r="C364" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="D364" s="3" t="inlineStr">
+      <c r="D364" s="2" t="inlineStr"/>
+      <c r="E364" s="4" t="inlineStr">
         <is>
           <t>265: XS12(26)</t>
         </is>
       </c>
-      <c r="E364" s="2" t="inlineStr"/>
       <c r="F364" s="2" t="inlineStr"/>
     </row>
     <row r="365">
@@ -8061,12 +10305,12 @@
       <c r="C365" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="D365" s="3" t="inlineStr">
+      <c r="D365" s="2" t="inlineStr"/>
+      <c r="E365" s="4" t="inlineStr">
         <is>
           <t>222: XS5(14)</t>
         </is>
       </c>
-      <c r="E365" s="2" t="inlineStr"/>
       <c r="F365" s="2" t="inlineStr"/>
     </row>
     <row r="366">
@@ -8097,9 +10341,12 @@
       <c r="C367" s="2" t="n">
         <v>366</v>
       </c>
-      <c r="D367" s="2" t="inlineStr">
+      <c r="D367" s="2" t="inlineStr"/>
+      <c r="E367" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -8108,6 +10355,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 372: XS8(17)
 380: XS8(18)
@@ -8129,18 +10377,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E367" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F367" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F367" s="2" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -8186,12 +10423,12 @@
       <c r="C370" s="2" t="n">
         <v>369</v>
       </c>
-      <c r="D370" s="3" t="inlineStr">
+      <c r="D370" s="2" t="inlineStr"/>
+      <c r="E370" s="4" t="inlineStr">
         <is>
           <t>249: XS12(10)</t>
         </is>
       </c>
-      <c r="E370" s="2" t="inlineStr"/>
       <c r="F370" s="2" t="inlineStr"/>
     </row>
     <row r="371">
@@ -8206,7 +10443,8 @@
       <c r="C371" s="2" t="n">
         <v>370</v>
       </c>
-      <c r="D371" s="3" t="inlineStr">
+      <c r="D371" s="2" t="inlineStr"/>
+      <c r="E371" s="4" t="inlineStr">
         <is>
           <t>224: XS5(18)
 308: XS6(23)
@@ -8216,7 +10454,6 @@
 383: XS8(24)</t>
         </is>
       </c>
-      <c r="E371" s="2" t="inlineStr"/>
       <c r="F371" s="2" t="inlineStr"/>
     </row>
     <row r="372">
@@ -8247,9 +10484,12 @@
       <c r="C373" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="D373" s="2" t="inlineStr">
+      <c r="D373" s="2" t="inlineStr"/>
+      <c r="E373" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -8258,6 +10498,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 380: XS8(18)
@@ -8279,18 +10520,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E373" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F373" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F373" s="2" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -8352,7 +10582,8 @@
       <c r="C377" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="D377" s="3" t="inlineStr">
+      <c r="D377" s="2" t="inlineStr"/>
+      <c r="E377" s="4" t="inlineStr">
         <is>
           <t>224: XS5(18)
 308: XS6(23)
@@ -8362,7 +10593,6 @@
 383: XS8(24)</t>
         </is>
       </c>
-      <c r="E377" s="2" t="inlineStr"/>
       <c r="F377" s="2" t="inlineStr"/>
     </row>
     <row r="378">
@@ -8425,9 +10655,12 @@
       <c r="C381" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="D381" s="2" t="inlineStr">
+      <c r="D381" s="2" t="inlineStr"/>
+      <c r="E381" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -8436,6 +10669,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -8457,18 +10691,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E381" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F381" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F381" s="2" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -8514,7 +10737,8 @@
       <c r="C384" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="D384" s="3" t="inlineStr">
+      <c r="D384" s="2" t="inlineStr"/>
+      <c r="E384" s="4" t="inlineStr">
         <is>
           <t>224: XS5(18)
 308: XS6(23)
@@ -8524,7 +10748,6 @@
 376: XS8(25)</t>
         </is>
       </c>
-      <c r="E384" s="2" t="inlineStr"/>
       <c r="F384" s="2" t="inlineStr"/>
     </row>
     <row r="385">
@@ -8555,12 +10778,12 @@
       <c r="C386" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="D386" s="3" t="inlineStr">
+      <c r="D386" s="2" t="inlineStr"/>
+      <c r="E386" s="4" t="inlineStr">
         <is>
           <t>230: XS12(3)</t>
         </is>
       </c>
-      <c r="E386" s="2" t="inlineStr"/>
       <c r="F386" s="2" t="inlineStr"/>
     </row>
     <row r="387">
@@ -8575,9 +10798,12 @@
       <c r="C387" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="D387" s="2" t="inlineStr">
+      <c r="D387" s="2" t="inlineStr"/>
+      <c r="E387" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -8586,6 +10812,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -8607,18 +10834,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E387" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F387" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F387" s="2" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -8632,12 +10848,12 @@
       <c r="C388" s="2" t="n">
         <v>387</v>
       </c>
-      <c r="D388" s="3" t="inlineStr">
+      <c r="D388" s="2" t="inlineStr"/>
+      <c r="E388" s="4" t="inlineStr">
         <is>
           <t>232: XS12(7)</t>
         </is>
       </c>
-      <c r="E388" s="2" t="inlineStr"/>
       <c r="F388" s="2" t="inlineStr"/>
     </row>
     <row r="389">
@@ -8652,12 +10868,12 @@
       <c r="C389" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="D389" s="3" t="inlineStr">
+      <c r="D389" s="2" t="inlineStr"/>
+      <c r="E389" s="4" t="inlineStr">
         <is>
           <t>231: XS12(5)</t>
         </is>
       </c>
-      <c r="E389" s="2" t="inlineStr"/>
       <c r="F389" s="2" t="inlineStr"/>
     </row>
     <row r="390">
@@ -8704,12 +10920,12 @@
       <c r="C392" s="2" t="n">
         <v>391</v>
       </c>
-      <c r="D392" s="3" t="inlineStr">
+      <c r="D392" s="2" t="inlineStr"/>
+      <c r="E392" s="4" t="inlineStr">
         <is>
           <t>136: XP3(15)</t>
         </is>
       </c>
-      <c r="E392" s="2" t="inlineStr"/>
       <c r="F392" s="2" t="inlineStr"/>
     </row>
     <row r="393">
@@ -8724,12 +10940,12 @@
       <c r="C393" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="D393" s="3" t="inlineStr">
+      <c r="D393" s="2" t="inlineStr"/>
+      <c r="E393" s="4" t="inlineStr">
         <is>
           <t>495: XS15(2)</t>
         </is>
       </c>
-      <c r="E393" s="2" t="inlineStr"/>
       <c r="F393" s="2" t="inlineStr"/>
     </row>
     <row r="394">
@@ -8744,12 +10960,12 @@
       <c r="C394" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="D394" s="3" t="inlineStr">
+      <c r="D394" s="2" t="inlineStr"/>
+      <c r="E394" s="4" t="inlineStr">
         <is>
           <t>238: XS12(4)</t>
         </is>
       </c>
-      <c r="E394" s="2" t="inlineStr"/>
       <c r="F394" s="2" t="inlineStr"/>
     </row>
     <row r="395">
@@ -8800,12 +11016,12 @@
       <c r="C397" s="2" t="n">
         <v>396</v>
       </c>
-      <c r="D397" s="3" t="inlineStr">
+      <c r="D397" s="2" t="inlineStr"/>
+      <c r="E397" s="4" t="inlineStr">
         <is>
           <t>239: XS12(6)</t>
         </is>
       </c>
-      <c r="E397" s="2" t="inlineStr"/>
       <c r="F397" s="2" t="inlineStr"/>
     </row>
     <row r="398">
@@ -8852,12 +11068,12 @@
       <c r="C400" s="2" t="n">
         <v>399</v>
       </c>
-      <c r="D400" s="3" t="inlineStr">
+      <c r="D400" s="2" t="inlineStr"/>
+      <c r="E400" s="4" t="inlineStr">
         <is>
           <t>27: XS1(22)</t>
         </is>
       </c>
-      <c r="E400" s="2" t="inlineStr"/>
       <c r="F400" s="2" t="inlineStr"/>
     </row>
     <row r="401">
@@ -8872,12 +11088,12 @@
       <c r="C401" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="D401" s="3" t="inlineStr">
+      <c r="D401" s="2" t="inlineStr"/>
+      <c r="E401" s="4" t="inlineStr">
         <is>
           <t>145: XP3(17)</t>
         </is>
       </c>
-      <c r="E401" s="2" t="inlineStr"/>
       <c r="F401" s="2" t="inlineStr"/>
     </row>
     <row r="402">
@@ -8892,12 +11108,12 @@
       <c r="C402" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="D402" s="3" t="inlineStr">
+      <c r="D402" s="2" t="inlineStr"/>
+      <c r="E402" s="4" t="inlineStr">
         <is>
           <t>485: XS13(2)</t>
         </is>
       </c>
-      <c r="E402" s="2" t="inlineStr"/>
       <c r="F402" s="2" t="inlineStr"/>
     </row>
     <row r="403">
@@ -8912,12 +11128,12 @@
       <c r="C403" s="2" t="n">
         <v>402</v>
       </c>
-      <c r="D403" s="3" t="inlineStr">
+      <c r="D403" s="2" t="inlineStr"/>
+      <c r="E403" s="4" t="inlineStr">
         <is>
           <t>520: XS27(4)</t>
         </is>
       </c>
-      <c r="E403" s="2" t="inlineStr"/>
       <c r="F403" s="2" t="inlineStr"/>
     </row>
     <row r="404">
@@ -8932,12 +11148,12 @@
       <c r="C404" s="2" t="n">
         <v>403</v>
       </c>
-      <c r="D404" s="3" t="inlineStr">
+      <c r="D404" s="2" t="inlineStr"/>
+      <c r="E404" s="4" t="inlineStr">
         <is>
           <t>138: XP3(4)</t>
         </is>
       </c>
-      <c r="E404" s="2" t="inlineStr"/>
       <c r="F404" s="2" t="inlineStr"/>
     </row>
     <row r="405">
@@ -8968,12 +11184,12 @@
       <c r="C406" s="2" t="n">
         <v>405</v>
       </c>
-      <c r="D406" s="3" t="inlineStr">
+      <c r="D406" s="2" t="inlineStr"/>
+      <c r="E406" s="4" t="inlineStr">
         <is>
           <t>140: XP3(8)</t>
         </is>
       </c>
-      <c r="E406" s="2" t="inlineStr"/>
       <c r="F406" s="2" t="inlineStr"/>
     </row>
     <row r="407">
@@ -8988,12 +11204,12 @@
       <c r="C407" s="2" t="n">
         <v>406</v>
       </c>
-      <c r="D407" s="3" t="inlineStr">
+      <c r="D407" s="2" t="inlineStr"/>
+      <c r="E407" s="4" t="inlineStr">
         <is>
           <t>146: XP3(19)</t>
         </is>
       </c>
-      <c r="E407" s="2" t="inlineStr"/>
       <c r="F407" s="2" t="inlineStr"/>
     </row>
     <row r="408">
@@ -9008,12 +11224,12 @@
       <c r="C408" s="2" t="n">
         <v>407</v>
       </c>
-      <c r="D408" s="3" t="inlineStr">
+      <c r="D408" s="2" t="inlineStr"/>
+      <c r="E408" s="4" t="inlineStr">
         <is>
           <t>518: XS26(2)</t>
         </is>
       </c>
-      <c r="E408" s="2" t="inlineStr"/>
       <c r="F408" s="2" t="inlineStr"/>
     </row>
     <row r="409">
@@ -9028,12 +11244,12 @@
       <c r="C409" s="2" t="n">
         <v>408</v>
       </c>
-      <c r="D409" s="3" t="inlineStr">
+      <c r="D409" s="2" t="inlineStr"/>
+      <c r="E409" s="4" t="inlineStr">
         <is>
           <t>256: XS12(24)</t>
         </is>
       </c>
-      <c r="E409" s="2" t="inlineStr"/>
       <c r="F409" s="2" t="inlineStr"/>
     </row>
     <row r="410">
@@ -9048,12 +11264,12 @@
       <c r="C410" s="2" t="n">
         <v>409</v>
       </c>
-      <c r="D410" s="3" t="inlineStr">
+      <c r="D410" s="2" t="inlineStr"/>
+      <c r="E410" s="4" t="inlineStr">
         <is>
           <t>525: XS26(1)</t>
         </is>
       </c>
-      <c r="E410" s="2" t="inlineStr"/>
       <c r="F410" s="2" t="inlineStr"/>
     </row>
     <row r="411">
@@ -9068,12 +11284,12 @@
       <c r="C411" s="2" t="n">
         <v>410</v>
       </c>
-      <c r="D411" s="3" t="inlineStr">
+      <c r="D411" s="2" t="inlineStr"/>
+      <c r="E411" s="4" t="inlineStr">
         <is>
           <t>247: XS12(21)</t>
         </is>
       </c>
-      <c r="E411" s="2" t="inlineStr"/>
       <c r="F411" s="2" t="inlineStr"/>
     </row>
     <row r="412">
@@ -9104,12 +11320,12 @@
       <c r="C413" s="2" t="n">
         <v>412</v>
       </c>
-      <c r="D413" s="3" t="inlineStr">
+      <c r="D413" s="2" t="inlineStr"/>
+      <c r="E413" s="4" t="inlineStr">
         <is>
           <t>544: XP36(1)</t>
         </is>
       </c>
-      <c r="E413" s="2" t="inlineStr"/>
       <c r="F413" s="2" t="inlineStr"/>
     </row>
     <row r="414">
@@ -9140,12 +11356,12 @@
       <c r="C415" s="2" t="n">
         <v>414</v>
       </c>
-      <c r="D415" s="3" t="inlineStr">
+      <c r="D415" s="2" t="inlineStr"/>
+      <c r="E415" s="4" t="inlineStr">
         <is>
           <t>135: XP3(13)</t>
         </is>
       </c>
-      <c r="E415" s="2" t="inlineStr"/>
       <c r="F415" s="2" t="inlineStr"/>
     </row>
     <row r="416">
@@ -9160,12 +11376,12 @@
       <c r="C416" s="2" t="n">
         <v>415</v>
       </c>
-      <c r="D416" s="3" t="inlineStr">
+      <c r="D416" s="2" t="inlineStr"/>
+      <c r="E416" s="4" t="inlineStr">
         <is>
           <t>150: XP3(27)</t>
         </is>
       </c>
-      <c r="E416" s="2" t="inlineStr"/>
       <c r="F416" s="2" t="inlineStr"/>
     </row>
     <row r="417">
@@ -9180,12 +11396,12 @@
       <c r="C417" s="2" t="n">
         <v>416</v>
       </c>
-      <c r="D417" s="3" t="inlineStr">
+      <c r="D417" s="2" t="inlineStr"/>
+      <c r="E417" s="4" t="inlineStr">
         <is>
           <t>255: XS12(22)</t>
         </is>
       </c>
-      <c r="E417" s="2" t="inlineStr"/>
       <c r="F417" s="2" t="inlineStr"/>
     </row>
     <row r="418">
@@ -9216,13 +11432,13 @@
       <c r="C419" s="2" t="n">
         <v>418</v>
       </c>
-      <c r="D419" s="3" t="inlineStr">
+      <c r="D419" s="2" t="inlineStr"/>
+      <c r="E419" s="4" t="inlineStr">
         <is>
           <t>131: XP3(5)
 248: XS12(23)</t>
         </is>
       </c>
-      <c r="E419" s="2" t="inlineStr"/>
       <c r="F419" s="2" t="inlineStr"/>
     </row>
     <row r="420">
@@ -9237,9 +11453,12 @@
       <c r="C420" s="2" t="n">
         <v>419</v>
       </c>
-      <c r="D420" s="2" t="inlineStr">
+      <c r="D420" s="2" t="inlineStr"/>
+      <c r="E420" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -9248,6 +11467,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -9269,18 +11489,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E420" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F420" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F420" s="2" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -9294,13 +11503,13 @@
       <c r="C421" s="2" t="n">
         <v>420</v>
       </c>
-      <c r="D421" s="3" t="inlineStr">
+      <c r="D421" s="2" t="inlineStr"/>
+      <c r="E421" s="4" t="inlineStr">
         <is>
           <t>14: XS1(12)
 483: XS19(37)</t>
         </is>
       </c>
-      <c r="E421" s="2" t="inlineStr"/>
       <c r="F421" s="2" t="inlineStr"/>
     </row>
     <row r="422">
@@ -9315,13 +11524,13 @@
       <c r="C422" s="2" t="n">
         <v>421</v>
       </c>
-      <c r="D422" s="3" t="inlineStr">
+      <c r="D422" s="2" t="inlineStr"/>
+      <c r="E422" s="4" t="inlineStr">
         <is>
           <t>15: XS1(14)
 484: XS19(39)</t>
         </is>
       </c>
-      <c r="E422" s="2" t="inlineStr"/>
       <c r="F422" s="2" t="inlineStr"/>
     </row>
     <row r="423">
@@ -9336,13 +11545,13 @@
       <c r="C423" s="2" t="n">
         <v>422</v>
       </c>
-      <c r="D423" s="3" t="inlineStr">
+      <c r="D423" s="2" t="inlineStr"/>
+      <c r="E423" s="4" t="inlineStr">
         <is>
           <t>72: XS35(14)
 267: XS9(2)</t>
         </is>
       </c>
-      <c r="E423" s="2" t="inlineStr"/>
       <c r="F423" s="2" t="inlineStr"/>
     </row>
     <row r="424">
@@ -9389,7 +11598,8 @@
       <c r="C426" s="2" t="n">
         <v>425</v>
       </c>
-      <c r="D426" s="3" t="inlineStr">
+      <c r="D426" s="2" t="inlineStr"/>
+      <c r="E426" s="4" t="inlineStr">
         <is>
           <t>20: XS1(23)
 133: XP3(9)
@@ -9402,7 +11612,6 @@
 549: XP36(10)</t>
         </is>
       </c>
-      <c r="E426" s="2" t="inlineStr"/>
       <c r="F426" s="2" t="inlineStr"/>
     </row>
     <row r="427">
@@ -9417,14 +11626,14 @@
       <c r="C427" s="2" t="n">
         <v>426</v>
       </c>
-      <c r="D427" s="3" t="inlineStr">
+      <c r="D427" s="2" t="inlineStr"/>
+      <c r="E427" s="4" t="inlineStr">
         <is>
           <t>161: XP3(33)
 527: XS27(3)
 538: XS25(5)</t>
         </is>
       </c>
-      <c r="E427" s="2" t="inlineStr"/>
       <c r="F427" s="2" t="inlineStr"/>
     </row>
     <row r="428">
@@ -9439,9 +11648,12 @@
       <c r="C428" s="2" t="n">
         <v>427</v>
       </c>
-      <c r="D428" s="2" t="inlineStr">
+      <c r="D428" s="2" t="inlineStr"/>
+      <c r="E428" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -9450,6 +11662,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -9471,18 +11684,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E428" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F428" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F428" s="2" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -9496,12 +11698,12 @@
       <c r="C429" s="2" t="n">
         <v>428</v>
       </c>
-      <c r="D429" s="3" t="inlineStr">
+      <c r="D429" s="2" t="inlineStr"/>
+      <c r="E429" s="4" t="inlineStr">
         <is>
           <t>71: XS35(12)</t>
         </is>
       </c>
-      <c r="E429" s="2" t="inlineStr"/>
       <c r="F429" s="2" t="inlineStr"/>
     </row>
     <row r="430">
@@ -9516,13 +11718,13 @@
       <c r="C430" s="2" t="n">
         <v>429</v>
       </c>
-      <c r="D430" s="3" t="inlineStr">
+      <c r="D430" s="2" t="inlineStr"/>
+      <c r="E430" s="4" t="inlineStr">
         <is>
           <t>7: XS1(13)
 491: XS19(38)</t>
         </is>
       </c>
-      <c r="E430" s="2" t="inlineStr"/>
       <c r="F430" s="2" t="inlineStr"/>
     </row>
     <row r="431">
@@ -9537,13 +11739,13 @@
       <c r="C431" s="2" t="n">
         <v>430</v>
       </c>
-      <c r="D431" s="3" t="inlineStr">
+      <c r="D431" s="2" t="inlineStr"/>
+      <c r="E431" s="4" t="inlineStr">
         <is>
           <t>79: XS35(13)
 259: XS9(1)</t>
         </is>
       </c>
-      <c r="E431" s="2" t="inlineStr"/>
       <c r="F431" s="2" t="inlineStr"/>
     </row>
     <row r="432">
@@ -9974,9 +12176,12 @@
       <c r="C457" s="2" t="n">
         <v>456</v>
       </c>
-      <c r="D457" s="2" t="inlineStr">
+      <c r="D457" s="2" t="inlineStr"/>
+      <c r="E457" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -9985,6 +12190,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -10006,18 +12212,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E457" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F457" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F457" s="2" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -10143,15 +12338,12 @@
       <c r="C464" s="2" t="n">
         <v>463</v>
       </c>
-      <c r="D464" s="2" t="inlineStr">
-        <is>
-          <t>498: YA42(2)
+      <c r="D464" s="2" t="inlineStr"/>
+      <c r="E464" s="4" t="inlineStr">
+        <is>
+          <t>36: XS2(13)
+498: YA42(2)
 499: YA43(2)</t>
-        </is>
-      </c>
-      <c r="E464" s="4" t="inlineStr">
-        <is>
-          <t>36: XS2(13)</t>
         </is>
       </c>
       <c r="F464" s="2" t="inlineStr"/>
@@ -10228,12 +12420,12 @@
       <c r="C468" s="2" t="n">
         <v>467</v>
       </c>
-      <c r="D468" s="3" t="inlineStr">
+      <c r="D468" s="2" t="inlineStr"/>
+      <c r="E468" s="4" t="inlineStr">
         <is>
           <t>338: XS7(16)</t>
         </is>
       </c>
-      <c r="E468" s="2" t="inlineStr"/>
       <c r="F468" s="2" t="inlineStr"/>
     </row>
     <row r="469">
@@ -10248,14 +12440,11 @@
       <c r="C469" s="2" t="n">
         <v>468</v>
       </c>
-      <c r="D469" s="2" t="inlineStr">
-        <is>
-          <t>361: XS7(31)</t>
-        </is>
-      </c>
+      <c r="D469" s="2" t="inlineStr"/>
       <c r="E469" s="4" t="inlineStr">
         <is>
-          <t>52: XS2(29)</t>
+          <t>52: XS2(29)
+361: XS7(31)</t>
         </is>
       </c>
       <c r="F469" s="2" t="inlineStr"/>
@@ -10292,14 +12481,11 @@
       <c r="C471" s="2" t="n">
         <v>470</v>
       </c>
-      <c r="D471" s="2" t="inlineStr">
-        <is>
-          <t>245: XS12(17)</t>
-        </is>
-      </c>
+      <c r="D471" s="2" t="inlineStr"/>
       <c r="E471" s="4" t="inlineStr">
         <is>
-          <t>184: XS4(24)</t>
+          <t>184: XS4(24)
+245: XS12(17)</t>
         </is>
       </c>
       <c r="F471" s="2" t="inlineStr"/>
@@ -10332,14 +12518,11 @@
       <c r="C473" s="2" t="n">
         <v>472</v>
       </c>
-      <c r="D473" s="2" t="inlineStr">
-        <is>
-          <t>233: XS5(20)</t>
-        </is>
-      </c>
+      <c r="D473" s="2" t="inlineStr"/>
       <c r="E473" s="4" t="inlineStr">
         <is>
-          <t>54: XS2(33)</t>
+          <t>54: XS2(33)
+233: XS5(20)</t>
         </is>
       </c>
       <c r="F473" s="2" t="inlineStr"/>
@@ -10356,14 +12539,11 @@
       <c r="C474" s="2" t="n">
         <v>473</v>
       </c>
-      <c r="D474" s="2" t="inlineStr">
-        <is>
-          <t>490: XS19(36)</t>
-        </is>
-      </c>
+      <c r="D474" s="2" t="inlineStr"/>
       <c r="E474" s="4" t="inlineStr">
         <is>
-          <t>44: XS2(14)</t>
+          <t>44: XS2(14)
+490: XS19(36)</t>
         </is>
       </c>
       <c r="F474" s="2" t="inlineStr"/>
@@ -10400,12 +12580,12 @@
       <c r="C476" s="2" t="n">
         <v>475</v>
       </c>
-      <c r="D476" s="3" t="inlineStr">
+      <c r="D476" s="2" t="inlineStr"/>
+      <c r="E476" s="4" t="inlineStr">
         <is>
           <t>75: XS35(5)</t>
         </is>
       </c>
-      <c r="E476" s="2" t="inlineStr"/>
       <c r="F476" s="2" t="inlineStr"/>
     </row>
     <row r="477">
@@ -10456,14 +12636,11 @@
       <c r="C479" s="2" t="n">
         <v>478</v>
       </c>
-      <c r="D479" s="2" t="inlineStr">
-        <is>
-          <t>253: XS12(18)</t>
-        </is>
-      </c>
+      <c r="D479" s="2" t="inlineStr"/>
       <c r="E479" s="4" t="inlineStr">
         <is>
-          <t>192: XS4(25)</t>
+          <t>192: XS4(25)
+253: XS12(18)</t>
         </is>
       </c>
       <c r="F479" s="2" t="inlineStr"/>
@@ -10480,14 +12657,11 @@
       <c r="C480" s="2" t="n">
         <v>479</v>
       </c>
-      <c r="D480" s="2" t="inlineStr">
-        <is>
-          <t>142: XP3(12)</t>
-        </is>
-      </c>
+      <c r="D480" s="2" t="inlineStr"/>
       <c r="E480" s="4" t="inlineStr">
         <is>
-          <t>59: XS2(28)</t>
+          <t>59: XS2(28)
+142: XP3(12)</t>
         </is>
       </c>
       <c r="F480" s="2" t="inlineStr"/>
@@ -10564,13 +12738,13 @@
       <c r="C484" s="2" t="n">
         <v>483</v>
       </c>
-      <c r="D484" s="3" t="inlineStr">
+      <c r="D484" s="2" t="inlineStr"/>
+      <c r="E484" s="4" t="inlineStr">
         <is>
           <t>14: XS1(12)
 420: XS10(30)</t>
         </is>
       </c>
-      <c r="E484" s="2" t="inlineStr"/>
       <c r="F484" s="2" t="inlineStr"/>
     </row>
     <row r="485">
@@ -10585,13 +12759,13 @@
       <c r="C485" s="2" t="n">
         <v>484</v>
       </c>
-      <c r="D485" s="3" t="inlineStr">
+      <c r="D485" s="2" t="inlineStr"/>
+      <c r="E485" s="4" t="inlineStr">
         <is>
           <t>15: XS1(14)
 421: XS10(32)</t>
         </is>
       </c>
-      <c r="E485" s="2" t="inlineStr"/>
       <c r="F485" s="2" t="inlineStr"/>
     </row>
     <row r="486">
@@ -10606,12 +12780,12 @@
       <c r="C486" s="2" t="n">
         <v>485</v>
       </c>
-      <c r="D486" s="3" t="inlineStr">
+      <c r="D486" s="2" t="inlineStr"/>
+      <c r="E486" s="4" t="inlineStr">
         <is>
           <t>401: XS10(8)</t>
         </is>
       </c>
-      <c r="E486" s="2" t="inlineStr"/>
       <c r="F486" s="2" t="inlineStr"/>
     </row>
     <row r="487">
@@ -10646,7 +12820,8 @@
       <c r="C488" s="2" t="n">
         <v>487</v>
       </c>
-      <c r="D488" s="3" t="inlineStr">
+      <c r="D488" s="2" t="inlineStr"/>
+      <c r="E488" s="4" t="inlineStr">
         <is>
           <t>20: XS1(23)
 133: XP3(9)
@@ -10659,7 +12834,6 @@
 549: XP36(10)</t>
         </is>
       </c>
-      <c r="E488" s="2" t="inlineStr"/>
       <c r="F488" s="2" t="inlineStr"/>
     </row>
     <row r="489">
@@ -10674,12 +12848,12 @@
       <c r="C489" s="2" t="n">
         <v>488</v>
       </c>
-      <c r="D489" s="3" t="inlineStr">
+      <c r="D489" s="2" t="inlineStr"/>
+      <c r="E489" s="4" t="inlineStr">
         <is>
           <t>289: XS6(1)</t>
         </is>
       </c>
-      <c r="E489" s="2" t="inlineStr"/>
       <c r="F489" s="2" t="inlineStr"/>
     </row>
     <row r="490">
@@ -10714,14 +12888,11 @@
       <c r="C491" s="2" t="n">
         <v>490</v>
       </c>
-      <c r="D491" s="2" t="inlineStr">
-        <is>
-          <t>473: XS19(18)</t>
-        </is>
-      </c>
+      <c r="D491" s="2" t="inlineStr"/>
       <c r="E491" s="4" t="inlineStr">
         <is>
-          <t>44: XS2(14)</t>
+          <t>44: XS2(14)
+473: XS19(18)</t>
         </is>
       </c>
       <c r="F491" s="2" t="inlineStr"/>
@@ -10738,13 +12909,13 @@
       <c r="C492" s="2" t="n">
         <v>491</v>
       </c>
-      <c r="D492" s="3" t="inlineStr">
+      <c r="D492" s="2" t="inlineStr"/>
+      <c r="E492" s="4" t="inlineStr">
         <is>
           <t>7: XS1(13)
 429: XS10(33)</t>
         </is>
       </c>
-      <c r="E492" s="2" t="inlineStr"/>
       <c r="F492" s="2" t="inlineStr"/>
     </row>
     <row r="493">
@@ -10759,7 +12930,8 @@
       <c r="C493" s="2" t="n">
         <v>492</v>
       </c>
-      <c r="D493" s="3" t="inlineStr">
+      <c r="D493" s="2" t="inlineStr"/>
+      <c r="E493" s="4" t="inlineStr">
         <is>
           <t>20: XS1(23)
 133: XP3(9)
@@ -10772,7 +12944,6 @@
 549: XP36(10)</t>
         </is>
       </c>
-      <c r="E493" s="2" t="inlineStr"/>
       <c r="F493" s="2" t="inlineStr"/>
     </row>
     <row r="494">
@@ -10787,21 +12958,18 @@
       <c r="C494" s="2" t="n">
         <v>493</v>
       </c>
-      <c r="D494" s="2" t="inlineStr">
+      <c r="D494" s="2" t="inlineStr"/>
+      <c r="E494" s="4" t="inlineStr">
         <is>
           <t>18: XS1(19)
 159: XP3(30)
+182: XS4(20)
 254: XS12(20)
 507: XS22(1)
 516: XP28(1)
 546: XP36(4)</t>
         </is>
       </c>
-      <c r="E494" s="4" t="inlineStr">
-        <is>
-          <t>182: XS4(20)</t>
-        </is>
-      </c>
       <c r="F494" s="2" t="inlineStr"/>
     </row>
     <row r="495">
@@ -10816,9 +12984,12 @@
       <c r="C495" s="2" t="n">
         <v>494</v>
       </c>
-      <c r="D495" s="2" t="inlineStr">
+      <c r="D495" s="2" t="inlineStr"/>
+      <c r="E495" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -10827,6 +12998,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -10848,18 +13020,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E495" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F495" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F495" s="2" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -10873,12 +13034,12 @@
       <c r="C496" s="2" t="n">
         <v>495</v>
       </c>
-      <c r="D496" s="3" t="inlineStr">
+      <c r="D496" s="2" t="inlineStr"/>
+      <c r="E496" s="4" t="inlineStr">
         <is>
           <t>392: XS10(6)</t>
         </is>
       </c>
-      <c r="E496" s="2" t="inlineStr"/>
       <c r="F496" s="2" t="inlineStr"/>
     </row>
     <row r="497">
@@ -10893,12 +13054,12 @@
       <c r="C497" s="2" t="n">
         <v>496</v>
       </c>
-      <c r="D497" s="3" t="inlineStr">
+      <c r="D497" s="2" t="inlineStr"/>
+      <c r="E497" s="4" t="inlineStr">
         <is>
           <t>290: XS6(3)</t>
         </is>
       </c>
-      <c r="E497" s="2" t="inlineStr"/>
       <c r="F497" s="2" t="inlineStr"/>
     </row>
     <row r="498">
@@ -10913,9 +13074,12 @@
       <c r="C498" s="2" t="n">
         <v>497</v>
       </c>
-      <c r="D498" s="2" t="inlineStr">
+      <c r="D498" s="2" t="inlineStr"/>
+      <c r="E498" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -10924,6 +13088,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -10945,18 +13110,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E498" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F498" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F498" s="2" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -10970,15 +13124,12 @@
       <c r="C499" s="2" t="n">
         <v>498</v>
       </c>
-      <c r="D499" s="2" t="inlineStr">
-        <is>
-          <t>463: XS19(14)
+      <c r="D499" s="2" t="inlineStr"/>
+      <c r="E499" s="4" t="inlineStr">
+        <is>
+          <t>36: XS2(13)
+463: XS19(14)
 499: YA43(2)</t>
-        </is>
-      </c>
-      <c r="E499" s="4" t="inlineStr">
-        <is>
-          <t>36: XS2(13)</t>
         </is>
       </c>
       <c r="F499" s="2" t="inlineStr"/>
@@ -10995,15 +13146,12 @@
       <c r="C500" s="2" t="n">
         <v>499</v>
       </c>
-      <c r="D500" s="2" t="inlineStr">
-        <is>
-          <t>463: XS19(14)
+      <c r="D500" s="2" t="inlineStr"/>
+      <c r="E500" s="4" t="inlineStr">
+        <is>
+          <t>36: XS2(13)
+463: XS19(14)
 498: YA42(2)</t>
-        </is>
-      </c>
-      <c r="E500" s="4" t="inlineStr">
-        <is>
-          <t>36: XS2(13)</t>
         </is>
       </c>
       <c r="F500" s="2" t="inlineStr"/>
@@ -11040,12 +13188,12 @@
       <c r="C502" s="2" t="n">
         <v>501</v>
       </c>
-      <c r="D502" s="3" t="inlineStr">
+      <c r="D502" s="2" t="inlineStr"/>
+      <c r="E502" s="4" t="inlineStr">
         <is>
           <t>333: XS7(7)</t>
         </is>
       </c>
-      <c r="E502" s="2" t="inlineStr"/>
       <c r="F502" s="2" t="inlineStr"/>
     </row>
     <row r="503">
@@ -11060,9 +13208,12 @@
       <c r="C503" s="2" t="n">
         <v>502</v>
       </c>
-      <c r="D503" s="2" t="inlineStr">
+      <c r="D503" s="2" t="inlineStr"/>
+      <c r="E503" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -11071,6 +13222,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -11092,18 +13244,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E503" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F503" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F503" s="2" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -11117,9 +13258,12 @@
       <c r="C504" s="2" t="n">
         <v>503</v>
       </c>
-      <c r="D504" s="2" t="inlineStr">
+      <c r="D504" s="2" t="inlineStr"/>
+      <c r="E504" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -11128,6 +13272,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -11149,18 +13294,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E504" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F504" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F504" s="2" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -11174,12 +13308,12 @@
       <c r="C505" s="2" t="n">
         <v>504</v>
       </c>
-      <c r="D505" s="3" t="inlineStr">
+      <c r="D505" s="2" t="inlineStr"/>
+      <c r="E505" s="4" t="inlineStr">
         <is>
           <t>332: XS7(5)</t>
         </is>
       </c>
-      <c r="E505" s="2" t="inlineStr"/>
       <c r="F505" s="2" t="inlineStr"/>
     </row>
     <row r="506">
@@ -11194,12 +13328,12 @@
       <c r="C506" s="2" t="n">
         <v>505</v>
       </c>
-      <c r="D506" s="3" t="inlineStr">
+      <c r="D506" s="2" t="inlineStr"/>
+      <c r="E506" s="4" t="inlineStr">
         <is>
           <t>89: XS41(1)</t>
         </is>
       </c>
-      <c r="E506" s="2" t="inlineStr"/>
       <c r="F506" s="2" t="inlineStr"/>
     </row>
     <row r="507">
@@ -11214,12 +13348,12 @@
       <c r="C507" s="2" t="n">
         <v>506</v>
       </c>
-      <c r="D507" s="3" t="inlineStr">
+      <c r="D507" s="2" t="inlineStr"/>
+      <c r="E507" s="4" t="inlineStr">
         <is>
           <t>93: XS41(9)</t>
         </is>
       </c>
-      <c r="E507" s="2" t="inlineStr"/>
       <c r="F507" s="2" t="inlineStr"/>
     </row>
     <row r="508">
@@ -11234,21 +13368,18 @@
       <c r="C508" s="2" t="n">
         <v>507</v>
       </c>
-      <c r="D508" s="2" t="inlineStr">
+      <c r="D508" s="2" t="inlineStr"/>
+      <c r="E508" s="4" t="inlineStr">
         <is>
           <t>18: XS1(19)
 159: XP3(30)
+182: XS4(20)
 254: XS12(20)
 493: XS14(1)
 516: XP28(1)
 546: XP36(4)</t>
         </is>
       </c>
-      <c r="E508" s="4" t="inlineStr">
-        <is>
-          <t>182: XS4(20)</t>
-        </is>
-      </c>
       <c r="F508" s="2" t="inlineStr"/>
     </row>
     <row r="509">
@@ -11263,9 +13394,12 @@
       <c r="C509" s="2" t="n">
         <v>508</v>
       </c>
-      <c r="D509" s="2" t="inlineStr">
+      <c r="D509" s="2" t="inlineStr"/>
+      <c r="E509" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -11274,6 +13408,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -11295,18 +13430,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E509" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F509" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F509" s="2" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -11320,12 +13444,12 @@
       <c r="C510" s="2" t="n">
         <v>509</v>
       </c>
-      <c r="D510" s="3" t="inlineStr">
+      <c r="D510" s="2" t="inlineStr"/>
+      <c r="E510" s="4" t="inlineStr">
         <is>
           <t>325: XS7(6)</t>
         </is>
       </c>
-      <c r="E510" s="2" t="inlineStr"/>
       <c r="F510" s="2" t="inlineStr"/>
     </row>
     <row r="511">
@@ -11340,12 +13464,12 @@
       <c r="C511" s="2" t="n">
         <v>510</v>
       </c>
-      <c r="D511" s="3" t="inlineStr">
+      <c r="D511" s="2" t="inlineStr"/>
+      <c r="E511" s="4" t="inlineStr">
         <is>
           <t>29: XS1(26)</t>
         </is>
       </c>
-      <c r="E511" s="2" t="inlineStr"/>
       <c r="F511" s="2" t="inlineStr"/>
     </row>
     <row r="512">
@@ -11360,12 +13484,12 @@
       <c r="C512" s="2" t="n">
         <v>511</v>
       </c>
-      <c r="D512" s="3" t="inlineStr">
+      <c r="D512" s="2" t="inlineStr"/>
+      <c r="E512" s="4" t="inlineStr">
         <is>
           <t>324: XS7(4)</t>
         </is>
       </c>
-      <c r="E512" s="2" t="inlineStr"/>
       <c r="F512" s="2" t="inlineStr"/>
     </row>
     <row r="513">
@@ -11380,12 +13504,12 @@
       <c r="C513" s="2" t="n">
         <v>512</v>
       </c>
-      <c r="D513" s="3" t="inlineStr">
+      <c r="D513" s="2" t="inlineStr"/>
+      <c r="E513" s="4" t="inlineStr">
         <is>
           <t>326: XS7(8)</t>
         </is>
       </c>
-      <c r="E513" s="2" t="inlineStr"/>
       <c r="F513" s="2" t="inlineStr"/>
     </row>
     <row r="514">
@@ -11400,12 +13524,12 @@
       <c r="C514" s="2" t="n">
         <v>513</v>
       </c>
-      <c r="D514" s="3" t="inlineStr">
+      <c r="D514" s="2" t="inlineStr"/>
+      <c r="E514" s="4" t="inlineStr">
         <is>
           <t>334: XS7(9)</t>
         </is>
       </c>
-      <c r="E514" s="2" t="inlineStr"/>
       <c r="F514" s="2" t="inlineStr"/>
     </row>
     <row r="515">
@@ -11420,12 +13544,12 @@
       <c r="C515" s="2" t="n">
         <v>514</v>
       </c>
-      <c r="D515" s="3" t="inlineStr">
+      <c r="D515" s="2" t="inlineStr"/>
+      <c r="E515" s="4" t="inlineStr">
         <is>
           <t>81: XS35(16)</t>
         </is>
       </c>
-      <c r="E515" s="2" t="inlineStr"/>
       <c r="F515" s="2" t="inlineStr"/>
     </row>
     <row r="516">
@@ -11440,15 +13564,12 @@
       <c r="C516" s="2" t="n">
         <v>515</v>
       </c>
-      <c r="D516" s="2" t="inlineStr">
+      <c r="D516" s="2" t="inlineStr"/>
+      <c r="E516" s="4" t="inlineStr">
         <is>
           <t>26: XS1(20)
+58: XS2(26)
 554: XP36(5)</t>
-        </is>
-      </c>
-      <c r="E516" s="4" t="inlineStr">
-        <is>
-          <t>58: XS2(26)</t>
         </is>
       </c>
       <c r="F516" s="2" t="inlineStr"/>
@@ -11465,21 +13586,18 @@
       <c r="C517" s="2" t="n">
         <v>516</v>
       </c>
-      <c r="D517" s="2" t="inlineStr">
+      <c r="D517" s="2" t="inlineStr"/>
+      <c r="E517" s="4" t="inlineStr">
         <is>
           <t>18: XS1(19)
 159: XP3(30)
+182: XS4(20)
 254: XS12(20)
 493: XS14(1)
 507: XS22(1)
 546: XP36(4)</t>
         </is>
       </c>
-      <c r="E517" s="4" t="inlineStr">
-        <is>
-          <t>182: XS4(20)</t>
-        </is>
-      </c>
       <c r="F517" s="2" t="inlineStr"/>
     </row>
     <row r="518">
@@ -11494,9 +13612,12 @@
       <c r="C518" s="2" t="n">
         <v>517</v>
       </c>
-      <c r="D518" s="2" t="inlineStr">
+      <c r="D518" s="2" t="inlineStr"/>
+      <c r="E518" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -11505,6 +13626,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -11526,18 +13648,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E518" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F518" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F518" s="2" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -11551,12 +13662,12 @@
       <c r="C519" s="2" t="n">
         <v>518</v>
       </c>
-      <c r="D519" s="3" t="inlineStr">
+      <c r="D519" s="2" t="inlineStr"/>
+      <c r="E519" s="4" t="inlineStr">
         <is>
           <t>407: XS10(20)</t>
         </is>
       </c>
-      <c r="E519" s="2" t="inlineStr"/>
       <c r="F519" s="2" t="inlineStr"/>
     </row>
     <row r="520">
@@ -11591,12 +13702,12 @@
       <c r="C521" s="2" t="n">
         <v>520</v>
       </c>
-      <c r="D521" s="3" t="inlineStr">
+      <c r="D521" s="2" t="inlineStr"/>
+      <c r="E521" s="4" t="inlineStr">
         <is>
           <t>402: XS10(10)</t>
         </is>
       </c>
-      <c r="E521" s="2" t="inlineStr"/>
       <c r="F521" s="2" t="inlineStr"/>
     </row>
     <row r="522">
@@ -11611,12 +13722,12 @@
       <c r="C522" s="2" t="n">
         <v>521</v>
       </c>
-      <c r="D522" s="3" t="inlineStr">
+      <c r="D522" s="2" t="inlineStr"/>
+      <c r="E522" s="4" t="inlineStr">
         <is>
           <t>69: XS35(8)</t>
         </is>
       </c>
-      <c r="E522" s="2" t="inlineStr"/>
       <c r="F522" s="2" t="inlineStr"/>
     </row>
     <row r="523">
@@ -11631,14 +13742,14 @@
       <c r="C523" s="2" t="n">
         <v>522</v>
       </c>
-      <c r="D523" s="3" t="inlineStr">
+      <c r="D523" s="2" t="inlineStr"/>
+      <c r="E523" s="4" t="inlineStr">
         <is>
           <t>17: XS1(17)
 234: XS5(22)
 557: XP36(11)</t>
         </is>
       </c>
-      <c r="E523" s="2" t="inlineStr"/>
       <c r="F523" s="2" t="inlineStr"/>
     </row>
     <row r="524">
@@ -11653,9 +13764,12 @@
       <c r="C524" s="2" t="n">
         <v>523</v>
       </c>
-      <c r="D524" s="2" t="inlineStr">
+      <c r="D524" s="2" t="inlineStr"/>
+      <c r="E524" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -11664,6 +13778,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -11685,18 +13800,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E524" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F524" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F524" s="2" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -11730,12 +13834,12 @@
       <c r="C526" s="2" t="n">
         <v>525</v>
       </c>
-      <c r="D526" s="3" t="inlineStr">
+      <c r="D526" s="2" t="inlineStr"/>
+      <c r="E526" s="4" t="inlineStr">
         <is>
           <t>409: XS10(9)</t>
         </is>
       </c>
-      <c r="E526" s="2" t="inlineStr"/>
       <c r="F526" s="2" t="inlineStr"/>
     </row>
     <row r="527">
@@ -11770,14 +13874,14 @@
       <c r="C528" s="2" t="n">
         <v>527</v>
       </c>
-      <c r="D528" s="3" t="inlineStr">
+      <c r="D528" s="2" t="inlineStr"/>
+      <c r="E528" s="4" t="inlineStr">
         <is>
           <t>161: XP3(33)
 426: XS10(27)
 538: XS25(5)</t>
         </is>
       </c>
-      <c r="E528" s="2" t="inlineStr"/>
       <c r="F528" s="2" t="inlineStr"/>
     </row>
     <row r="529">
@@ -11868,9 +13972,12 @@
       <c r="C533" s="2" t="n">
         <v>532</v>
       </c>
-      <c r="D533" s="2" t="inlineStr">
+      <c r="D533" s="2" t="inlineStr"/>
+      <c r="E533" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -11879,6 +13986,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -11900,18 +14008,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E533" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F533" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F533" s="2" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -11925,12 +14022,12 @@
       <c r="C534" s="2" t="n">
         <v>533</v>
       </c>
-      <c r="D534" s="3" t="inlineStr">
+      <c r="D534" s="2" t="inlineStr"/>
+      <c r="E534" s="4" t="inlineStr">
         <is>
           <t>339: XS7(18)</t>
         </is>
       </c>
-      <c r="E534" s="2" t="inlineStr"/>
       <c r="F534" s="2" t="inlineStr"/>
     </row>
     <row r="535">
@@ -11945,12 +14042,12 @@
       <c r="C535" s="2" t="n">
         <v>534</v>
       </c>
-      <c r="D535" s="3" t="inlineStr">
+      <c r="D535" s="2" t="inlineStr"/>
+      <c r="E535" s="4" t="inlineStr">
         <is>
           <t>68: XS35(6)</t>
         </is>
       </c>
-      <c r="E535" s="2" t="inlineStr"/>
       <c r="F535" s="2" t="inlineStr"/>
     </row>
     <row r="536">
@@ -11965,12 +14062,12 @@
       <c r="C536" s="2" t="n">
         <v>535</v>
       </c>
-      <c r="D536" s="3" t="inlineStr">
+      <c r="D536" s="2" t="inlineStr"/>
+      <c r="E536" s="4" t="inlineStr">
         <is>
           <t>346: XS7(17)</t>
         </is>
       </c>
-      <c r="E536" s="2" t="inlineStr"/>
       <c r="F536" s="2" t="inlineStr"/>
     </row>
     <row r="537">
@@ -11985,9 +14082,12 @@
       <c r="C537" s="2" t="n">
         <v>536</v>
       </c>
-      <c r="D537" s="2" t="inlineStr">
+      <c r="D537" s="2" t="inlineStr"/>
+      <c r="E537" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -11996,6 +14096,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -12017,18 +14118,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E537" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F537" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F537" s="2" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -12062,14 +14152,14 @@
       <c r="C539" s="2" t="n">
         <v>538</v>
       </c>
-      <c r="D539" s="3" t="inlineStr">
+      <c r="D539" s="2" t="inlineStr"/>
+      <c r="E539" s="4" t="inlineStr">
         <is>
           <t>161: XP3(33)
 426: XS10(27)
 527: XS27(3)</t>
         </is>
       </c>
-      <c r="E539" s="2" t="inlineStr"/>
       <c r="F539" s="2" t="inlineStr"/>
     </row>
     <row r="540">
@@ -12120,9 +14210,12 @@
       <c r="C542" s="2" t="n">
         <v>541</v>
       </c>
-      <c r="D542" s="2" t="inlineStr">
+      <c r="D542" s="2" t="inlineStr"/>
+      <c r="E542" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -12131,6 +14224,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -12152,18 +14246,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E542" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F542" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F542" s="2" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -12177,9 +14260,12 @@
       <c r="C543" s="2" t="n">
         <v>542</v>
       </c>
-      <c r="D543" s="2" t="inlineStr">
+      <c r="D543" s="2" t="inlineStr"/>
+      <c r="E543" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -12188,6 +14274,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -12209,18 +14296,7 @@
 548: XP36(8)</t>
         </is>
       </c>
-      <c r="E543" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F543" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F543" s="2" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -12234,12 +14310,12 @@
       <c r="C544" s="2" t="n">
         <v>543</v>
       </c>
-      <c r="D544" s="3" t="inlineStr">
+      <c r="D544" s="2" t="inlineStr"/>
+      <c r="E544" s="4" t="inlineStr">
         <is>
           <t>337: XS7(14)</t>
         </is>
       </c>
-      <c r="E544" s="2" t="inlineStr"/>
       <c r="F544" s="2" t="inlineStr"/>
     </row>
     <row r="545">
@@ -12254,12 +14330,12 @@
       <c r="C545" s="2" t="n">
         <v>544</v>
       </c>
-      <c r="D545" s="3" t="inlineStr">
+      <c r="D545" s="2" t="inlineStr"/>
+      <c r="E545" s="4" t="inlineStr">
         <is>
           <t>412: XS10(15)</t>
         </is>
       </c>
-      <c r="E545" s="2" t="inlineStr"/>
       <c r="F545" s="2" t="inlineStr"/>
     </row>
     <row r="546">
@@ -12274,12 +14350,12 @@
       <c r="C546" s="2" t="n">
         <v>545</v>
       </c>
-      <c r="D546" s="3" t="inlineStr">
+      <c r="D546" s="2" t="inlineStr"/>
+      <c r="E546" s="4" t="inlineStr">
         <is>
           <t>348: XS7(21)</t>
         </is>
       </c>
-      <c r="E546" s="2" t="inlineStr"/>
       <c r="F546" s="2" t="inlineStr"/>
     </row>
     <row r="547">
@@ -12294,21 +14370,18 @@
       <c r="C547" s="2" t="n">
         <v>546</v>
       </c>
-      <c r="D547" s="2" t="inlineStr">
+      <c r="D547" s="2" t="inlineStr"/>
+      <c r="E547" s="4" t="inlineStr">
         <is>
           <t>18: XS1(19)
 159: XP3(30)
+182: XS4(20)
 254: XS12(20)
 493: XS14(1)
 507: XS22(1)
 516: XP28(1)</t>
         </is>
       </c>
-      <c r="E547" s="4" t="inlineStr">
-        <is>
-          <t>182: XS4(20)</t>
-        </is>
-      </c>
       <c r="F547" s="2" t="inlineStr"/>
     </row>
     <row r="548">
@@ -12339,9 +14412,12 @@
       <c r="C549" s="2" t="n">
         <v>548</v>
       </c>
-      <c r="D549" s="2" t="inlineStr">
+      <c r="D549" s="2" t="inlineStr"/>
+      <c r="E549" s="4" t="inlineStr">
         <is>
           <t>21: XS1(25)
+35: XS2(11)
+37: XS2(15)
 99: XS38(4)
 246: XS12(19)
 266: XS18(2)
@@ -12350,6 +14426,7 @@
 306: XS6(19)
 313: XS6(18)
 319: XS6(30)
+343: XS7(26)
 350: XS7(25)
 366: XS8(6)
 372: XS8(17)
@@ -12371,18 +14448,7 @@
 542: XP44(2)</t>
         </is>
       </c>
-      <c r="E549" s="4" t="inlineStr">
-        <is>
-          <t>35: XS2(11)
-37: XS2(15)
-343: XS7(26)</t>
-        </is>
-      </c>
-      <c r="F549" s="5" t="inlineStr">
-        <is>
-          <t>342: XS7(24)</t>
-        </is>
-      </c>
+      <c r="F549" s="2" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -12396,7 +14462,8 @@
       <c r="C550" s="2" t="n">
         <v>549</v>
       </c>
-      <c r="D550" s="3" t="inlineStr">
+      <c r="D550" s="2" t="inlineStr"/>
+      <c r="E550" s="4" t="inlineStr">
         <is>
           <t>20: XS1(23)
 133: XP3(9)
@@ -12409,7 +14476,6 @@
 492: XS13(1)</t>
         </is>
       </c>
-      <c r="E550" s="2" t="inlineStr"/>
       <c r="F550" s="2" t="inlineStr"/>
     </row>
     <row r="551">
@@ -12424,12 +14490,12 @@
       <c r="C551" s="2" t="n">
         <v>550</v>
       </c>
-      <c r="D551" s="3" t="inlineStr">
+      <c r="D551" s="2" t="inlineStr"/>
+      <c r="E551" s="4" t="inlineStr">
         <is>
           <t>336: XS7(13)</t>
         </is>
       </c>
-      <c r="E551" s="2" t="inlineStr"/>
       <c r="F551" s="2" t="inlineStr"/>
     </row>
     <row r="552">
@@ -12460,13 +14526,13 @@
       <c r="C553" s="2" t="n">
         <v>552</v>
       </c>
-      <c r="D553" s="3" t="inlineStr">
+      <c r="D553" s="2" t="inlineStr"/>
+      <c r="E553" s="4" t="inlineStr">
         <is>
           <t>227: XS5(23)
 252: XS12(16)</t>
         </is>
       </c>
-      <c r="E553" s="2" t="inlineStr"/>
       <c r="F553" s="2" t="inlineStr"/>
     </row>
     <row r="554">
@@ -12481,12 +14547,12 @@
       <c r="C554" s="2" t="n">
         <v>553</v>
       </c>
-      <c r="D554" s="3" t="inlineStr">
+      <c r="D554" s="2" t="inlineStr"/>
+      <c r="E554" s="4" t="inlineStr">
         <is>
           <t>347: XS7(19)</t>
         </is>
       </c>
-      <c r="E554" s="2" t="inlineStr"/>
       <c r="F554" s="2" t="inlineStr"/>
     </row>
     <row r="555">
@@ -12501,15 +14567,12 @@
       <c r="C555" s="2" t="n">
         <v>554</v>
       </c>
-      <c r="D555" s="2" t="inlineStr">
+      <c r="D555" s="2" t="inlineStr"/>
+      <c r="E555" s="4" t="inlineStr">
         <is>
           <t>26: XS1(20)
+58: XS2(26)
 515: XS29(4)</t>
-        </is>
-      </c>
-      <c r="E555" s="4" t="inlineStr">
-        <is>
-          <t>58: XS2(26)</t>
         </is>
       </c>
       <c r="F555" s="2" t="inlineStr"/>
@@ -12526,13 +14589,13 @@
       <c r="C556" s="2" t="n">
         <v>555</v>
       </c>
-      <c r="D556" s="3" t="inlineStr">
+      <c r="D556" s="2" t="inlineStr"/>
+      <c r="E556" s="4" t="inlineStr">
         <is>
           <t>8: XS1(15)
 76: XS35(7)</t>
         </is>
       </c>
-      <c r="E556" s="2" t="inlineStr"/>
       <c r="F556" s="2" t="inlineStr"/>
     </row>
     <row r="557">
@@ -12547,12 +14610,12 @@
       <c r="C557" s="2" t="n">
         <v>556</v>
       </c>
-      <c r="D557" s="3" t="inlineStr">
+      <c r="D557" s="2" t="inlineStr"/>
+      <c r="E557" s="4" t="inlineStr">
         <is>
           <t>340: XS7(20)</t>
         </is>
       </c>
-      <c r="E557" s="2" t="inlineStr"/>
       <c r="F557" s="2" t="inlineStr"/>
     </row>
     <row r="558">
@@ -12567,14 +14630,14 @@
       <c r="C558" s="2" t="n">
         <v>557</v>
       </c>
-      <c r="D558" s="3" t="inlineStr">
+      <c r="D558" s="2" t="inlineStr"/>
+      <c r="E558" s="4" t="inlineStr">
         <is>
           <t>17: XS1(17)
 234: XS5(22)
 522: XS29(3)</t>
         </is>
       </c>
-      <c r="E558" s="2" t="inlineStr"/>
       <c r="F558" s="2" t="inlineStr"/>
     </row>
     <row r="559">
@@ -12605,13 +14668,13 @@
       <c r="C560" s="2" t="n">
         <v>559</v>
       </c>
-      <c r="D560" s="3" t="inlineStr">
+      <c r="D560" s="2" t="inlineStr"/>
+      <c r="E560" s="4" t="inlineStr">
         <is>
           <t>16: XS1(16)
 80: XS35(15)</t>
         </is>
       </c>
-      <c r="E560" s="2" t="inlineStr"/>
       <c r="F560" s="2" t="inlineStr"/>
     </row>
     <row r="561">
@@ -12888,25 +14951,25 @@
     </row>
     <row r="579">
       <c r="A579" t="inlineStr"/>
-      <c r="B579" s="6" t="inlineStr">
+      <c r="B579" s="5" t="inlineStr">
         <is>
           <t>ИТОГО:</t>
         </is>
       </c>
-      <c r="C579" s="6" t="inlineStr"/>
-      <c r="D579" s="6" t="inlineStr">
-        <is>
-          <t>OK: 1260</t>
-        </is>
-      </c>
-      <c r="E579" s="6" t="inlineStr">
-        <is>
-          <t>WARNING: 360</t>
-        </is>
-      </c>
-      <c r="F579" s="6" t="inlineStr">
-        <is>
-          <t>ERROR: 58</t>
+      <c r="C579" s="5" t="inlineStr"/>
+      <c r="D579" s="5" t="inlineStr">
+        <is>
+          <t>OK: 0</t>
+        </is>
+      </c>
+      <c r="E579" s="5" t="inlineStr">
+        <is>
+          <t>WARNING: 1620</t>
+        </is>
+      </c>
+      <c r="F579" s="5" t="inlineStr">
+        <is>
+          <t>ERROR: 2256</t>
         </is>
       </c>
     </row>
